--- a/datos/Malla_Curricular_MYC.xlsx
+++ b/datos/Malla_Curricular_MYC.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="91">
   <si>
     <t>PROGRAMA</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Educación MYC</t>
   </si>
   <si>
-    <t>Educación MYC 2026</t>
+    <t>Educación MYC 2027</t>
   </si>
   <si>
     <t>Álgebra I</t>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Aula</t>
-  </si>
-  <si>
-    <t>Laboratorio</t>
   </si>
   <si>
     <t>Tarde</t>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>Biología</t>
+  </si>
+  <si>
+    <t>Laboratorio</t>
   </si>
   <si>
     <t>Teorías y Enfoques Curriculares</t>
@@ -335,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -359,6 +359,21 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,8 +593,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="15.5"/>
     <col customWidth="1" min="2" max="2" width="17.88"/>
-    <col customWidth="1" min="3" max="3" width="29.25"/>
-    <col customWidth="1" min="4" max="4" width="16.0"/>
+    <col customWidth="1" min="3" max="3" width="25.25"/>
+    <col customWidth="1" min="4" max="4" width="17.25"/>
     <col customWidth="1" min="8" max="8" width="13.88"/>
     <col customWidth="1" min="10" max="11" width="19.63"/>
     <col customWidth="1" min="12" max="12" width="25.88"/>
@@ -676,10 +691,10 @@
         <v>21</v>
       </c>
       <c r="N2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -690,7 +705,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6">
         <v>4337.0</v>
@@ -705,7 +720,7 @@
         <v>4.0</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>20</v>
@@ -725,7 +740,7 @@
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -736,7 +751,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="6">
         <v>8012.0</v>
@@ -751,7 +766,7 @@
         <v>4.0</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>20</v>
@@ -771,7 +786,7 @@
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -782,7 +797,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="6">
         <v>5557.0</v>
@@ -797,7 +812,7 @@
         <v>3.0</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>20</v>
@@ -816,10 +831,10 @@
         <v>21</v>
       </c>
       <c r="N5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -830,7 +845,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="6">
         <v>7821.0</v>
@@ -845,7 +860,7 @@
         <v>2.0</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>20</v>
@@ -864,10 +879,10 @@
         <v>21</v>
       </c>
       <c r="N6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -878,7 +893,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="6">
         <v>9160.0</v>
@@ -893,7 +908,7 @@
         <v>4.0</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>20</v>
@@ -912,10 +927,10 @@
         <v>21</v>
       </c>
       <c r="N7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -926,7 +941,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="6">
         <v>2557.0</v>
@@ -941,7 +956,7 @@
         <v>3.0</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>20</v>
@@ -961,7 +976,7 @@
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -972,7 +987,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="6">
         <v>6260.0</v>
@@ -1006,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="N9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -1020,7 +1035,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="6">
         <v>4130.0</v>
@@ -1038,7 +1053,7 @@
         <v>19</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J10" s="7">
         <v>1.0</v>
@@ -1051,13 +1066,13 @@
         <v>3</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -1068,7 +1083,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="6">
         <v>9652.0</v>
@@ -1100,10 +1115,10 @@
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -1114,7 +1129,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="6">
         <v>4072.0</v>
@@ -1129,10 +1144,10 @@
         <v>4.0</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J12" s="7">
         <v>4.0</v>
@@ -1145,13 +1160,13 @@
         <v>4</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -1162,7 +1177,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="6">
         <v>2381.0</v>
@@ -1197,7 +1212,7 @@
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
@@ -1208,7 +1223,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="6">
         <v>7854.0</v>
@@ -1223,7 +1238,7 @@
         <v>2.0</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>20</v>
@@ -1242,10 +1257,10 @@
         <v>21</v>
       </c>
       <c r="N14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -1256,7 +1271,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="6">
         <v>9296.0</v>
@@ -1271,10 +1286,10 @@
         <v>2.0</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J15" s="7">
         <v>1.0</v>
@@ -1287,13 +1302,13 @@
         <v>3</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -1304,7 +1319,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="6">
         <v>2778.0</v>
@@ -1319,7 +1334,7 @@
         <v>4.0</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>20</v>
@@ -1338,10 +1353,10 @@
         <v>21</v>
       </c>
       <c r="N16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="17">
@@ -1352,7 +1367,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="6">
         <v>5469.0</v>
@@ -1386,10 +1401,10 @@
         <v>21</v>
       </c>
       <c r="N17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -1400,7 +1415,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="6">
         <v>8912.0</v>
@@ -1415,7 +1430,7 @@
         <v>2.0</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>20</v>
@@ -1434,10 +1449,10 @@
         <v>21</v>
       </c>
       <c r="N18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -1448,7 +1463,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="6">
         <v>1200.0</v>
@@ -1482,10 +1497,10 @@
         <v>21</v>
       </c>
       <c r="N19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -1511,7 +1526,7 @@
         <v>4.0</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>20</v>
@@ -1530,10 +1545,10 @@
         <v>21</v>
       </c>
       <c r="N20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -1559,10 +1574,10 @@
         <v>3.0</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J21" s="7">
         <v>3.0</v>
@@ -1575,13 +1590,13 @@
         <v>3</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
@@ -1607,10 +1622,10 @@
         <v>3.0</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J22" s="7">
         <v>2.0</v>
@@ -1623,13 +1638,13 @@
         <v>4</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
@@ -1655,7 +1670,7 @@
         <v>3.0</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>20</v>
@@ -1674,10 +1689,10 @@
         <v>21</v>
       </c>
       <c r="N23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -1722,10 +1737,10 @@
         <v>21</v>
       </c>
       <c r="N24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1770,10 +1785,10 @@
         <v>21</v>
       </c>
       <c r="N25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="26">
@@ -1799,10 +1814,10 @@
         <v>3.0</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J26" s="7">
         <v>1.0</v>
@@ -1815,13 +1830,13 @@
         <v>5</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -1847,7 +1862,7 @@
         <v>3.0</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>20</v>
@@ -1866,10 +1881,10 @@
         <v>21</v>
       </c>
       <c r="N27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -1895,7 +1910,7 @@
         <v>3.0</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>20</v>
@@ -1915,7 +1930,7 @@
       </c>
       <c r="N28" s="6"/>
       <c r="O28" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
@@ -1941,7 +1956,7 @@
         <v>4.0</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>20</v>
@@ -1960,10 +1975,10 @@
         <v>21</v>
       </c>
       <c r="N29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="30">
@@ -1989,7 +2004,7 @@
         <v>3.0</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>20</v>
@@ -2008,10 +2023,10 @@
         <v>21</v>
       </c>
       <c r="N30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="31">
@@ -2054,10 +2069,10 @@
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="32">
@@ -2102,10 +2117,10 @@
         <v>21</v>
       </c>
       <c r="N32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="33">
@@ -2150,10 +2165,10 @@
         <v>21</v>
       </c>
       <c r="N33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="34">
@@ -2179,7 +2194,7 @@
         <v>3.0</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>20</v>
@@ -2199,7 +2214,7 @@
       </c>
       <c r="N34" s="6"/>
       <c r="O34" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35">
@@ -2225,7 +2240,7 @@
         <v>4.0</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>20</v>
@@ -2244,10 +2259,10 @@
         <v>21</v>
       </c>
       <c r="N35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="36">
@@ -2273,7 +2288,7 @@
         <v>3.0</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>20</v>
@@ -2292,10 +2307,10 @@
         <v>21</v>
       </c>
       <c r="N36" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="37">
@@ -2321,7 +2336,7 @@
         <v>3.0</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>20</v>
@@ -2340,10 +2355,10 @@
         <v>21</v>
       </c>
       <c r="N37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="38">
@@ -2389,7 +2404,7 @@
       </c>
       <c r="N38" s="6"/>
       <c r="O38" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39">
@@ -2434,10 +2449,10 @@
         <v>21</v>
       </c>
       <c r="N39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O39" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="40">
@@ -2482,10 +2497,10 @@
         <v>21</v>
       </c>
       <c r="N40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O40" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="41">
@@ -2530,10 +2545,10 @@
         <v>21</v>
       </c>
       <c r="N41" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O41" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="42">
@@ -2559,7 +2574,7 @@
         <v>3.0</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>20</v>
@@ -2578,10 +2593,10 @@
         <v>21</v>
       </c>
       <c r="N42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O42" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O42" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="43">
@@ -2607,10 +2622,10 @@
         <v>3.0</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J43" s="7">
         <v>3.0</v>
@@ -2623,13 +2638,13 @@
         <v>3</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44">
@@ -2655,7 +2670,7 @@
         <v>3.0</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>20</v>
@@ -2674,10 +2689,10 @@
         <v>21</v>
       </c>
       <c r="N44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O44" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="45">
@@ -2722,10 +2737,10 @@
         <v>21</v>
       </c>
       <c r="N45" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O45" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="46">
@@ -2770,10 +2785,10 @@
         <v>21</v>
       </c>
       <c r="N46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O46" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O46" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="47">
@@ -2799,7 +2814,7 @@
         <v>3.0</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>20</v>
@@ -2818,10 +2833,10 @@
         <v>21</v>
       </c>
       <c r="N47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O47" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O47" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="48">
@@ -2847,7 +2862,7 @@
         <v>3.0</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>20</v>
@@ -2867,7 +2882,7 @@
       </c>
       <c r="N48" s="6"/>
       <c r="O48" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49">
@@ -2893,7 +2908,7 @@
         <v>3.0</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>20</v>
@@ -2912,10 +2927,10 @@
         <v>21</v>
       </c>
       <c r="N49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O49" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O49" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="50">
@@ -2960,10 +2975,10 @@
         <v>21</v>
       </c>
       <c r="N50" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O50" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="51">
@@ -2989,7 +3004,7 @@
         <v>3.0</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>20</v>
@@ -3008,10 +3023,10 @@
         <v>21</v>
       </c>
       <c r="N51" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O51" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O51" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="52">
@@ -3056,10 +3071,10 @@
         <v>21</v>
       </c>
       <c r="N52" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O52" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O52" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="53">
@@ -3085,10 +3100,10 @@
         <v>3.0</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J53" s="7">
         <v>2.0</v>
@@ -3101,13 +3116,13 @@
         <v>4</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54">
@@ -3133,7 +3148,7 @@
         <v>2.0</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>20</v>
@@ -3152,10 +3167,10 @@
         <v>21</v>
       </c>
       <c r="N54" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O54" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O54" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="55">
@@ -3181,7 +3196,7 @@
         <v>3.0</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>20</v>
@@ -3201,7 +3216,7 @@
       </c>
       <c r="N55" s="6"/>
       <c r="O55" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
@@ -3246,59 +3261,72 @@
         <v>21</v>
       </c>
       <c r="N56" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O56" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O56" s="7" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="10">
         <v>3480.0</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="11">
         <v>8.0</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="11">
         <v>2.0</v>
       </c>
-      <c r="H57" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J57" s="7">
+      <c r="H57" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J57" s="11">
         <v>1.0</v>
       </c>
-      <c r="K57" s="7">
+      <c r="K57" s="11">
         <v>2.0</v>
       </c>
-      <c r="L57" s="6">
+      <c r="L57" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M57" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N57" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O57" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="M57" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N57" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O57" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
+      <c r="AA57" s="12"/>
+      <c r="AB57" s="12"/>
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
@@ -3342,10 +3370,10 @@
         <v>21</v>
       </c>
       <c r="N58" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O58" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O58" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="59">
@@ -3390,10 +3418,10 @@
         <v>21</v>
       </c>
       <c r="N59" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O59" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O59" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="60">
@@ -3419,7 +3447,7 @@
         <v>3.0</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I60" s="7" t="s">
         <v>20</v>
@@ -3438,10 +3466,10 @@
         <v>21</v>
       </c>
       <c r="N60" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O60" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O60" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="61">
@@ -3467,10 +3495,10 @@
         <v>4.0</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J61" s="7">
         <v>3.0</v>
@@ -3483,13 +3511,13 @@
         <v>5</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N61" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62">
@@ -3534,10 +3562,10 @@
         <v>21</v>
       </c>
       <c r="N62" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O62" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O62" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="63">
@@ -3563,7 +3591,7 @@
         <v>3.0</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>20</v>
@@ -3582,10 +3610,10 @@
         <v>21</v>
       </c>
       <c r="N63" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O63" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O63" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="64">
@@ -3611,10 +3639,10 @@
         <v>3.0</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J64" s="7">
         <v>2.0</v>
@@ -3627,13 +3655,13 @@
         <v>4</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65">
@@ -3659,7 +3687,7 @@
         <v>3.0</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>20</v>
@@ -3674,14 +3702,12 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M65" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="M65" s="7"/>
       <c r="N65" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O65" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O65" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="66">
@@ -3707,10 +3733,10 @@
         <v>4.0</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J66" s="7">
         <v>3.0</v>
@@ -3723,13 +3749,13 @@
         <v>5</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67">
@@ -3770,14 +3796,12 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="M67" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="M67" s="7"/>
       <c r="N67" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O67" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="O67" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="68">

--- a/datos/Malla_Curricular_MYC.xlsx
+++ b/datos/Malla_Curricular_MYC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\practicante.academi\Downloads\proyecto_horas_aula_modular\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analsis_coding\estimacion_infraestructura\Consumo_horas_educacion_secundaria\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B1819D-1041-48B4-A1F8-DABA24A6EB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Malla_Curricular_MYC" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,26 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Malla_Curricular_MYC!$A$1:$O$67</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="93">
   <si>
     <t>PROGRAMA</t>
   </si>
@@ -300,11 +315,14 @@
   <si>
     <t>Laboratorio de Química</t>
   </si>
+  <si>
+    <t>Laboratorio de Física</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -317,23 +335,27 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -586,32 +608,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="11" width="19.5703125" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" customWidth="1"/>
-    <col min="13" max="13" width="22.5703125" customWidth="1"/>
-    <col min="14" max="14" width="24.5703125" customWidth="1"/>
+    <col min="5" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+    <col min="10" max="11" width="19.5546875" customWidth="1"/>
+    <col min="12" max="12" width="25.88671875" customWidth="1"/>
+    <col min="13" max="13" width="22.5546875" customWidth="1"/>
+    <col min="14" max="14" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,7 +680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -706,7 +728,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -752,7 +774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -798,7 +820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -846,7 +868,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -894,7 +916,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -942,7 +964,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -988,7 +1010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -1036,7 +1058,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1084,7 +1106,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1130,7 +1152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -1178,7 +1200,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -1224,7 +1246,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -1272,7 +1294,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1320,7 +1342,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -1368,7 +1390,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -1416,7 +1438,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
@@ -1464,7 +1486,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
@@ -1506,13 +1528,13 @@
         <v>21</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
@@ -1560,7 +1582,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -1608,7 +1630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>15</v>
       </c>
@@ -1656,7 +1678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
@@ -1704,7 +1726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>15</v>
       </c>
@@ -1752,7 +1774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -1800,7 +1822,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>15</v>
       </c>
@@ -1848,7 +1870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>15</v>
       </c>
@@ -1896,7 +1918,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>15</v>
       </c>
@@ -1942,7 +1964,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>15</v>
       </c>
@@ -1990,7 +2012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>15</v>
       </c>
@@ -2038,7 +2060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>15</v>
       </c>
@@ -2084,7 +2106,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>15</v>
       </c>
@@ -2132,7 +2154,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>15</v>
       </c>
@@ -2180,7 +2202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>15</v>
       </c>
@@ -2226,7 +2248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>15</v>
       </c>
@@ -2274,7 +2296,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>15</v>
       </c>
@@ -2322,7 +2344,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>15</v>
       </c>
@@ -2370,7 +2392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>15</v>
       </c>
@@ -2409,14 +2431,14 @@
         <v>3</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="N38" s="6"/>
       <c r="O38" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>15</v>
       </c>
@@ -2458,13 +2480,13 @@
         <v>21</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>15</v>
       </c>
@@ -2506,13 +2528,13 @@
         <v>21</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>15</v>
       </c>
@@ -2554,13 +2576,13 @@
         <v>21</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>15</v>
       </c>
@@ -2608,7 +2630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>15</v>
       </c>
@@ -2656,7 +2678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>15</v>
       </c>
@@ -2704,7 +2726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>15</v>
       </c>
@@ -2746,13 +2768,13 @@
         <v>21</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>15</v>
       </c>
@@ -2800,7 +2822,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>15</v>
       </c>
@@ -2848,7 +2870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>15</v>
       </c>
@@ -2894,7 +2916,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>15</v>
       </c>
@@ -2942,7 +2964,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>15</v>
       </c>
@@ -2990,7 +3012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>15</v>
       </c>
@@ -3038,7 +3060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>15</v>
       </c>
@@ -3080,13 +3102,13 @@
         <v>21</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="O52" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>15</v>
       </c>
@@ -3134,7 +3156,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>15</v>
       </c>
@@ -3182,7 +3204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>15</v>
       </c>
@@ -3228,7 +3250,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>15</v>
       </c>
@@ -3276,7 +3298,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>15</v>
       </c>
@@ -3324,7 +3346,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>15</v>
       </c>
@@ -3372,7 +3394,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>15</v>
       </c>
@@ -3420,7 +3442,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>15</v>
       </c>
@@ -3468,7 +3490,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>15</v>
       </c>
@@ -3516,7 +3538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>15</v>
       </c>
@@ -3564,7 +3586,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>15</v>
       </c>
@@ -3612,7 +3634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>15</v>
       </c>
@@ -3660,7 +3682,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>15</v>
       </c>
@@ -3708,7 +3730,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>15</v>
       </c>
@@ -3756,7 +3778,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>15</v>
       </c>
@@ -3804,7 +3826,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -3818,7 +3840,7 @@
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -3832,7 +3854,7 @@
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -3846,7 +3868,7 @@
       <c r="N70" s="6"/>
       <c r="O70" s="6"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -3860,7 +3882,7 @@
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
@@ -3874,7 +3896,7 @@
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
@@ -3888,7 +3910,7 @@
       <c r="N73" s="6"/>
       <c r="O73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
@@ -3902,7 +3924,7 @@
       <c r="N74" s="6"/>
       <c r="O74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -3916,7 +3938,7 @@
       <c r="N75" s="6"/>
       <c r="O75" s="6"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -3930,7 +3952,7 @@
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
@@ -3944,7 +3966,7 @@
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -3958,7 +3980,7 @@
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -3972,7 +3994,7 @@
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -3986,7 +4008,7 @@
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
     </row>
-    <row r="81" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -4000,7 +4022,7 @@
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
     </row>
-    <row r="82" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
@@ -4014,7 +4036,7 @@
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
     </row>
-    <row r="83" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
@@ -4028,7 +4050,7 @@
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
     </row>
-    <row r="84" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
@@ -4042,7 +4064,7 @@
       <c r="N84" s="6"/>
       <c r="O84" s="6"/>
     </row>
-    <row r="85" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
@@ -4056,7 +4078,7 @@
       <c r="N85" s="6"/>
       <c r="O85" s="6"/>
     </row>
-    <row r="86" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
@@ -4070,7 +4092,7 @@
       <c r="N86" s="6"/>
       <c r="O86" s="6"/>
     </row>
-    <row r="87" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
@@ -4084,7 +4106,7 @@
       <c r="N87" s="6"/>
       <c r="O87" s="6"/>
     </row>
-    <row r="88" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
@@ -4098,7 +4120,7 @@
       <c r="N88" s="6"/>
       <c r="O88" s="6"/>
     </row>
-    <row r="89" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
@@ -4112,7 +4134,7 @@
       <c r="N89" s="6"/>
       <c r="O89" s="6"/>
     </row>
-    <row r="90" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
@@ -4126,7 +4148,7 @@
       <c r="N90" s="6"/>
       <c r="O90" s="6"/>
     </row>
-    <row r="91" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
@@ -4140,7 +4162,7 @@
       <c r="N91" s="6"/>
       <c r="O91" s="6"/>
     </row>
-    <row r="92" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
@@ -4154,7 +4176,7 @@
       <c r="N92" s="6"/>
       <c r="O92" s="6"/>
     </row>
-    <row r="93" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
@@ -4168,7 +4190,7 @@
       <c r="N93" s="6"/>
       <c r="O93" s="6"/>
     </row>
-    <row r="94" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
@@ -4182,7 +4204,7 @@
       <c r="N94" s="6"/>
       <c r="O94" s="6"/>
     </row>
-    <row r="95" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
@@ -4196,7 +4218,7 @@
       <c r="N95" s="6"/>
       <c r="O95" s="6"/>
     </row>
-    <row r="96" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
@@ -4210,7 +4232,7 @@
       <c r="N96" s="6"/>
       <c r="O96" s="6"/>
     </row>
-    <row r="97" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
@@ -4224,7 +4246,7 @@
       <c r="N97" s="6"/>
       <c r="O97" s="6"/>
     </row>
-    <row r="98" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
@@ -4238,7 +4260,7 @@
       <c r="N98" s="6"/>
       <c r="O98" s="6"/>
     </row>
-    <row r="99" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
@@ -4252,7 +4274,7 @@
       <c r="N99" s="6"/>
       <c r="O99" s="6"/>
     </row>
-    <row r="100" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
@@ -4266,7 +4288,7 @@
       <c r="N100" s="6"/>
       <c r="O100" s="6"/>
     </row>
-    <row r="101" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
@@ -4280,7 +4302,7 @@
       <c r="N101" s="6"/>
       <c r="O101" s="6"/>
     </row>
-    <row r="102" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
@@ -4294,7 +4316,7 @@
       <c r="N102" s="6"/>
       <c r="O102" s="6"/>
     </row>
-    <row r="103" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
@@ -4308,7 +4330,7 @@
       <c r="N103" s="6"/>
       <c r="O103" s="6"/>
     </row>
-    <row r="104" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
@@ -4322,7 +4344,7 @@
       <c r="N104" s="6"/>
       <c r="O104" s="6"/>
     </row>
-    <row r="105" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
@@ -4336,7 +4358,7 @@
       <c r="N105" s="6"/>
       <c r="O105" s="6"/>
     </row>
-    <row r="106" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
@@ -4350,7 +4372,7 @@
       <c r="N106" s="6"/>
       <c r="O106" s="6"/>
     </row>
-    <row r="107" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
@@ -4364,7 +4386,7 @@
       <c r="N107" s="6"/>
       <c r="O107" s="6"/>
     </row>
-    <row r="108" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
@@ -4378,7 +4400,7 @@
       <c r="N108" s="6"/>
       <c r="O108" s="6"/>
     </row>
-    <row r="109" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
@@ -4392,7 +4414,7 @@
       <c r="N109" s="6"/>
       <c r="O109" s="6"/>
     </row>
-    <row r="110" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
@@ -4406,7 +4428,7 @@
       <c r="N110" s="6"/>
       <c r="O110" s="6"/>
     </row>
-    <row r="111" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
@@ -4420,7 +4442,7 @@
       <c r="N111" s="6"/>
       <c r="O111" s="6"/>
     </row>
-    <row r="112" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
@@ -4434,7 +4456,7 @@
       <c r="N112" s="6"/>
       <c r="O112" s="6"/>
     </row>
-    <row r="113" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
@@ -4448,7 +4470,7 @@
       <c r="N113" s="6"/>
       <c r="O113" s="6"/>
     </row>
-    <row r="114" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
@@ -4462,7 +4484,7 @@
       <c r="N114" s="6"/>
       <c r="O114" s="6"/>
     </row>
-    <row r="115" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
@@ -4476,7 +4498,7 @@
       <c r="N115" s="6"/>
       <c r="O115" s="6"/>
     </row>
-    <row r="116" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
@@ -4490,7 +4512,7 @@
       <c r="N116" s="6"/>
       <c r="O116" s="6"/>
     </row>
-    <row r="117" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
@@ -4504,7 +4526,7 @@
       <c r="N117" s="6"/>
       <c r="O117" s="6"/>
     </row>
-    <row r="118" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
@@ -4518,7 +4540,7 @@
       <c r="N118" s="6"/>
       <c r="O118" s="6"/>
     </row>
-    <row r="119" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
@@ -4532,7 +4554,7 @@
       <c r="N119" s="6"/>
       <c r="O119" s="6"/>
     </row>
-    <row r="120" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
@@ -4546,7 +4568,7 @@
       <c r="N120" s="6"/>
       <c r="O120" s="6"/>
     </row>
-    <row r="121" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
@@ -4560,7 +4582,7 @@
       <c r="N121" s="6"/>
       <c r="O121" s="6"/>
     </row>
-    <row r="122" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
@@ -4574,7 +4596,7 @@
       <c r="N122" s="6"/>
       <c r="O122" s="6"/>
     </row>
-    <row r="123" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
@@ -4588,7 +4610,7 @@
       <c r="N123" s="6"/>
       <c r="O123" s="6"/>
     </row>
-    <row r="124" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
@@ -4602,7 +4624,7 @@
       <c r="N124" s="6"/>
       <c r="O124" s="6"/>
     </row>
-    <row r="125" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
@@ -4616,7 +4638,7 @@
       <c r="N125" s="6"/>
       <c r="O125" s="6"/>
     </row>
-    <row r="126" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
@@ -4630,7 +4652,7 @@
       <c r="N126" s="6"/>
       <c r="O126" s="6"/>
     </row>
-    <row r="127" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
@@ -4644,7 +4666,7 @@
       <c r="N127" s="6"/>
       <c r="O127" s="6"/>
     </row>
-    <row r="128" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
@@ -4658,7 +4680,7 @@
       <c r="N128" s="6"/>
       <c r="O128" s="6"/>
     </row>
-    <row r="129" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
@@ -4672,7 +4694,7 @@
       <c r="N129" s="6"/>
       <c r="O129" s="6"/>
     </row>
-    <row r="130" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
@@ -4686,7 +4708,7 @@
       <c r="N130" s="6"/>
       <c r="O130" s="6"/>
     </row>
-    <row r="131" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
@@ -4700,7 +4722,7 @@
       <c r="N131" s="6"/>
       <c r="O131" s="6"/>
     </row>
-    <row r="132" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D132" s="6"/>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
@@ -4714,7 +4736,7 @@
       <c r="N132" s="6"/>
       <c r="O132" s="6"/>
     </row>
-    <row r="133" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D133" s="6"/>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
@@ -4728,7 +4750,7 @@
       <c r="N133" s="6"/>
       <c r="O133" s="6"/>
     </row>
-    <row r="134" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
@@ -4742,7 +4764,7 @@
       <c r="N134" s="6"/>
       <c r="O134" s="6"/>
     </row>
-    <row r="135" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
@@ -4756,7 +4778,7 @@
       <c r="N135" s="6"/>
       <c r="O135" s="6"/>
     </row>
-    <row r="136" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
@@ -4770,7 +4792,7 @@
       <c r="N136" s="6"/>
       <c r="O136" s="6"/>
     </row>
-    <row r="137" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
@@ -4784,7 +4806,7 @@
       <c r="N137" s="6"/>
       <c r="O137" s="6"/>
     </row>
-    <row r="138" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
@@ -4798,7 +4820,7 @@
       <c r="N138" s="6"/>
       <c r="O138" s="6"/>
     </row>
-    <row r="139" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
@@ -4812,7 +4834,7 @@
       <c r="N139" s="6"/>
       <c r="O139" s="6"/>
     </row>
-    <row r="140" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D140" s="6"/>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
@@ -4826,7 +4848,7 @@
       <c r="N140" s="6"/>
       <c r="O140" s="6"/>
     </row>
-    <row r="141" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D141" s="6"/>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
@@ -4840,7 +4862,7 @@
       <c r="N141" s="6"/>
       <c r="O141" s="6"/>
     </row>
-    <row r="142" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D142" s="6"/>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
@@ -4854,7 +4876,7 @@
       <c r="N142" s="6"/>
       <c r="O142" s="6"/>
     </row>
-    <row r="143" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D143" s="6"/>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
@@ -4868,7 +4890,7 @@
       <c r="N143" s="6"/>
       <c r="O143" s="6"/>
     </row>
-    <row r="144" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D144" s="6"/>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
@@ -4882,7 +4904,7 @@
       <c r="N144" s="6"/>
       <c r="O144" s="6"/>
     </row>
-    <row r="145" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
@@ -4896,7 +4918,7 @@
       <c r="N145" s="6"/>
       <c r="O145" s="6"/>
     </row>
-    <row r="146" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
@@ -4910,7 +4932,7 @@
       <c r="N146" s="6"/>
       <c r="O146" s="6"/>
     </row>
-    <row r="147" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
@@ -4924,7 +4946,7 @@
       <c r="N147" s="6"/>
       <c r="O147" s="6"/>
     </row>
-    <row r="148" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
@@ -4938,7 +4960,7 @@
       <c r="N148" s="6"/>
       <c r="O148" s="6"/>
     </row>
-    <row r="149" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
@@ -4952,7 +4974,7 @@
       <c r="N149" s="6"/>
       <c r="O149" s="6"/>
     </row>
-    <row r="150" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
@@ -4966,7 +4988,7 @@
       <c r="N150" s="6"/>
       <c r="O150" s="6"/>
     </row>
-    <row r="151" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
@@ -4980,7 +5002,7 @@
       <c r="N151" s="6"/>
       <c r="O151" s="6"/>
     </row>
-    <row r="152" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
@@ -4994,7 +5016,7 @@
       <c r="N152" s="6"/>
       <c r="O152" s="6"/>
     </row>
-    <row r="153" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
@@ -5008,7 +5030,7 @@
       <c r="N153" s="6"/>
       <c r="O153" s="6"/>
     </row>
-    <row r="154" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
@@ -5022,7 +5044,7 @@
       <c r="N154" s="6"/>
       <c r="O154" s="6"/>
     </row>
-    <row r="155" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D155" s="6"/>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
@@ -5036,7 +5058,7 @@
       <c r="N155" s="6"/>
       <c r="O155" s="6"/>
     </row>
-    <row r="156" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
@@ -5050,7 +5072,7 @@
       <c r="N156" s="6"/>
       <c r="O156" s="6"/>
     </row>
-    <row r="157" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
@@ -5064,7 +5086,7 @@
       <c r="N157" s="6"/>
       <c r="O157" s="6"/>
     </row>
-    <row r="158" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
@@ -5078,7 +5100,7 @@
       <c r="N158" s="6"/>
       <c r="O158" s="6"/>
     </row>
-    <row r="159" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
@@ -5092,7 +5114,7 @@
       <c r="N159" s="6"/>
       <c r="O159" s="6"/>
     </row>
-    <row r="160" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
@@ -5106,7 +5128,7 @@
       <c r="N160" s="6"/>
       <c r="O160" s="6"/>
     </row>
-    <row r="161" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
@@ -5120,7 +5142,7 @@
       <c r="N161" s="6"/>
       <c r="O161" s="6"/>
     </row>
-    <row r="162" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
@@ -5134,7 +5156,7 @@
       <c r="N162" s="6"/>
       <c r="O162" s="6"/>
     </row>
-    <row r="163" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
@@ -5148,7 +5170,7 @@
       <c r="N163" s="6"/>
       <c r="O163" s="6"/>
     </row>
-    <row r="164" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
@@ -5162,7 +5184,7 @@
       <c r="N164" s="6"/>
       <c r="O164" s="6"/>
     </row>
-    <row r="165" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
@@ -5176,7 +5198,7 @@
       <c r="N165" s="6"/>
       <c r="O165" s="6"/>
     </row>
-    <row r="166" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
@@ -5190,7 +5212,7 @@
       <c r="N166" s="6"/>
       <c r="O166" s="6"/>
     </row>
-    <row r="167" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
@@ -5204,7 +5226,7 @@
       <c r="N167" s="6"/>
       <c r="O167" s="6"/>
     </row>
-    <row r="168" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
@@ -5218,7 +5240,7 @@
       <c r="N168" s="6"/>
       <c r="O168" s="6"/>
     </row>
-    <row r="169" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
@@ -5232,7 +5254,7 @@
       <c r="N169" s="6"/>
       <c r="O169" s="6"/>
     </row>
-    <row r="170" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
@@ -5246,7 +5268,7 @@
       <c r="N170" s="6"/>
       <c r="O170" s="6"/>
     </row>
-    <row r="171" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D171" s="6"/>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
@@ -5260,7 +5282,7 @@
       <c r="N171" s="6"/>
       <c r="O171" s="6"/>
     </row>
-    <row r="172" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
@@ -5274,7 +5296,7 @@
       <c r="N172" s="6"/>
       <c r="O172" s="6"/>
     </row>
-    <row r="173" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
@@ -5288,7 +5310,7 @@
       <c r="N173" s="6"/>
       <c r="O173" s="6"/>
     </row>
-    <row r="174" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
@@ -5302,7 +5324,7 @@
       <c r="N174" s="6"/>
       <c r="O174" s="6"/>
     </row>
-    <row r="175" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
@@ -5316,7 +5338,7 @@
       <c r="N175" s="6"/>
       <c r="O175" s="6"/>
     </row>
-    <row r="176" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
@@ -5330,7 +5352,7 @@
       <c r="N176" s="6"/>
       <c r="O176" s="6"/>
     </row>
-    <row r="177" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
@@ -5344,7 +5366,7 @@
       <c r="N177" s="6"/>
       <c r="O177" s="6"/>
     </row>
-    <row r="178" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D178" s="6"/>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
@@ -5358,7 +5380,7 @@
       <c r="N178" s="6"/>
       <c r="O178" s="6"/>
     </row>
-    <row r="179" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
@@ -5372,7 +5394,7 @@
       <c r="N179" s="6"/>
       <c r="O179" s="6"/>
     </row>
-    <row r="180" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D180" s="6"/>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
@@ -5386,7 +5408,7 @@
       <c r="N180" s="6"/>
       <c r="O180" s="6"/>
     </row>
-    <row r="181" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D181" s="6"/>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
@@ -5400,7 +5422,7 @@
       <c r="N181" s="6"/>
       <c r="O181" s="6"/>
     </row>
-    <row r="182" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D182" s="6"/>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
@@ -5414,7 +5436,7 @@
       <c r="N182" s="6"/>
       <c r="O182" s="6"/>
     </row>
-    <row r="183" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D183" s="6"/>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
@@ -5428,7 +5450,7 @@
       <c r="N183" s="6"/>
       <c r="O183" s="6"/>
     </row>
-    <row r="184" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D184" s="6"/>
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
@@ -5442,7 +5464,7 @@
       <c r="N184" s="6"/>
       <c r="O184" s="6"/>
     </row>
-    <row r="185" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
@@ -5456,7 +5478,7 @@
       <c r="N185" s="6"/>
       <c r="O185" s="6"/>
     </row>
-    <row r="186" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
@@ -5470,7 +5492,7 @@
       <c r="N186" s="6"/>
       <c r="O186" s="6"/>
     </row>
-    <row r="187" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D187" s="6"/>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
@@ -5484,7 +5506,7 @@
       <c r="N187" s="6"/>
       <c r="O187" s="6"/>
     </row>
-    <row r="188" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D188" s="6"/>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
@@ -5498,7 +5520,7 @@
       <c r="N188" s="6"/>
       <c r="O188" s="6"/>
     </row>
-    <row r="189" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
@@ -5512,7 +5534,7 @@
       <c r="N189" s="6"/>
       <c r="O189" s="6"/>
     </row>
-    <row r="190" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D190" s="6"/>
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
@@ -5526,7 +5548,7 @@
       <c r="N190" s="6"/>
       <c r="O190" s="6"/>
     </row>
-    <row r="191" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
@@ -5540,7 +5562,7 @@
       <c r="N191" s="6"/>
       <c r="O191" s="6"/>
     </row>
-    <row r="192" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
@@ -5554,7 +5576,7 @@
       <c r="N192" s="6"/>
       <c r="O192" s="6"/>
     </row>
-    <row r="193" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
@@ -5568,7 +5590,7 @@
       <c r="N193" s="6"/>
       <c r="O193" s="6"/>
     </row>
-    <row r="194" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D194" s="6"/>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
@@ -5582,7 +5604,7 @@
       <c r="N194" s="6"/>
       <c r="O194" s="6"/>
     </row>
-    <row r="195" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
@@ -5596,7 +5618,7 @@
       <c r="N195" s="6"/>
       <c r="O195" s="6"/>
     </row>
-    <row r="196" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
@@ -5610,7 +5632,7 @@
       <c r="N196" s="6"/>
       <c r="O196" s="6"/>
     </row>
-    <row r="197" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D197" s="6"/>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
@@ -5624,7 +5646,7 @@
       <c r="N197" s="6"/>
       <c r="O197" s="6"/>
     </row>
-    <row r="198" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D198" s="6"/>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
@@ -5638,7 +5660,7 @@
       <c r="N198" s="6"/>
       <c r="O198" s="6"/>
     </row>
-    <row r="199" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D199" s="6"/>
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
@@ -5652,7 +5674,7 @@
       <c r="N199" s="6"/>
       <c r="O199" s="6"/>
     </row>
-    <row r="200" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D200" s="6"/>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
@@ -5666,7 +5688,7 @@
       <c r="N200" s="6"/>
       <c r="O200" s="6"/>
     </row>
-    <row r="201" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D201" s="6"/>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
@@ -5680,7 +5702,7 @@
       <c r="N201" s="6"/>
       <c r="O201" s="6"/>
     </row>
-    <row r="202" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D202" s="6"/>
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
@@ -5694,7 +5716,7 @@
       <c r="N202" s="6"/>
       <c r="O202" s="6"/>
     </row>
-    <row r="203" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D203" s="6"/>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
@@ -5708,7 +5730,7 @@
       <c r="N203" s="6"/>
       <c r="O203" s="6"/>
     </row>
-    <row r="204" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
@@ -5722,7 +5744,7 @@
       <c r="N204" s="6"/>
       <c r="O204" s="6"/>
     </row>
-    <row r="205" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D205" s="6"/>
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
@@ -5736,7 +5758,7 @@
       <c r="N205" s="6"/>
       <c r="O205" s="6"/>
     </row>
-    <row r="206" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D206" s="6"/>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
@@ -5750,7 +5772,7 @@
       <c r="N206" s="6"/>
       <c r="O206" s="6"/>
     </row>
-    <row r="207" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D207" s="6"/>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
@@ -5764,7 +5786,7 @@
       <c r="N207" s="6"/>
       <c r="O207" s="6"/>
     </row>
-    <row r="208" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D208" s="6"/>
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
@@ -5778,7 +5800,7 @@
       <c r="N208" s="6"/>
       <c r="O208" s="6"/>
     </row>
-    <row r="209" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D209" s="6"/>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
@@ -5792,7 +5814,7 @@
       <c r="N209" s="6"/>
       <c r="O209" s="6"/>
     </row>
-    <row r="210" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D210" s="6"/>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
@@ -5806,7 +5828,7 @@
       <c r="N210" s="6"/>
       <c r="O210" s="6"/>
     </row>
-    <row r="211" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D211" s="6"/>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
@@ -5820,7 +5842,7 @@
       <c r="N211" s="6"/>
       <c r="O211" s="6"/>
     </row>
-    <row r="212" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D212" s="6"/>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
@@ -5834,7 +5856,7 @@
       <c r="N212" s="6"/>
       <c r="O212" s="6"/>
     </row>
-    <row r="213" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D213" s="6"/>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
@@ -5848,7 +5870,7 @@
       <c r="N213" s="6"/>
       <c r="O213" s="6"/>
     </row>
-    <row r="214" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D214" s="6"/>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
@@ -5862,7 +5884,7 @@
       <c r="N214" s="6"/>
       <c r="O214" s="6"/>
     </row>
-    <row r="215" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D215" s="6"/>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
@@ -5876,7 +5898,7 @@
       <c r="N215" s="6"/>
       <c r="O215" s="6"/>
     </row>
-    <row r="216" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D216" s="6"/>
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
@@ -5890,7 +5912,7 @@
       <c r="N216" s="6"/>
       <c r="O216" s="6"/>
     </row>
-    <row r="217" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D217" s="6"/>
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
@@ -5904,7 +5926,7 @@
       <c r="N217" s="6"/>
       <c r="O217" s="6"/>
     </row>
-    <row r="218" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D218" s="6"/>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
@@ -5918,7 +5940,7 @@
       <c r="N218" s="6"/>
       <c r="O218" s="6"/>
     </row>
-    <row r="219" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D219" s="6"/>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
@@ -5932,7 +5954,7 @@
       <c r="N219" s="6"/>
       <c r="O219" s="6"/>
     </row>
-    <row r="220" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D220" s="6"/>
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
@@ -5946,7 +5968,7 @@
       <c r="N220" s="6"/>
       <c r="O220" s="6"/>
     </row>
-    <row r="221" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D221" s="6"/>
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
@@ -5960,7 +5982,7 @@
       <c r="N221" s="6"/>
       <c r="O221" s="6"/>
     </row>
-    <row r="222" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D222" s="6"/>
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
@@ -5974,7 +5996,7 @@
       <c r="N222" s="6"/>
       <c r="O222" s="6"/>
     </row>
-    <row r="223" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D223" s="6"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
@@ -5988,7 +6010,7 @@
       <c r="N223" s="6"/>
       <c r="O223" s="6"/>
     </row>
-    <row r="224" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D224" s="6"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
@@ -6002,7 +6024,7 @@
       <c r="N224" s="6"/>
       <c r="O224" s="6"/>
     </row>
-    <row r="225" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D225" s="6"/>
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
@@ -6016,7 +6038,7 @@
       <c r="N225" s="6"/>
       <c r="O225" s="6"/>
     </row>
-    <row r="226" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D226" s="6"/>
       <c r="E226" s="6"/>
       <c r="F226" s="6"/>
@@ -6030,7 +6052,7 @@
       <c r="N226" s="6"/>
       <c r="O226" s="6"/>
     </row>
-    <row r="227" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D227" s="6"/>
       <c r="E227" s="6"/>
       <c r="F227" s="6"/>
@@ -6044,7 +6066,7 @@
       <c r="N227" s="6"/>
       <c r="O227" s="6"/>
     </row>
-    <row r="228" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D228" s="6"/>
       <c r="E228" s="6"/>
       <c r="F228" s="6"/>
@@ -6058,7 +6080,7 @@
       <c r="N228" s="6"/>
       <c r="O228" s="6"/>
     </row>
-    <row r="229" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D229" s="6"/>
       <c r="E229" s="6"/>
       <c r="F229" s="6"/>
@@ -6072,7 +6094,7 @@
       <c r="N229" s="6"/>
       <c r="O229" s="6"/>
     </row>
-    <row r="230" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D230" s="6"/>
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
@@ -6086,7 +6108,7 @@
       <c r="N230" s="6"/>
       <c r="O230" s="6"/>
     </row>
-    <row r="231" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D231" s="6"/>
       <c r="E231" s="6"/>
       <c r="F231" s="6"/>
@@ -6100,7 +6122,7 @@
       <c r="N231" s="6"/>
       <c r="O231" s="6"/>
     </row>
-    <row r="232" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D232" s="6"/>
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
@@ -6114,7 +6136,7 @@
       <c r="N232" s="6"/>
       <c r="O232" s="6"/>
     </row>
-    <row r="233" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D233" s="6"/>
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
@@ -6128,7 +6150,7 @@
       <c r="N233" s="6"/>
       <c r="O233" s="6"/>
     </row>
-    <row r="234" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D234" s="6"/>
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
@@ -6142,7 +6164,7 @@
       <c r="N234" s="6"/>
       <c r="O234" s="6"/>
     </row>
-    <row r="235" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D235" s="6"/>
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
@@ -6156,7 +6178,7 @@
       <c r="N235" s="6"/>
       <c r="O235" s="6"/>
     </row>
-    <row r="236" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D236" s="6"/>
       <c r="E236" s="6"/>
       <c r="F236" s="6"/>
@@ -6170,7 +6192,7 @@
       <c r="N236" s="6"/>
       <c r="O236" s="6"/>
     </row>
-    <row r="237" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D237" s="6"/>
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
@@ -6184,7 +6206,7 @@
       <c r="N237" s="6"/>
       <c r="O237" s="6"/>
     </row>
-    <row r="238" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D238" s="6"/>
       <c r="E238" s="6"/>
       <c r="F238" s="6"/>
@@ -6198,7 +6220,7 @@
       <c r="N238" s="6"/>
       <c r="O238" s="6"/>
     </row>
-    <row r="239" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D239" s="6"/>
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
@@ -6212,7 +6234,7 @@
       <c r="N239" s="6"/>
       <c r="O239" s="6"/>
     </row>
-    <row r="240" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D240" s="6"/>
       <c r="E240" s="6"/>
       <c r="F240" s="6"/>
@@ -6226,7 +6248,7 @@
       <c r="N240" s="6"/>
       <c r="O240" s="6"/>
     </row>
-    <row r="241" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D241" s="6"/>
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
@@ -6240,7 +6262,7 @@
       <c r="N241" s="6"/>
       <c r="O241" s="6"/>
     </row>
-    <row r="242" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D242" s="6"/>
       <c r="E242" s="6"/>
       <c r="F242" s="6"/>
@@ -6254,7 +6276,7 @@
       <c r="N242" s="6"/>
       <c r="O242" s="6"/>
     </row>
-    <row r="243" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D243" s="6"/>
       <c r="E243" s="6"/>
       <c r="F243" s="6"/>
@@ -6268,7 +6290,7 @@
       <c r="N243" s="6"/>
       <c r="O243" s="6"/>
     </row>
-    <row r="244" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D244" s="6"/>
       <c r="E244" s="6"/>
       <c r="F244" s="6"/>
@@ -6282,7 +6304,7 @@
       <c r="N244" s="6"/>
       <c r="O244" s="6"/>
     </row>
-    <row r="245" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D245" s="6"/>
       <c r="E245" s="6"/>
       <c r="F245" s="6"/>
@@ -6296,7 +6318,7 @@
       <c r="N245" s="6"/>
       <c r="O245" s="6"/>
     </row>
-    <row r="246" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D246" s="6"/>
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
@@ -6310,7 +6332,7 @@
       <c r="N246" s="6"/>
       <c r="O246" s="6"/>
     </row>
-    <row r="247" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D247" s="6"/>
       <c r="E247" s="6"/>
       <c r="F247" s="6"/>
@@ -6324,7 +6346,7 @@
       <c r="N247" s="6"/>
       <c r="O247" s="6"/>
     </row>
-    <row r="248" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D248" s="6"/>
       <c r="E248" s="6"/>
       <c r="F248" s="6"/>
@@ -6338,7 +6360,7 @@
       <c r="N248" s="6"/>
       <c r="O248" s="6"/>
     </row>
-    <row r="249" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D249" s="6"/>
       <c r="E249" s="6"/>
       <c r="F249" s="6"/>
@@ -6352,7 +6374,7 @@
       <c r="N249" s="6"/>
       <c r="O249" s="6"/>
     </row>
-    <row r="250" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D250" s="6"/>
       <c r="E250" s="6"/>
       <c r="F250" s="6"/>
@@ -6366,7 +6388,7 @@
       <c r="N250" s="6"/>
       <c r="O250" s="6"/>
     </row>
-    <row r="251" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D251" s="6"/>
       <c r="E251" s="6"/>
       <c r="F251" s="6"/>
@@ -6380,7 +6402,7 @@
       <c r="N251" s="6"/>
       <c r="O251" s="6"/>
     </row>
-    <row r="252" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D252" s="6"/>
       <c r="E252" s="6"/>
       <c r="F252" s="6"/>
@@ -6394,7 +6416,7 @@
       <c r="N252" s="6"/>
       <c r="O252" s="6"/>
     </row>
-    <row r="253" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D253" s="6"/>
       <c r="E253" s="6"/>
       <c r="F253" s="6"/>
@@ -6408,7 +6430,7 @@
       <c r="N253" s="6"/>
       <c r="O253" s="6"/>
     </row>
-    <row r="254" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D254" s="6"/>
       <c r="E254" s="6"/>
       <c r="F254" s="6"/>
@@ -6422,7 +6444,7 @@
       <c r="N254" s="6"/>
       <c r="O254" s="6"/>
     </row>
-    <row r="255" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D255" s="6"/>
       <c r="E255" s="6"/>
       <c r="F255" s="6"/>
@@ -6436,7 +6458,7 @@
       <c r="N255" s="6"/>
       <c r="O255" s="6"/>
     </row>
-    <row r="256" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D256" s="6"/>
       <c r="E256" s="6"/>
       <c r="F256" s="6"/>
@@ -6450,7 +6472,7 @@
       <c r="N256" s="6"/>
       <c r="O256" s="6"/>
     </row>
-    <row r="257" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="257" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D257" s="6"/>
       <c r="E257" s="6"/>
       <c r="F257" s="6"/>
@@ -6464,7 +6486,7 @@
       <c r="N257" s="6"/>
       <c r="O257" s="6"/>
     </row>
-    <row r="258" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D258" s="6"/>
       <c r="E258" s="6"/>
       <c r="F258" s="6"/>
@@ -6478,7 +6500,7 @@
       <c r="N258" s="6"/>
       <c r="O258" s="6"/>
     </row>
-    <row r="259" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D259" s="6"/>
       <c r="E259" s="6"/>
       <c r="F259" s="6"/>
@@ -6492,7 +6514,7 @@
       <c r="N259" s="6"/>
       <c r="O259" s="6"/>
     </row>
-    <row r="260" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D260" s="6"/>
       <c r="E260" s="6"/>
       <c r="F260" s="6"/>
@@ -6506,7 +6528,7 @@
       <c r="N260" s="6"/>
       <c r="O260" s="6"/>
     </row>
-    <row r="261" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D261" s="6"/>
       <c r="E261" s="6"/>
       <c r="F261" s="6"/>
@@ -6520,7 +6542,7 @@
       <c r="N261" s="6"/>
       <c r="O261" s="6"/>
     </row>
-    <row r="262" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D262" s="6"/>
       <c r="E262" s="6"/>
       <c r="F262" s="6"/>
@@ -6534,7 +6556,7 @@
       <c r="N262" s="6"/>
       <c r="O262" s="6"/>
     </row>
-    <row r="263" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="263" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D263" s="6"/>
       <c r="E263" s="6"/>
       <c r="F263" s="6"/>
@@ -6548,7 +6570,7 @@
       <c r="N263" s="6"/>
       <c r="O263" s="6"/>
     </row>
-    <row r="264" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D264" s="6"/>
       <c r="E264" s="6"/>
       <c r="F264" s="6"/>
@@ -6562,7 +6584,7 @@
       <c r="N264" s="6"/>
       <c r="O264" s="6"/>
     </row>
-    <row r="265" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D265" s="6"/>
       <c r="E265" s="6"/>
       <c r="F265" s="6"/>
@@ -6576,7 +6598,7 @@
       <c r="N265" s="6"/>
       <c r="O265" s="6"/>
     </row>
-    <row r="266" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D266" s="6"/>
       <c r="E266" s="6"/>
       <c r="F266" s="6"/>
@@ -6590,7 +6612,7 @@
       <c r="N266" s="6"/>
       <c r="O266" s="6"/>
     </row>
-    <row r="267" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D267" s="6"/>
       <c r="E267" s="6"/>
       <c r="F267" s="6"/>
@@ -6604,7 +6626,7 @@
       <c r="N267" s="6"/>
       <c r="O267" s="6"/>
     </row>
-    <row r="268" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D268" s="6"/>
       <c r="E268" s="6"/>
       <c r="F268" s="6"/>
@@ -6618,7 +6640,7 @@
       <c r="N268" s="6"/>
       <c r="O268" s="6"/>
     </row>
-    <row r="269" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D269" s="6"/>
       <c r="E269" s="6"/>
       <c r="F269" s="6"/>
@@ -6632,7 +6654,7 @@
       <c r="N269" s="6"/>
       <c r="O269" s="6"/>
     </row>
-    <row r="270" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="270" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D270" s="6"/>
       <c r="E270" s="6"/>
       <c r="F270" s="6"/>
@@ -6646,7 +6668,7 @@
       <c r="N270" s="6"/>
       <c r="O270" s="6"/>
     </row>
-    <row r="271" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="271" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D271" s="6"/>
       <c r="E271" s="6"/>
       <c r="F271" s="6"/>
@@ -6660,7 +6682,7 @@
       <c r="N271" s="6"/>
       <c r="O271" s="6"/>
     </row>
-    <row r="272" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="272" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D272" s="6"/>
       <c r="E272" s="6"/>
       <c r="F272" s="6"/>
@@ -6674,7 +6696,7 @@
       <c r="N272" s="6"/>
       <c r="O272" s="6"/>
     </row>
-    <row r="273" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D273" s="6"/>
       <c r="E273" s="6"/>
       <c r="F273" s="6"/>
@@ -6688,7 +6710,7 @@
       <c r="N273" s="6"/>
       <c r="O273" s="6"/>
     </row>
-    <row r="274" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="274" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D274" s="6"/>
       <c r="E274" s="6"/>
       <c r="F274" s="6"/>
@@ -6702,7 +6724,7 @@
       <c r="N274" s="6"/>
       <c r="O274" s="6"/>
     </row>
-    <row r="275" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="275" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D275" s="6"/>
       <c r="E275" s="6"/>
       <c r="F275" s="6"/>
@@ -6716,7 +6738,7 @@
       <c r="N275" s="6"/>
       <c r="O275" s="6"/>
     </row>
-    <row r="276" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="276" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D276" s="6"/>
       <c r="E276" s="6"/>
       <c r="F276" s="6"/>
@@ -6730,7 +6752,7 @@
       <c r="N276" s="6"/>
       <c r="O276" s="6"/>
     </row>
-    <row r="277" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="277" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D277" s="6"/>
       <c r="E277" s="6"/>
       <c r="F277" s="6"/>
@@ -6744,7 +6766,7 @@
       <c r="N277" s="6"/>
       <c r="O277" s="6"/>
     </row>
-    <row r="278" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="278" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D278" s="6"/>
       <c r="E278" s="6"/>
       <c r="F278" s="6"/>
@@ -6758,7 +6780,7 @@
       <c r="N278" s="6"/>
       <c r="O278" s="6"/>
     </row>
-    <row r="279" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D279" s="6"/>
       <c r="E279" s="6"/>
       <c r="F279" s="6"/>
@@ -6772,7 +6794,7 @@
       <c r="N279" s="6"/>
       <c r="O279" s="6"/>
     </row>
-    <row r="280" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D280" s="6"/>
       <c r="E280" s="6"/>
       <c r="F280" s="6"/>
@@ -6786,7 +6808,7 @@
       <c r="N280" s="6"/>
       <c r="O280" s="6"/>
     </row>
-    <row r="281" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="281" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D281" s="6"/>
       <c r="E281" s="6"/>
       <c r="F281" s="6"/>
@@ -6800,7 +6822,7 @@
       <c r="N281" s="6"/>
       <c r="O281" s="6"/>
     </row>
-    <row r="282" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="282" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D282" s="6"/>
       <c r="E282" s="6"/>
       <c r="F282" s="6"/>
@@ -6814,7 +6836,7 @@
       <c r="N282" s="6"/>
       <c r="O282" s="6"/>
     </row>
-    <row r="283" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="283" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D283" s="6"/>
       <c r="E283" s="6"/>
       <c r="F283" s="6"/>
@@ -6828,7 +6850,7 @@
       <c r="N283" s="6"/>
       <c r="O283" s="6"/>
     </row>
-    <row r="284" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="284" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D284" s="6"/>
       <c r="E284" s="6"/>
       <c r="F284" s="6"/>
@@ -6842,7 +6864,7 @@
       <c r="N284" s="6"/>
       <c r="O284" s="6"/>
     </row>
-    <row r="285" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="285" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D285" s="6"/>
       <c r="E285" s="6"/>
       <c r="F285" s="6"/>
@@ -6856,7 +6878,7 @@
       <c r="N285" s="6"/>
       <c r="O285" s="6"/>
     </row>
-    <row r="286" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="286" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D286" s="6"/>
       <c r="E286" s="6"/>
       <c r="F286" s="6"/>
@@ -6870,7 +6892,7 @@
       <c r="N286" s="6"/>
       <c r="O286" s="6"/>
     </row>
-    <row r="287" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="287" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D287" s="6"/>
       <c r="E287" s="6"/>
       <c r="F287" s="6"/>
@@ -6884,7 +6906,7 @@
       <c r="N287" s="6"/>
       <c r="O287" s="6"/>
     </row>
-    <row r="288" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D288" s="6"/>
       <c r="E288" s="6"/>
       <c r="F288" s="6"/>
@@ -6898,7 +6920,7 @@
       <c r="N288" s="6"/>
       <c r="O288" s="6"/>
     </row>
-    <row r="289" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D289" s="6"/>
       <c r="E289" s="6"/>
       <c r="F289" s="6"/>
@@ -6912,7 +6934,7 @@
       <c r="N289" s="6"/>
       <c r="O289" s="6"/>
     </row>
-    <row r="290" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D290" s="6"/>
       <c r="E290" s="6"/>
       <c r="F290" s="6"/>
@@ -6926,7 +6948,7 @@
       <c r="N290" s="6"/>
       <c r="O290" s="6"/>
     </row>
-    <row r="291" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D291" s="6"/>
       <c r="E291" s="6"/>
       <c r="F291" s="6"/>
@@ -6940,7 +6962,7 @@
       <c r="N291" s="6"/>
       <c r="O291" s="6"/>
     </row>
-    <row r="292" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D292" s="6"/>
       <c r="E292" s="6"/>
       <c r="F292" s="6"/>
@@ -6954,7 +6976,7 @@
       <c r="N292" s="6"/>
       <c r="O292" s="6"/>
     </row>
-    <row r="293" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D293" s="6"/>
       <c r="E293" s="6"/>
       <c r="F293" s="6"/>
@@ -6968,7 +6990,7 @@
       <c r="N293" s="6"/>
       <c r="O293" s="6"/>
     </row>
-    <row r="294" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D294" s="6"/>
       <c r="E294" s="6"/>
       <c r="F294" s="6"/>
@@ -6982,7 +7004,7 @@
       <c r="N294" s="6"/>
       <c r="O294" s="6"/>
     </row>
-    <row r="295" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D295" s="6"/>
       <c r="E295" s="6"/>
       <c r="F295" s="6"/>
@@ -6996,7 +7018,7 @@
       <c r="N295" s="6"/>
       <c r="O295" s="6"/>
     </row>
-    <row r="296" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="296" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D296" s="6"/>
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
@@ -7010,7 +7032,7 @@
       <c r="N296" s="6"/>
       <c r="O296" s="6"/>
     </row>
-    <row r="297" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="297" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D297" s="6"/>
       <c r="E297" s="6"/>
       <c r="F297" s="6"/>
@@ -7024,7 +7046,7 @@
       <c r="N297" s="6"/>
       <c r="O297" s="6"/>
     </row>
-    <row r="298" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D298" s="6"/>
       <c r="E298" s="6"/>
       <c r="F298" s="6"/>
@@ -7038,7 +7060,7 @@
       <c r="N298" s="6"/>
       <c r="O298" s="6"/>
     </row>
-    <row r="299" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D299" s="6"/>
       <c r="E299" s="6"/>
       <c r="F299" s="6"/>
@@ -7052,7 +7074,7 @@
       <c r="N299" s="6"/>
       <c r="O299" s="6"/>
     </row>
-    <row r="300" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D300" s="6"/>
       <c r="E300" s="6"/>
       <c r="F300" s="6"/>
@@ -7066,7 +7088,7 @@
       <c r="N300" s="6"/>
       <c r="O300" s="6"/>
     </row>
-    <row r="301" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D301" s="6"/>
       <c r="E301" s="6"/>
       <c r="F301" s="6"/>
@@ -7080,7 +7102,7 @@
       <c r="N301" s="6"/>
       <c r="O301" s="6"/>
     </row>
-    <row r="302" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="302" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D302" s="6"/>
       <c r="E302" s="6"/>
       <c r="F302" s="6"/>
@@ -7094,7 +7116,7 @@
       <c r="N302" s="6"/>
       <c r="O302" s="6"/>
     </row>
-    <row r="303" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="303" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D303" s="6"/>
       <c r="E303" s="6"/>
       <c r="F303" s="6"/>
@@ -7108,7 +7130,7 @@
       <c r="N303" s="6"/>
       <c r="O303" s="6"/>
     </row>
-    <row r="304" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="304" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D304" s="6"/>
       <c r="E304" s="6"/>
       <c r="F304" s="6"/>
@@ -7122,7 +7144,7 @@
       <c r="N304" s="6"/>
       <c r="O304" s="6"/>
     </row>
-    <row r="305" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="305" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D305" s="6"/>
       <c r="E305" s="6"/>
       <c r="F305" s="6"/>
@@ -7136,7 +7158,7 @@
       <c r="N305" s="6"/>
       <c r="O305" s="6"/>
     </row>
-    <row r="306" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="306" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D306" s="6"/>
       <c r="E306" s="6"/>
       <c r="F306" s="6"/>
@@ -7150,7 +7172,7 @@
       <c r="N306" s="6"/>
       <c r="O306" s="6"/>
     </row>
-    <row r="307" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="307" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D307" s="6"/>
       <c r="E307" s="6"/>
       <c r="F307" s="6"/>
@@ -7164,7 +7186,7 @@
       <c r="N307" s="6"/>
       <c r="O307" s="6"/>
     </row>
-    <row r="308" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="308" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D308" s="6"/>
       <c r="E308" s="6"/>
       <c r="F308" s="6"/>
@@ -7178,7 +7200,7 @@
       <c r="N308" s="6"/>
       <c r="O308" s="6"/>
     </row>
-    <row r="309" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="309" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D309" s="6"/>
       <c r="E309" s="6"/>
       <c r="F309" s="6"/>
@@ -7192,7 +7214,7 @@
       <c r="N309" s="6"/>
       <c r="O309" s="6"/>
     </row>
-    <row r="310" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="310" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D310" s="6"/>
       <c r="E310" s="6"/>
       <c r="F310" s="6"/>
@@ -7206,7 +7228,7 @@
       <c r="N310" s="6"/>
       <c r="O310" s="6"/>
     </row>
-    <row r="311" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="311" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D311" s="6"/>
       <c r="E311" s="6"/>
       <c r="F311" s="6"/>
@@ -7220,7 +7242,7 @@
       <c r="N311" s="6"/>
       <c r="O311" s="6"/>
     </row>
-    <row r="312" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="312" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D312" s="6"/>
       <c r="E312" s="6"/>
       <c r="F312" s="6"/>
@@ -7234,7 +7256,7 @@
       <c r="N312" s="6"/>
       <c r="O312" s="6"/>
     </row>
-    <row r="313" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="313" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D313" s="6"/>
       <c r="E313" s="6"/>
       <c r="F313" s="6"/>
@@ -7248,7 +7270,7 @@
       <c r="N313" s="6"/>
       <c r="O313" s="6"/>
     </row>
-    <row r="314" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="314" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D314" s="6"/>
       <c r="E314" s="6"/>
       <c r="F314" s="6"/>
@@ -7262,7 +7284,7 @@
       <c r="N314" s="6"/>
       <c r="O314" s="6"/>
     </row>
-    <row r="315" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="315" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D315" s="6"/>
       <c r="E315" s="6"/>
       <c r="F315" s="6"/>
@@ -7276,7 +7298,7 @@
       <c r="N315" s="6"/>
       <c r="O315" s="6"/>
     </row>
-    <row r="316" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="316" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D316" s="6"/>
       <c r="E316" s="6"/>
       <c r="F316" s="6"/>
@@ -7290,7 +7312,7 @@
       <c r="N316" s="6"/>
       <c r="O316" s="6"/>
     </row>
-    <row r="317" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="317" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D317" s="6"/>
       <c r="E317" s="6"/>
       <c r="F317" s="6"/>
@@ -7304,7 +7326,7 @@
       <c r="N317" s="6"/>
       <c r="O317" s="6"/>
     </row>
-    <row r="318" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="318" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D318" s="6"/>
       <c r="E318" s="6"/>
       <c r="F318" s="6"/>
@@ -7318,7 +7340,7 @@
       <c r="N318" s="6"/>
       <c r="O318" s="6"/>
     </row>
-    <row r="319" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="319" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D319" s="6"/>
       <c r="E319" s="6"/>
       <c r="F319" s="6"/>
@@ -7332,7 +7354,7 @@
       <c r="N319" s="6"/>
       <c r="O319" s="6"/>
     </row>
-    <row r="320" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="320" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D320" s="6"/>
       <c r="E320" s="6"/>
       <c r="F320" s="6"/>
@@ -7346,7 +7368,7 @@
       <c r="N320" s="6"/>
       <c r="O320" s="6"/>
     </row>
-    <row r="321" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="321" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D321" s="6"/>
       <c r="E321" s="6"/>
       <c r="F321" s="6"/>
@@ -7360,7 +7382,7 @@
       <c r="N321" s="6"/>
       <c r="O321" s="6"/>
     </row>
-    <row r="322" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="322" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D322" s="6"/>
       <c r="E322" s="6"/>
       <c r="F322" s="6"/>
@@ -7374,7 +7396,7 @@
       <c r="N322" s="6"/>
       <c r="O322" s="6"/>
     </row>
-    <row r="323" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="323" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D323" s="6"/>
       <c r="E323" s="6"/>
       <c r="F323" s="6"/>
@@ -7388,7 +7410,7 @@
       <c r="N323" s="6"/>
       <c r="O323" s="6"/>
     </row>
-    <row r="324" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="324" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D324" s="6"/>
       <c r="E324" s="6"/>
       <c r="F324" s="6"/>
@@ -7402,7 +7424,7 @@
       <c r="N324" s="6"/>
       <c r="O324" s="6"/>
     </row>
-    <row r="325" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="325" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D325" s="6"/>
       <c r="E325" s="6"/>
       <c r="F325" s="6"/>
@@ -7416,7 +7438,7 @@
       <c r="N325" s="6"/>
       <c r="O325" s="6"/>
     </row>
-    <row r="326" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="326" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D326" s="6"/>
       <c r="E326" s="6"/>
       <c r="F326" s="6"/>
@@ -7430,7 +7452,7 @@
       <c r="N326" s="6"/>
       <c r="O326" s="6"/>
     </row>
-    <row r="327" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="327" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D327" s="6"/>
       <c r="E327" s="6"/>
       <c r="F327" s="6"/>
@@ -7444,7 +7466,7 @@
       <c r="N327" s="6"/>
       <c r="O327" s="6"/>
     </row>
-    <row r="328" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="328" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D328" s="6"/>
       <c r="E328" s="6"/>
       <c r="F328" s="6"/>
@@ -7458,7 +7480,7 @@
       <c r="N328" s="6"/>
       <c r="O328" s="6"/>
     </row>
-    <row r="329" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="329" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D329" s="6"/>
       <c r="E329" s="6"/>
       <c r="F329" s="6"/>
@@ -7472,7 +7494,7 @@
       <c r="N329" s="6"/>
       <c r="O329" s="6"/>
     </row>
-    <row r="330" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="330" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D330" s="6"/>
       <c r="E330" s="6"/>
       <c r="F330" s="6"/>
@@ -7486,7 +7508,7 @@
       <c r="N330" s="6"/>
       <c r="O330" s="6"/>
     </row>
-    <row r="331" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="331" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D331" s="6"/>
       <c r="E331" s="6"/>
       <c r="F331" s="6"/>
@@ -7500,7 +7522,7 @@
       <c r="N331" s="6"/>
       <c r="O331" s="6"/>
     </row>
-    <row r="332" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="332" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D332" s="6"/>
       <c r="E332" s="6"/>
       <c r="F332" s="6"/>
@@ -7514,7 +7536,7 @@
       <c r="N332" s="6"/>
       <c r="O332" s="6"/>
     </row>
-    <row r="333" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="333" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D333" s="6"/>
       <c r="E333" s="6"/>
       <c r="F333" s="6"/>
@@ -7528,7 +7550,7 @@
       <c r="N333" s="6"/>
       <c r="O333" s="6"/>
     </row>
-    <row r="334" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="334" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D334" s="6"/>
       <c r="E334" s="6"/>
       <c r="F334" s="6"/>
@@ -7542,7 +7564,7 @@
       <c r="N334" s="6"/>
       <c r="O334" s="6"/>
     </row>
-    <row r="335" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="335" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D335" s="6"/>
       <c r="E335" s="6"/>
       <c r="F335" s="6"/>
@@ -7556,7 +7578,7 @@
       <c r="N335" s="6"/>
       <c r="O335" s="6"/>
     </row>
-    <row r="336" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="336" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D336" s="6"/>
       <c r="E336" s="6"/>
       <c r="F336" s="6"/>
@@ -7570,7 +7592,7 @@
       <c r="N336" s="6"/>
       <c r="O336" s="6"/>
     </row>
-    <row r="337" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="337" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D337" s="6"/>
       <c r="E337" s="6"/>
       <c r="F337" s="6"/>
@@ -7584,7 +7606,7 @@
       <c r="N337" s="6"/>
       <c r="O337" s="6"/>
     </row>
-    <row r="338" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="338" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D338" s="6"/>
       <c r="E338" s="6"/>
       <c r="F338" s="6"/>
@@ -7598,7 +7620,7 @@
       <c r="N338" s="6"/>
       <c r="O338" s="6"/>
     </row>
-    <row r="339" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="339" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D339" s="6"/>
       <c r="E339" s="6"/>
       <c r="F339" s="6"/>
@@ -7612,7 +7634,7 @@
       <c r="N339" s="6"/>
       <c r="O339" s="6"/>
     </row>
-    <row r="340" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="340" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D340" s="6"/>
       <c r="E340" s="6"/>
       <c r="F340" s="6"/>
@@ -7626,7 +7648,7 @@
       <c r="N340" s="6"/>
       <c r="O340" s="6"/>
     </row>
-    <row r="341" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="341" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D341" s="6"/>
       <c r="E341" s="6"/>
       <c r="F341" s="6"/>
@@ -7640,7 +7662,7 @@
       <c r="N341" s="6"/>
       <c r="O341" s="6"/>
     </row>
-    <row r="342" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="342" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D342" s="6"/>
       <c r="E342" s="6"/>
       <c r="F342" s="6"/>
@@ -7654,7 +7676,7 @@
       <c r="N342" s="6"/>
       <c r="O342" s="6"/>
     </row>
-    <row r="343" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="343" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D343" s="6"/>
       <c r="E343" s="6"/>
       <c r="F343" s="6"/>
@@ -7668,7 +7690,7 @@
       <c r="N343" s="6"/>
       <c r="O343" s="6"/>
     </row>
-    <row r="344" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="344" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D344" s="6"/>
       <c r="E344" s="6"/>
       <c r="F344" s="6"/>
@@ -7682,7 +7704,7 @@
       <c r="N344" s="6"/>
       <c r="O344" s="6"/>
     </row>
-    <row r="345" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="345" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D345" s="6"/>
       <c r="E345" s="6"/>
       <c r="F345" s="6"/>
@@ -7696,7 +7718,7 @@
       <c r="N345" s="6"/>
       <c r="O345" s="6"/>
     </row>
-    <row r="346" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="346" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D346" s="6"/>
       <c r="E346" s="6"/>
       <c r="F346" s="6"/>
@@ -7710,7 +7732,7 @@
       <c r="N346" s="6"/>
       <c r="O346" s="6"/>
     </row>
-    <row r="347" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="347" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D347" s="6"/>
       <c r="E347" s="6"/>
       <c r="F347" s="6"/>
@@ -7724,7 +7746,7 @@
       <c r="N347" s="6"/>
       <c r="O347" s="6"/>
     </row>
-    <row r="348" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="348" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D348" s="6"/>
       <c r="E348" s="6"/>
       <c r="F348" s="6"/>
@@ -7738,7 +7760,7 @@
       <c r="N348" s="6"/>
       <c r="O348" s="6"/>
     </row>
-    <row r="349" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="349" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D349" s="6"/>
       <c r="E349" s="6"/>
       <c r="F349" s="6"/>
@@ -7752,7 +7774,7 @@
       <c r="N349" s="6"/>
       <c r="O349" s="6"/>
     </row>
-    <row r="350" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="350" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D350" s="6"/>
       <c r="E350" s="6"/>
       <c r="F350" s="6"/>
@@ -7766,7 +7788,7 @@
       <c r="N350" s="6"/>
       <c r="O350" s="6"/>
     </row>
-    <row r="351" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="351" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D351" s="6"/>
       <c r="E351" s="6"/>
       <c r="F351" s="6"/>
@@ -7780,7 +7802,7 @@
       <c r="N351" s="6"/>
       <c r="O351" s="6"/>
     </row>
-    <row r="352" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="352" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D352" s="6"/>
       <c r="E352" s="6"/>
       <c r="F352" s="6"/>
@@ -7794,7 +7816,7 @@
       <c r="N352" s="6"/>
       <c r="O352" s="6"/>
     </row>
-    <row r="353" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="353" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D353" s="6"/>
       <c r="E353" s="6"/>
       <c r="F353" s="6"/>
@@ -7808,7 +7830,7 @@
       <c r="N353" s="6"/>
       <c r="O353" s="6"/>
     </row>
-    <row r="354" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="354" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D354" s="6"/>
       <c r="E354" s="6"/>
       <c r="F354" s="6"/>
@@ -7822,7 +7844,7 @@
       <c r="N354" s="6"/>
       <c r="O354" s="6"/>
     </row>
-    <row r="355" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="355" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D355" s="6"/>
       <c r="E355" s="6"/>
       <c r="F355" s="6"/>
@@ -7836,7 +7858,7 @@
       <c r="N355" s="6"/>
       <c r="O355" s="6"/>
     </row>
-    <row r="356" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="356" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D356" s="6"/>
       <c r="E356" s="6"/>
       <c r="F356" s="6"/>
@@ -7850,7 +7872,7 @@
       <c r="N356" s="6"/>
       <c r="O356" s="6"/>
     </row>
-    <row r="357" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="357" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D357" s="6"/>
       <c r="E357" s="6"/>
       <c r="F357" s="6"/>
@@ -7864,7 +7886,7 @@
       <c r="N357" s="6"/>
       <c r="O357" s="6"/>
     </row>
-    <row r="358" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="358" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D358" s="6"/>
       <c r="E358" s="6"/>
       <c r="F358" s="6"/>
@@ -7878,7 +7900,7 @@
       <c r="N358" s="6"/>
       <c r="O358" s="6"/>
     </row>
-    <row r="359" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="359" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D359" s="6"/>
       <c r="E359" s="6"/>
       <c r="F359" s="6"/>
@@ -7892,7 +7914,7 @@
       <c r="N359" s="6"/>
       <c r="O359" s="6"/>
     </row>
-    <row r="360" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="360" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D360" s="6"/>
       <c r="E360" s="6"/>
       <c r="F360" s="6"/>
@@ -7906,7 +7928,7 @@
       <c r="N360" s="6"/>
       <c r="O360" s="6"/>
     </row>
-    <row r="361" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="361" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D361" s="6"/>
       <c r="E361" s="6"/>
       <c r="F361" s="6"/>
@@ -7920,7 +7942,7 @@
       <c r="N361" s="6"/>
       <c r="O361" s="6"/>
     </row>
-    <row r="362" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="362" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D362" s="6"/>
       <c r="E362" s="6"/>
       <c r="F362" s="6"/>
@@ -7934,7 +7956,7 @@
       <c r="N362" s="6"/>
       <c r="O362" s="6"/>
     </row>
-    <row r="363" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="363" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D363" s="6"/>
       <c r="E363" s="6"/>
       <c r="F363" s="6"/>
@@ -7948,7 +7970,7 @@
       <c r="N363" s="6"/>
       <c r="O363" s="6"/>
     </row>
-    <row r="364" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="364" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D364" s="6"/>
       <c r="E364" s="6"/>
       <c r="F364" s="6"/>
@@ -7962,7 +7984,7 @@
       <c r="N364" s="6"/>
       <c r="O364" s="6"/>
     </row>
-    <row r="365" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="365" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D365" s="6"/>
       <c r="E365" s="6"/>
       <c r="F365" s="6"/>
@@ -7976,7 +7998,7 @@
       <c r="N365" s="6"/>
       <c r="O365" s="6"/>
     </row>
-    <row r="366" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="366" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D366" s="6"/>
       <c r="E366" s="6"/>
       <c r="F366" s="6"/>
@@ -7990,7 +8012,7 @@
       <c r="N366" s="6"/>
       <c r="O366" s="6"/>
     </row>
-    <row r="367" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="367" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D367" s="6"/>
       <c r="E367" s="6"/>
       <c r="F367" s="6"/>
@@ -8004,7 +8026,7 @@
       <c r="N367" s="6"/>
       <c r="O367" s="6"/>
     </row>
-    <row r="368" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="368" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D368" s="6"/>
       <c r="E368" s="6"/>
       <c r="F368" s="6"/>
@@ -8018,7 +8040,7 @@
       <c r="N368" s="6"/>
       <c r="O368" s="6"/>
     </row>
-    <row r="369" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="369" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D369" s="6"/>
       <c r="E369" s="6"/>
       <c r="F369" s="6"/>
@@ -8032,7 +8054,7 @@
       <c r="N369" s="6"/>
       <c r="O369" s="6"/>
     </row>
-    <row r="370" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="370" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D370" s="6"/>
       <c r="E370" s="6"/>
       <c r="F370" s="6"/>
@@ -8046,7 +8068,7 @@
       <c r="N370" s="6"/>
       <c r="O370" s="6"/>
     </row>
-    <row r="371" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="371" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D371" s="6"/>
       <c r="E371" s="6"/>
       <c r="F371" s="6"/>
@@ -8060,7 +8082,7 @@
       <c r="N371" s="6"/>
       <c r="O371" s="6"/>
     </row>
-    <row r="372" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="372" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D372" s="6"/>
       <c r="E372" s="6"/>
       <c r="F372" s="6"/>
@@ -8074,7 +8096,7 @@
       <c r="N372" s="6"/>
       <c r="O372" s="6"/>
     </row>
-    <row r="373" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="373" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D373" s="6"/>
       <c r="E373" s="6"/>
       <c r="F373" s="6"/>
@@ -8088,7 +8110,7 @@
       <c r="N373" s="6"/>
       <c r="O373" s="6"/>
     </row>
-    <row r="374" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="374" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D374" s="6"/>
       <c r="E374" s="6"/>
       <c r="F374" s="6"/>
@@ -8102,7 +8124,7 @@
       <c r="N374" s="6"/>
       <c r="O374" s="6"/>
     </row>
-    <row r="375" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="375" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D375" s="6"/>
       <c r="E375" s="6"/>
       <c r="F375" s="6"/>
@@ -8116,7 +8138,7 @@
       <c r="N375" s="6"/>
       <c r="O375" s="6"/>
     </row>
-    <row r="376" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="376" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D376" s="6"/>
       <c r="E376" s="6"/>
       <c r="F376" s="6"/>
@@ -8130,7 +8152,7 @@
       <c r="N376" s="6"/>
       <c r="O376" s="6"/>
     </row>
-    <row r="377" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="377" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D377" s="6"/>
       <c r="E377" s="6"/>
       <c r="F377" s="6"/>
@@ -8144,7 +8166,7 @@
       <c r="N377" s="6"/>
       <c r="O377" s="6"/>
     </row>
-    <row r="378" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="378" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D378" s="6"/>
       <c r="E378" s="6"/>
       <c r="F378" s="6"/>
@@ -8158,7 +8180,7 @@
       <c r="N378" s="6"/>
       <c r="O378" s="6"/>
     </row>
-    <row r="379" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="379" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D379" s="6"/>
       <c r="E379" s="6"/>
       <c r="F379" s="6"/>
@@ -8172,7 +8194,7 @@
       <c r="N379" s="6"/>
       <c r="O379" s="6"/>
     </row>
-    <row r="380" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="380" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D380" s="6"/>
       <c r="E380" s="6"/>
       <c r="F380" s="6"/>
@@ -8186,7 +8208,7 @@
       <c r="N380" s="6"/>
       <c r="O380" s="6"/>
     </row>
-    <row r="381" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="381" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D381" s="6"/>
       <c r="E381" s="6"/>
       <c r="F381" s="6"/>
@@ -8200,7 +8222,7 @@
       <c r="N381" s="6"/>
       <c r="O381" s="6"/>
     </row>
-    <row r="382" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="382" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D382" s="6"/>
       <c r="E382" s="6"/>
       <c r="F382" s="6"/>
@@ -8214,7 +8236,7 @@
       <c r="N382" s="6"/>
       <c r="O382" s="6"/>
     </row>
-    <row r="383" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="383" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D383" s="6"/>
       <c r="E383" s="6"/>
       <c r="F383" s="6"/>
@@ -8228,7 +8250,7 @@
       <c r="N383" s="6"/>
       <c r="O383" s="6"/>
     </row>
-    <row r="384" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="384" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D384" s="6"/>
       <c r="E384" s="6"/>
       <c r="F384" s="6"/>
@@ -8242,7 +8264,7 @@
       <c r="N384" s="6"/>
       <c r="O384" s="6"/>
     </row>
-    <row r="385" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="385" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D385" s="6"/>
       <c r="E385" s="6"/>
       <c r="F385" s="6"/>
@@ -8256,7 +8278,7 @@
       <c r="N385" s="6"/>
       <c r="O385" s="6"/>
     </row>
-    <row r="386" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="386" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D386" s="6"/>
       <c r="E386" s="6"/>
       <c r="F386" s="6"/>
@@ -8270,7 +8292,7 @@
       <c r="N386" s="6"/>
       <c r="O386" s="6"/>
     </row>
-    <row r="387" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="387" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D387" s="6"/>
       <c r="E387" s="6"/>
       <c r="F387" s="6"/>
@@ -8284,7 +8306,7 @@
       <c r="N387" s="6"/>
       <c r="O387" s="6"/>
     </row>
-    <row r="388" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="388" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D388" s="6"/>
       <c r="E388" s="6"/>
       <c r="F388" s="6"/>
@@ -8298,7 +8320,7 @@
       <c r="N388" s="6"/>
       <c r="O388" s="6"/>
     </row>
-    <row r="389" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="389" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D389" s="6"/>
       <c r="E389" s="6"/>
       <c r="F389" s="6"/>
@@ -8312,7 +8334,7 @@
       <c r="N389" s="6"/>
       <c r="O389" s="6"/>
     </row>
-    <row r="390" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="390" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D390" s="6"/>
       <c r="E390" s="6"/>
       <c r="F390" s="6"/>
@@ -8326,7 +8348,7 @@
       <c r="N390" s="6"/>
       <c r="O390" s="6"/>
     </row>
-    <row r="391" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="391" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D391" s="6"/>
       <c r="E391" s="6"/>
       <c r="F391" s="6"/>
@@ -8340,7 +8362,7 @@
       <c r="N391" s="6"/>
       <c r="O391" s="6"/>
     </row>
-    <row r="392" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="392" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D392" s="6"/>
       <c r="E392" s="6"/>
       <c r="F392" s="6"/>
@@ -8354,7 +8376,7 @@
       <c r="N392" s="6"/>
       <c r="O392" s="6"/>
     </row>
-    <row r="393" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="393" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D393" s="6"/>
       <c r="E393" s="6"/>
       <c r="F393" s="6"/>
@@ -8368,7 +8390,7 @@
       <c r="N393" s="6"/>
       <c r="O393" s="6"/>
     </row>
-    <row r="394" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="394" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D394" s="6"/>
       <c r="E394" s="6"/>
       <c r="F394" s="6"/>
@@ -8382,7 +8404,7 @@
       <c r="N394" s="6"/>
       <c r="O394" s="6"/>
     </row>
-    <row r="395" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="395" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D395" s="6"/>
       <c r="E395" s="6"/>
       <c r="F395" s="6"/>
@@ -8396,7 +8418,7 @@
       <c r="N395" s="6"/>
       <c r="O395" s="6"/>
     </row>
-    <row r="396" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="396" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D396" s="6"/>
       <c r="E396" s="6"/>
       <c r="F396" s="6"/>
@@ -8410,7 +8432,7 @@
       <c r="N396" s="6"/>
       <c r="O396" s="6"/>
     </row>
-    <row r="397" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="397" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D397" s="6"/>
       <c r="E397" s="6"/>
       <c r="F397" s="6"/>
@@ -8424,7 +8446,7 @@
       <c r="N397" s="6"/>
       <c r="O397" s="6"/>
     </row>
-    <row r="398" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="398" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D398" s="6"/>
       <c r="E398" s="6"/>
       <c r="F398" s="6"/>
@@ -8438,7 +8460,7 @@
       <c r="N398" s="6"/>
       <c r="O398" s="6"/>
     </row>
-    <row r="399" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="399" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D399" s="6"/>
       <c r="E399" s="6"/>
       <c r="F399" s="6"/>
@@ -8452,7 +8474,7 @@
       <c r="N399" s="6"/>
       <c r="O399" s="6"/>
     </row>
-    <row r="400" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="400" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D400" s="6"/>
       <c r="E400" s="6"/>
       <c r="F400" s="6"/>
@@ -8466,7 +8488,7 @@
       <c r="N400" s="6"/>
       <c r="O400" s="6"/>
     </row>
-    <row r="401" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="401" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D401" s="6"/>
       <c r="E401" s="6"/>
       <c r="F401" s="6"/>
@@ -8480,7 +8502,7 @@
       <c r="N401" s="6"/>
       <c r="O401" s="6"/>
     </row>
-    <row r="402" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="402" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D402" s="6"/>
       <c r="E402" s="6"/>
       <c r="F402" s="6"/>
@@ -8494,7 +8516,7 @@
       <c r="N402" s="6"/>
       <c r="O402" s="6"/>
     </row>
-    <row r="403" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="403" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D403" s="6"/>
       <c r="E403" s="6"/>
       <c r="F403" s="6"/>
@@ -8508,7 +8530,7 @@
       <c r="N403" s="6"/>
       <c r="O403" s="6"/>
     </row>
-    <row r="404" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="404" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D404" s="6"/>
       <c r="E404" s="6"/>
       <c r="F404" s="6"/>
@@ -8522,7 +8544,7 @@
       <c r="N404" s="6"/>
       <c r="O404" s="6"/>
     </row>
-    <row r="405" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="405" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D405" s="6"/>
       <c r="E405" s="6"/>
       <c r="F405" s="6"/>
@@ -8536,7 +8558,7 @@
       <c r="N405" s="6"/>
       <c r="O405" s="6"/>
     </row>
-    <row r="406" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="406" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D406" s="6"/>
       <c r="E406" s="6"/>
       <c r="F406" s="6"/>
@@ -8550,7 +8572,7 @@
       <c r="N406" s="6"/>
       <c r="O406" s="6"/>
     </row>
-    <row r="407" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="407" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D407" s="6"/>
       <c r="E407" s="6"/>
       <c r="F407" s="6"/>
@@ -8564,7 +8586,7 @@
       <c r="N407" s="6"/>
       <c r="O407" s="6"/>
     </row>
-    <row r="408" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="408" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D408" s="6"/>
       <c r="E408" s="6"/>
       <c r="F408" s="6"/>
@@ -8578,7 +8600,7 @@
       <c r="N408" s="6"/>
       <c r="O408" s="6"/>
     </row>
-    <row r="409" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="409" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D409" s="6"/>
       <c r="E409" s="6"/>
       <c r="F409" s="6"/>
@@ -8592,7 +8614,7 @@
       <c r="N409" s="6"/>
       <c r="O409" s="6"/>
     </row>
-    <row r="410" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="410" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D410" s="6"/>
       <c r="E410" s="6"/>
       <c r="F410" s="6"/>
@@ -8606,7 +8628,7 @@
       <c r="N410" s="6"/>
       <c r="O410" s="6"/>
     </row>
-    <row r="411" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="411" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D411" s="6"/>
       <c r="E411" s="6"/>
       <c r="F411" s="6"/>
@@ -8620,7 +8642,7 @@
       <c r="N411" s="6"/>
       <c r="O411" s="6"/>
     </row>
-    <row r="412" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="412" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D412" s="6"/>
       <c r="E412" s="6"/>
       <c r="F412" s="6"/>
@@ -8634,7 +8656,7 @@
       <c r="N412" s="6"/>
       <c r="O412" s="6"/>
     </row>
-    <row r="413" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="413" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D413" s="6"/>
       <c r="E413" s="6"/>
       <c r="F413" s="6"/>
@@ -8648,7 +8670,7 @@
       <c r="N413" s="6"/>
       <c r="O413" s="6"/>
     </row>
-    <row r="414" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="414" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D414" s="6"/>
       <c r="E414" s="6"/>
       <c r="F414" s="6"/>
@@ -8662,7 +8684,7 @@
       <c r="N414" s="6"/>
       <c r="O414" s="6"/>
     </row>
-    <row r="415" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="415" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D415" s="6"/>
       <c r="E415" s="6"/>
       <c r="F415" s="6"/>
@@ -8676,7 +8698,7 @@
       <c r="N415" s="6"/>
       <c r="O415" s="6"/>
     </row>
-    <row r="416" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="416" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D416" s="6"/>
       <c r="E416" s="6"/>
       <c r="F416" s="6"/>
@@ -8690,7 +8712,7 @@
       <c r="N416" s="6"/>
       <c r="O416" s="6"/>
     </row>
-    <row r="417" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="417" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D417" s="6"/>
       <c r="E417" s="6"/>
       <c r="F417" s="6"/>
@@ -8704,7 +8726,7 @@
       <c r="N417" s="6"/>
       <c r="O417" s="6"/>
     </row>
-    <row r="418" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="418" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D418" s="6"/>
       <c r="E418" s="6"/>
       <c r="F418" s="6"/>
@@ -8718,7 +8740,7 @@
       <c r="N418" s="6"/>
       <c r="O418" s="6"/>
     </row>
-    <row r="419" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="419" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D419" s="6"/>
       <c r="E419" s="6"/>
       <c r="F419" s="6"/>
@@ -8732,7 +8754,7 @@
       <c r="N419" s="6"/>
       <c r="O419" s="6"/>
     </row>
-    <row r="420" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="420" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D420" s="6"/>
       <c r="E420" s="6"/>
       <c r="F420" s="6"/>
@@ -8746,7 +8768,7 @@
       <c r="N420" s="6"/>
       <c r="O420" s="6"/>
     </row>
-    <row r="421" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="421" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D421" s="6"/>
       <c r="E421" s="6"/>
       <c r="F421" s="6"/>
@@ -8760,7 +8782,7 @@
       <c r="N421" s="6"/>
       <c r="O421" s="6"/>
     </row>
-    <row r="422" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="422" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D422" s="6"/>
       <c r="E422" s="6"/>
       <c r="F422" s="6"/>
@@ -8774,7 +8796,7 @@
       <c r="N422" s="6"/>
       <c r="O422" s="6"/>
     </row>
-    <row r="423" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="423" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D423" s="6"/>
       <c r="E423" s="6"/>
       <c r="F423" s="6"/>
@@ -8788,7 +8810,7 @@
       <c r="N423" s="6"/>
       <c r="O423" s="6"/>
     </row>
-    <row r="424" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="424" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D424" s="6"/>
       <c r="E424" s="6"/>
       <c r="F424" s="6"/>
@@ -8802,7 +8824,7 @@
       <c r="N424" s="6"/>
       <c r="O424" s="6"/>
     </row>
-    <row r="425" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="425" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D425" s="6"/>
       <c r="E425" s="6"/>
       <c r="F425" s="6"/>
@@ -8816,7 +8838,7 @@
       <c r="N425" s="6"/>
       <c r="O425" s="6"/>
     </row>
-    <row r="426" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="426" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D426" s="6"/>
       <c r="E426" s="6"/>
       <c r="F426" s="6"/>
@@ -8830,7 +8852,7 @@
       <c r="N426" s="6"/>
       <c r="O426" s="6"/>
     </row>
-    <row r="427" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="427" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D427" s="6"/>
       <c r="E427" s="6"/>
       <c r="F427" s="6"/>
@@ -8844,7 +8866,7 @@
       <c r="N427" s="6"/>
       <c r="O427" s="6"/>
     </row>
-    <row r="428" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="428" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D428" s="6"/>
       <c r="E428" s="6"/>
       <c r="F428" s="6"/>
@@ -8858,7 +8880,7 @@
       <c r="N428" s="6"/>
       <c r="O428" s="6"/>
     </row>
-    <row r="429" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="429" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D429" s="6"/>
       <c r="E429" s="6"/>
       <c r="F429" s="6"/>
@@ -8872,7 +8894,7 @@
       <c r="N429" s="6"/>
       <c r="O429" s="6"/>
     </row>
-    <row r="430" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="430" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D430" s="6"/>
       <c r="E430" s="6"/>
       <c r="F430" s="6"/>
@@ -8886,7 +8908,7 @@
       <c r="N430" s="6"/>
       <c r="O430" s="6"/>
     </row>
-    <row r="431" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="431" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D431" s="6"/>
       <c r="E431" s="6"/>
       <c r="F431" s="6"/>
@@ -8900,7 +8922,7 @@
       <c r="N431" s="6"/>
       <c r="O431" s="6"/>
     </row>
-    <row r="432" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="432" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D432" s="6"/>
       <c r="E432" s="6"/>
       <c r="F432" s="6"/>
@@ -8914,7 +8936,7 @@
       <c r="N432" s="6"/>
       <c r="O432" s="6"/>
     </row>
-    <row r="433" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="433" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D433" s="6"/>
       <c r="E433" s="6"/>
       <c r="F433" s="6"/>
@@ -8928,7 +8950,7 @@
       <c r="N433" s="6"/>
       <c r="O433" s="6"/>
     </row>
-    <row r="434" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="434" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D434" s="6"/>
       <c r="E434" s="6"/>
       <c r="F434" s="6"/>
@@ -8942,7 +8964,7 @@
       <c r="N434" s="6"/>
       <c r="O434" s="6"/>
     </row>
-    <row r="435" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="435" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D435" s="6"/>
       <c r="E435" s="6"/>
       <c r="F435" s="6"/>
@@ -8956,7 +8978,7 @@
       <c r="N435" s="6"/>
       <c r="O435" s="6"/>
     </row>
-    <row r="436" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="436" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D436" s="6"/>
       <c r="E436" s="6"/>
       <c r="F436" s="6"/>
@@ -8970,7 +8992,7 @@
       <c r="N436" s="6"/>
       <c r="O436" s="6"/>
     </row>
-    <row r="437" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="437" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D437" s="6"/>
       <c r="E437" s="6"/>
       <c r="F437" s="6"/>
@@ -8984,7 +9006,7 @@
       <c r="N437" s="6"/>
       <c r="O437" s="6"/>
     </row>
-    <row r="438" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="438" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D438" s="6"/>
       <c r="E438" s="6"/>
       <c r="F438" s="6"/>
@@ -8998,7 +9020,7 @@
       <c r="N438" s="6"/>
       <c r="O438" s="6"/>
     </row>
-    <row r="439" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="439" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D439" s="6"/>
       <c r="E439" s="6"/>
       <c r="F439" s="6"/>
@@ -9012,7 +9034,7 @@
       <c r="N439" s="6"/>
       <c r="O439" s="6"/>
     </row>
-    <row r="440" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="440" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D440" s="6"/>
       <c r="E440" s="6"/>
       <c r="F440" s="6"/>
@@ -9026,7 +9048,7 @@
       <c r="N440" s="6"/>
       <c r="O440" s="6"/>
     </row>
-    <row r="441" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="441" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D441" s="6"/>
       <c r="E441" s="6"/>
       <c r="F441" s="6"/>
@@ -9040,7 +9062,7 @@
       <c r="N441" s="6"/>
       <c r="O441" s="6"/>
     </row>
-    <row r="442" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="442" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D442" s="6"/>
       <c r="E442" s="6"/>
       <c r="F442" s="6"/>
@@ -9054,7 +9076,7 @@
       <c r="N442" s="6"/>
       <c r="O442" s="6"/>
     </row>
-    <row r="443" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="443" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D443" s="6"/>
       <c r="E443" s="6"/>
       <c r="F443" s="6"/>
@@ -9068,7 +9090,7 @@
       <c r="N443" s="6"/>
       <c r="O443" s="6"/>
     </row>
-    <row r="444" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="444" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D444" s="6"/>
       <c r="E444" s="6"/>
       <c r="F444" s="6"/>
@@ -9082,7 +9104,7 @@
       <c r="N444" s="6"/>
       <c r="O444" s="6"/>
     </row>
-    <row r="445" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="445" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D445" s="6"/>
       <c r="E445" s="6"/>
       <c r="F445" s="6"/>
@@ -9096,7 +9118,7 @@
       <c r="N445" s="6"/>
       <c r="O445" s="6"/>
     </row>
-    <row r="446" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="446" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D446" s="6"/>
       <c r="E446" s="6"/>
       <c r="F446" s="6"/>
@@ -9110,7 +9132,7 @@
       <c r="N446" s="6"/>
       <c r="O446" s="6"/>
     </row>
-    <row r="447" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="447" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D447" s="6"/>
       <c r="E447" s="6"/>
       <c r="F447" s="6"/>
@@ -9124,7 +9146,7 @@
       <c r="N447" s="6"/>
       <c r="O447" s="6"/>
     </row>
-    <row r="448" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="448" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D448" s="6"/>
       <c r="E448" s="6"/>
       <c r="F448" s="6"/>
@@ -9138,7 +9160,7 @@
       <c r="N448" s="6"/>
       <c r="O448" s="6"/>
     </row>
-    <row r="449" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="449" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D449" s="6"/>
       <c r="E449" s="6"/>
       <c r="F449" s="6"/>
@@ -9152,7 +9174,7 @@
       <c r="N449" s="6"/>
       <c r="O449" s="6"/>
     </row>
-    <row r="450" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="450" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D450" s="6"/>
       <c r="E450" s="6"/>
       <c r="F450" s="6"/>
@@ -9166,7 +9188,7 @@
       <c r="N450" s="6"/>
       <c r="O450" s="6"/>
     </row>
-    <row r="451" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="451" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D451" s="6"/>
       <c r="E451" s="6"/>
       <c r="F451" s="6"/>
@@ -9180,7 +9202,7 @@
       <c r="N451" s="6"/>
       <c r="O451" s="6"/>
     </row>
-    <row r="452" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="452" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D452" s="6"/>
       <c r="E452" s="6"/>
       <c r="F452" s="6"/>
@@ -9194,7 +9216,7 @@
       <c r="N452" s="6"/>
       <c r="O452" s="6"/>
     </row>
-    <row r="453" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="453" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D453" s="6"/>
       <c r="E453" s="6"/>
       <c r="F453" s="6"/>
@@ -9208,7 +9230,7 @@
       <c r="N453" s="6"/>
       <c r="O453" s="6"/>
     </row>
-    <row r="454" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="454" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D454" s="6"/>
       <c r="E454" s="6"/>
       <c r="F454" s="6"/>
@@ -9222,7 +9244,7 @@
       <c r="N454" s="6"/>
       <c r="O454" s="6"/>
     </row>
-    <row r="455" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="455" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D455" s="6"/>
       <c r="E455" s="6"/>
       <c r="F455" s="6"/>
@@ -9236,7 +9258,7 @@
       <c r="N455" s="6"/>
       <c r="O455" s="6"/>
     </row>
-    <row r="456" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="456" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D456" s="6"/>
       <c r="E456" s="6"/>
       <c r="F456" s="6"/>
@@ -9250,7 +9272,7 @@
       <c r="N456" s="6"/>
       <c r="O456" s="6"/>
     </row>
-    <row r="457" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="457" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D457" s="6"/>
       <c r="E457" s="6"/>
       <c r="F457" s="6"/>
@@ -9264,7 +9286,7 @@
       <c r="N457" s="6"/>
       <c r="O457" s="6"/>
     </row>
-    <row r="458" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="458" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D458" s="6"/>
       <c r="E458" s="6"/>
       <c r="F458" s="6"/>
@@ -9278,7 +9300,7 @@
       <c r="N458" s="6"/>
       <c r="O458" s="6"/>
     </row>
-    <row r="459" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="459" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D459" s="6"/>
       <c r="E459" s="6"/>
       <c r="F459" s="6"/>
@@ -9292,7 +9314,7 @@
       <c r="N459" s="6"/>
       <c r="O459" s="6"/>
     </row>
-    <row r="460" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="460" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D460" s="6"/>
       <c r="E460" s="6"/>
       <c r="F460" s="6"/>
@@ -9306,7 +9328,7 @@
       <c r="N460" s="6"/>
       <c r="O460" s="6"/>
     </row>
-    <row r="461" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="461" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D461" s="6"/>
       <c r="E461" s="6"/>
       <c r="F461" s="6"/>
@@ -9320,7 +9342,7 @@
       <c r="N461" s="6"/>
       <c r="O461" s="6"/>
     </row>
-    <row r="462" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="462" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D462" s="6"/>
       <c r="E462" s="6"/>
       <c r="F462" s="6"/>
@@ -9334,7 +9356,7 @@
       <c r="N462" s="6"/>
       <c r="O462" s="6"/>
     </row>
-    <row r="463" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="463" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D463" s="6"/>
       <c r="E463" s="6"/>
       <c r="F463" s="6"/>
@@ -9348,7 +9370,7 @@
       <c r="N463" s="6"/>
       <c r="O463" s="6"/>
     </row>
-    <row r="464" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="464" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D464" s="6"/>
       <c r="E464" s="6"/>
       <c r="F464" s="6"/>
@@ -9362,7 +9384,7 @@
       <c r="N464" s="6"/>
       <c r="O464" s="6"/>
     </row>
-    <row r="465" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="465" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D465" s="6"/>
       <c r="E465" s="6"/>
       <c r="F465" s="6"/>
@@ -9376,7 +9398,7 @@
       <c r="N465" s="6"/>
       <c r="O465" s="6"/>
     </row>
-    <row r="466" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="466" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D466" s="6"/>
       <c r="E466" s="6"/>
       <c r="F466" s="6"/>
@@ -9390,7 +9412,7 @@
       <c r="N466" s="6"/>
       <c r="O466" s="6"/>
     </row>
-    <row r="467" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="467" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D467" s="6"/>
       <c r="E467" s="6"/>
       <c r="F467" s="6"/>
@@ -9404,7 +9426,7 @@
       <c r="N467" s="6"/>
       <c r="O467" s="6"/>
     </row>
-    <row r="468" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="468" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D468" s="6"/>
       <c r="E468" s="6"/>
       <c r="F468" s="6"/>
@@ -9418,7 +9440,7 @@
       <c r="N468" s="6"/>
       <c r="O468" s="6"/>
     </row>
-    <row r="469" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="469" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D469" s="6"/>
       <c r="E469" s="6"/>
       <c r="F469" s="6"/>
@@ -9432,7 +9454,7 @@
       <c r="N469" s="6"/>
       <c r="O469" s="6"/>
     </row>
-    <row r="470" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="470" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D470" s="6"/>
       <c r="E470" s="6"/>
       <c r="F470" s="6"/>
@@ -9446,7 +9468,7 @@
       <c r="N470" s="6"/>
       <c r="O470" s="6"/>
     </row>
-    <row r="471" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="471" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D471" s="6"/>
       <c r="E471" s="6"/>
       <c r="F471" s="6"/>
@@ -9460,7 +9482,7 @@
       <c r="N471" s="6"/>
       <c r="O471" s="6"/>
     </row>
-    <row r="472" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="472" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D472" s="6"/>
       <c r="E472" s="6"/>
       <c r="F472" s="6"/>
@@ -9474,7 +9496,7 @@
       <c r="N472" s="6"/>
       <c r="O472" s="6"/>
     </row>
-    <row r="473" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="473" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D473" s="6"/>
       <c r="E473" s="6"/>
       <c r="F473" s="6"/>
@@ -9488,7 +9510,7 @@
       <c r="N473" s="6"/>
       <c r="O473" s="6"/>
     </row>
-    <row r="474" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="474" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D474" s="6"/>
       <c r="E474" s="6"/>
       <c r="F474" s="6"/>
@@ -9502,7 +9524,7 @@
       <c r="N474" s="6"/>
       <c r="O474" s="6"/>
     </row>
-    <row r="475" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="475" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D475" s="6"/>
       <c r="E475" s="6"/>
       <c r="F475" s="6"/>
@@ -9516,7 +9538,7 @@
       <c r="N475" s="6"/>
       <c r="O475" s="6"/>
     </row>
-    <row r="476" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="476" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D476" s="6"/>
       <c r="E476" s="6"/>
       <c r="F476" s="6"/>
@@ -9530,7 +9552,7 @@
       <c r="N476" s="6"/>
       <c r="O476" s="6"/>
     </row>
-    <row r="477" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="477" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D477" s="6"/>
       <c r="E477" s="6"/>
       <c r="F477" s="6"/>
@@ -9544,7 +9566,7 @@
       <c r="N477" s="6"/>
       <c r="O477" s="6"/>
     </row>
-    <row r="478" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="478" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D478" s="6"/>
       <c r="E478" s="6"/>
       <c r="F478" s="6"/>
@@ -9558,7 +9580,7 @@
       <c r="N478" s="6"/>
       <c r="O478" s="6"/>
     </row>
-    <row r="479" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="479" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D479" s="6"/>
       <c r="E479" s="6"/>
       <c r="F479" s="6"/>
@@ -9572,7 +9594,7 @@
       <c r="N479" s="6"/>
       <c r="O479" s="6"/>
     </row>
-    <row r="480" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="480" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D480" s="6"/>
       <c r="E480" s="6"/>
       <c r="F480" s="6"/>
@@ -9586,7 +9608,7 @@
       <c r="N480" s="6"/>
       <c r="O480" s="6"/>
     </row>
-    <row r="481" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="481" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D481" s="6"/>
       <c r="E481" s="6"/>
       <c r="F481" s="6"/>
@@ -9600,7 +9622,7 @@
       <c r="N481" s="6"/>
       <c r="O481" s="6"/>
     </row>
-    <row r="482" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="482" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D482" s="6"/>
       <c r="E482" s="6"/>
       <c r="F482" s="6"/>
@@ -9614,7 +9636,7 @@
       <c r="N482" s="6"/>
       <c r="O482" s="6"/>
     </row>
-    <row r="483" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="483" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D483" s="6"/>
       <c r="E483" s="6"/>
       <c r="F483" s="6"/>
@@ -9628,7 +9650,7 @@
       <c r="N483" s="6"/>
       <c r="O483" s="6"/>
     </row>
-    <row r="484" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="484" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D484" s="6"/>
       <c r="E484" s="6"/>
       <c r="F484" s="6"/>
@@ -9642,7 +9664,7 @@
       <c r="N484" s="6"/>
       <c r="O484" s="6"/>
     </row>
-    <row r="485" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="485" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D485" s="6"/>
       <c r="E485" s="6"/>
       <c r="F485" s="6"/>
@@ -9656,7 +9678,7 @@
       <c r="N485" s="6"/>
       <c r="O485" s="6"/>
     </row>
-    <row r="486" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="486" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D486" s="6"/>
       <c r="E486" s="6"/>
       <c r="F486" s="6"/>
@@ -9670,7 +9692,7 @@
       <c r="N486" s="6"/>
       <c r="O486" s="6"/>
     </row>
-    <row r="487" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="487" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D487" s="6"/>
       <c r="E487" s="6"/>
       <c r="F487" s="6"/>
@@ -9684,7 +9706,7 @@
       <c r="N487" s="6"/>
       <c r="O487" s="6"/>
     </row>
-    <row r="488" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="488" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D488" s="6"/>
       <c r="E488" s="6"/>
       <c r="F488" s="6"/>
@@ -9698,7 +9720,7 @@
       <c r="N488" s="6"/>
       <c r="O488" s="6"/>
     </row>
-    <row r="489" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="489" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D489" s="6"/>
       <c r="E489" s="6"/>
       <c r="F489" s="6"/>
@@ -9712,7 +9734,7 @@
       <c r="N489" s="6"/>
       <c r="O489" s="6"/>
     </row>
-    <row r="490" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="490" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D490" s="6"/>
       <c r="E490" s="6"/>
       <c r="F490" s="6"/>
@@ -9726,7 +9748,7 @@
       <c r="N490" s="6"/>
       <c r="O490" s="6"/>
     </row>
-    <row r="491" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="491" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D491" s="6"/>
       <c r="E491" s="6"/>
       <c r="F491" s="6"/>
@@ -9740,7 +9762,7 @@
       <c r="N491" s="6"/>
       <c r="O491" s="6"/>
     </row>
-    <row r="492" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="492" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D492" s="6"/>
       <c r="E492" s="6"/>
       <c r="F492" s="6"/>
@@ -9754,7 +9776,7 @@
       <c r="N492" s="6"/>
       <c r="O492" s="6"/>
     </row>
-    <row r="493" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="493" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D493" s="6"/>
       <c r="E493" s="6"/>
       <c r="F493" s="6"/>
@@ -9768,7 +9790,7 @@
       <c r="N493" s="6"/>
       <c r="O493" s="6"/>
     </row>
-    <row r="494" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="494" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D494" s="6"/>
       <c r="E494" s="6"/>
       <c r="F494" s="6"/>
@@ -9782,7 +9804,7 @@
       <c r="N494" s="6"/>
       <c r="O494" s="6"/>
     </row>
-    <row r="495" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="495" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D495" s="6"/>
       <c r="E495" s="6"/>
       <c r="F495" s="6"/>
@@ -9796,7 +9818,7 @@
       <c r="N495" s="6"/>
       <c r="O495" s="6"/>
     </row>
-    <row r="496" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="496" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D496" s="6"/>
       <c r="E496" s="6"/>
       <c r="F496" s="6"/>
@@ -9810,7 +9832,7 @@
       <c r="N496" s="6"/>
       <c r="O496" s="6"/>
     </row>
-    <row r="497" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="497" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D497" s="6"/>
       <c r="E497" s="6"/>
       <c r="F497" s="6"/>
@@ -9824,7 +9846,7 @@
       <c r="N497" s="6"/>
       <c r="O497" s="6"/>
     </row>
-    <row r="498" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="498" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D498" s="6"/>
       <c r="E498" s="6"/>
       <c r="F498" s="6"/>
@@ -9838,7 +9860,7 @@
       <c r="N498" s="6"/>
       <c r="O498" s="6"/>
     </row>
-    <row r="499" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="499" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D499" s="6"/>
       <c r="E499" s="6"/>
       <c r="F499" s="6"/>
@@ -9852,7 +9874,7 @@
       <c r="N499" s="6"/>
       <c r="O499" s="6"/>
     </row>
-    <row r="500" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="500" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D500" s="6"/>
       <c r="E500" s="6"/>
       <c r="F500" s="6"/>
@@ -9866,7 +9888,7 @@
       <c r="N500" s="6"/>
       <c r="O500" s="6"/>
     </row>
-    <row r="501" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="501" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D501" s="6"/>
       <c r="E501" s="6"/>
       <c r="F501" s="6"/>
@@ -9880,7 +9902,7 @@
       <c r="N501" s="6"/>
       <c r="O501" s="6"/>
     </row>
-    <row r="502" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="502" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D502" s="6"/>
       <c r="E502" s="6"/>
       <c r="F502" s="6"/>
@@ -9894,7 +9916,7 @@
       <c r="N502" s="6"/>
       <c r="O502" s="6"/>
     </row>
-    <row r="503" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="503" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D503" s="6"/>
       <c r="E503" s="6"/>
       <c r="F503" s="6"/>
@@ -9908,7 +9930,7 @@
       <c r="N503" s="6"/>
       <c r="O503" s="6"/>
     </row>
-    <row r="504" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="504" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D504" s="6"/>
       <c r="E504" s="6"/>
       <c r="F504" s="6"/>
@@ -9922,7 +9944,7 @@
       <c r="N504" s="6"/>
       <c r="O504" s="6"/>
     </row>
-    <row r="505" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="505" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D505" s="6"/>
       <c r="E505" s="6"/>
       <c r="F505" s="6"/>
@@ -9936,7 +9958,7 @@
       <c r="N505" s="6"/>
       <c r="O505" s="6"/>
     </row>
-    <row r="506" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="506" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D506" s="6"/>
       <c r="E506" s="6"/>
       <c r="F506" s="6"/>
@@ -9950,7 +9972,7 @@
       <c r="N506" s="6"/>
       <c r="O506" s="6"/>
     </row>
-    <row r="507" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="507" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D507" s="6"/>
       <c r="E507" s="6"/>
       <c r="F507" s="6"/>
@@ -9964,7 +9986,7 @@
       <c r="N507" s="6"/>
       <c r="O507" s="6"/>
     </row>
-    <row r="508" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="508" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D508" s="6"/>
       <c r="E508" s="6"/>
       <c r="F508" s="6"/>
@@ -9978,7 +10000,7 @@
       <c r="N508" s="6"/>
       <c r="O508" s="6"/>
     </row>
-    <row r="509" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="509" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D509" s="6"/>
       <c r="E509" s="6"/>
       <c r="F509" s="6"/>
@@ -9992,7 +10014,7 @@
       <c r="N509" s="6"/>
       <c r="O509" s="6"/>
     </row>
-    <row r="510" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="510" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D510" s="6"/>
       <c r="E510" s="6"/>
       <c r="F510" s="6"/>
@@ -10006,7 +10028,7 @@
       <c r="N510" s="6"/>
       <c r="O510" s="6"/>
     </row>
-    <row r="511" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="511" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D511" s="6"/>
       <c r="E511" s="6"/>
       <c r="F511" s="6"/>
@@ -10020,7 +10042,7 @@
       <c r="N511" s="6"/>
       <c r="O511" s="6"/>
     </row>
-    <row r="512" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="512" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D512" s="6"/>
       <c r="E512" s="6"/>
       <c r="F512" s="6"/>
@@ -10034,7 +10056,7 @@
       <c r="N512" s="6"/>
       <c r="O512" s="6"/>
     </row>
-    <row r="513" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="513" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D513" s="6"/>
       <c r="E513" s="6"/>
       <c r="F513" s="6"/>
@@ -10048,7 +10070,7 @@
       <c r="N513" s="6"/>
       <c r="O513" s="6"/>
     </row>
-    <row r="514" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="514" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D514" s="6"/>
       <c r="E514" s="6"/>
       <c r="F514" s="6"/>
@@ -10062,7 +10084,7 @@
       <c r="N514" s="6"/>
       <c r="O514" s="6"/>
     </row>
-    <row r="515" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="515" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D515" s="6"/>
       <c r="E515" s="6"/>
       <c r="F515" s="6"/>
@@ -10076,7 +10098,7 @@
       <c r="N515" s="6"/>
       <c r="O515" s="6"/>
     </row>
-    <row r="516" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="516" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D516" s="6"/>
       <c r="E516" s="6"/>
       <c r="F516" s="6"/>
@@ -10090,7 +10112,7 @@
       <c r="N516" s="6"/>
       <c r="O516" s="6"/>
     </row>
-    <row r="517" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="517" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D517" s="6"/>
       <c r="E517" s="6"/>
       <c r="F517" s="6"/>
@@ -10104,7 +10126,7 @@
       <c r="N517" s="6"/>
       <c r="O517" s="6"/>
     </row>
-    <row r="518" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="518" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D518" s="6"/>
       <c r="E518" s="6"/>
       <c r="F518" s="6"/>
@@ -10118,7 +10140,7 @@
       <c r="N518" s="6"/>
       <c r="O518" s="6"/>
     </row>
-    <row r="519" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="519" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D519" s="6"/>
       <c r="E519" s="6"/>
       <c r="F519" s="6"/>
@@ -10132,7 +10154,7 @@
       <c r="N519" s="6"/>
       <c r="O519" s="6"/>
     </row>
-    <row r="520" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="520" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D520" s="6"/>
       <c r="E520" s="6"/>
       <c r="F520" s="6"/>
@@ -10146,7 +10168,7 @@
       <c r="N520" s="6"/>
       <c r="O520" s="6"/>
     </row>
-    <row r="521" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="521" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D521" s="6"/>
       <c r="E521" s="6"/>
       <c r="F521" s="6"/>
@@ -10160,7 +10182,7 @@
       <c r="N521" s="6"/>
       <c r="O521" s="6"/>
     </row>
-    <row r="522" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="522" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D522" s="6"/>
       <c r="E522" s="6"/>
       <c r="F522" s="6"/>
@@ -10174,7 +10196,7 @@
       <c r="N522" s="6"/>
       <c r="O522" s="6"/>
     </row>
-    <row r="523" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="523" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D523" s="6"/>
       <c r="E523" s="6"/>
       <c r="F523" s="6"/>
@@ -10188,7 +10210,7 @@
       <c r="N523" s="6"/>
       <c r="O523" s="6"/>
     </row>
-    <row r="524" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="524" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D524" s="6"/>
       <c r="E524" s="6"/>
       <c r="F524" s="6"/>
@@ -10202,7 +10224,7 @@
       <c r="N524" s="6"/>
       <c r="O524" s="6"/>
     </row>
-    <row r="525" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="525" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D525" s="6"/>
       <c r="E525" s="6"/>
       <c r="F525" s="6"/>
@@ -10216,7 +10238,7 @@
       <c r="N525" s="6"/>
       <c r="O525" s="6"/>
     </row>
-    <row r="526" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="526" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D526" s="6"/>
       <c r="E526" s="6"/>
       <c r="F526" s="6"/>
@@ -10230,7 +10252,7 @@
       <c r="N526" s="6"/>
       <c r="O526" s="6"/>
     </row>
-    <row r="527" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="527" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D527" s="6"/>
       <c r="E527" s="6"/>
       <c r="F527" s="6"/>
@@ -10244,7 +10266,7 @@
       <c r="N527" s="6"/>
       <c r="O527" s="6"/>
     </row>
-    <row r="528" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="528" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D528" s="6"/>
       <c r="E528" s="6"/>
       <c r="F528" s="6"/>
@@ -10258,7 +10280,7 @@
       <c r="N528" s="6"/>
       <c r="O528" s="6"/>
     </row>
-    <row r="529" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="529" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D529" s="6"/>
       <c r="E529" s="6"/>
       <c r="F529" s="6"/>
@@ -10272,7 +10294,7 @@
       <c r="N529" s="6"/>
       <c r="O529" s="6"/>
     </row>
-    <row r="530" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="530" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D530" s="6"/>
       <c r="E530" s="6"/>
       <c r="F530" s="6"/>
@@ -10286,7 +10308,7 @@
       <c r="N530" s="6"/>
       <c r="O530" s="6"/>
     </row>
-    <row r="531" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="531" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D531" s="6"/>
       <c r="E531" s="6"/>
       <c r="F531" s="6"/>
@@ -10300,7 +10322,7 @@
       <c r="N531" s="6"/>
       <c r="O531" s="6"/>
     </row>
-    <row r="532" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="532" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D532" s="6"/>
       <c r="E532" s="6"/>
       <c r="F532" s="6"/>
@@ -10314,7 +10336,7 @@
       <c r="N532" s="6"/>
       <c r="O532" s="6"/>
     </row>
-    <row r="533" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="533" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D533" s="6"/>
       <c r="E533" s="6"/>
       <c r="F533" s="6"/>
@@ -10328,7 +10350,7 @@
       <c r="N533" s="6"/>
       <c r="O533" s="6"/>
     </row>
-    <row r="534" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="534" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D534" s="6"/>
       <c r="E534" s="6"/>
       <c r="F534" s="6"/>
@@ -10342,7 +10364,7 @@
       <c r="N534" s="6"/>
       <c r="O534" s="6"/>
     </row>
-    <row r="535" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="535" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D535" s="6"/>
       <c r="E535" s="6"/>
       <c r="F535" s="6"/>
@@ -10356,7 +10378,7 @@
       <c r="N535" s="6"/>
       <c r="O535" s="6"/>
     </row>
-    <row r="536" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="536" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D536" s="6"/>
       <c r="E536" s="6"/>
       <c r="F536" s="6"/>
@@ -10370,7 +10392,7 @@
       <c r="N536" s="6"/>
       <c r="O536" s="6"/>
     </row>
-    <row r="537" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="537" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D537" s="6"/>
       <c r="E537" s="6"/>
       <c r="F537" s="6"/>
@@ -10384,7 +10406,7 @@
       <c r="N537" s="6"/>
       <c r="O537" s="6"/>
     </row>
-    <row r="538" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="538" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D538" s="6"/>
       <c r="E538" s="6"/>
       <c r="F538" s="6"/>
@@ -10398,7 +10420,7 @@
       <c r="N538" s="6"/>
       <c r="O538" s="6"/>
     </row>
-    <row r="539" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="539" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D539" s="6"/>
       <c r="E539" s="6"/>
       <c r="F539" s="6"/>
@@ -10412,7 +10434,7 @@
       <c r="N539" s="6"/>
       <c r="O539" s="6"/>
     </row>
-    <row r="540" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="540" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D540" s="6"/>
       <c r="E540" s="6"/>
       <c r="F540" s="6"/>
@@ -10426,7 +10448,7 @@
       <c r="N540" s="6"/>
       <c r="O540" s="6"/>
     </row>
-    <row r="541" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="541" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D541" s="6"/>
       <c r="E541" s="6"/>
       <c r="F541" s="6"/>
@@ -10440,7 +10462,7 @@
       <c r="N541" s="6"/>
       <c r="O541" s="6"/>
     </row>
-    <row r="542" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="542" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D542" s="6"/>
       <c r="E542" s="6"/>
       <c r="F542" s="6"/>
@@ -10454,7 +10476,7 @@
       <c r="N542" s="6"/>
       <c r="O542" s="6"/>
     </row>
-    <row r="543" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="543" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D543" s="6"/>
       <c r="E543" s="6"/>
       <c r="F543" s="6"/>
@@ -10468,7 +10490,7 @@
       <c r="N543" s="6"/>
       <c r="O543" s="6"/>
     </row>
-    <row r="544" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="544" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D544" s="6"/>
       <c r="E544" s="6"/>
       <c r="F544" s="6"/>
@@ -10482,7 +10504,7 @@
       <c r="N544" s="6"/>
       <c r="O544" s="6"/>
     </row>
-    <row r="545" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="545" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D545" s="6"/>
       <c r="E545" s="6"/>
       <c r="F545" s="6"/>
@@ -10496,7 +10518,7 @@
       <c r="N545" s="6"/>
       <c r="O545" s="6"/>
     </row>
-    <row r="546" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="546" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D546" s="6"/>
       <c r="E546" s="6"/>
       <c r="F546" s="6"/>
@@ -10510,7 +10532,7 @@
       <c r="N546" s="6"/>
       <c r="O546" s="6"/>
     </row>
-    <row r="547" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="547" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D547" s="6"/>
       <c r="E547" s="6"/>
       <c r="F547" s="6"/>
@@ -10524,7 +10546,7 @@
       <c r="N547" s="6"/>
       <c r="O547" s="6"/>
     </row>
-    <row r="548" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="548" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D548" s="6"/>
       <c r="E548" s="6"/>
       <c r="F548" s="6"/>
@@ -10538,7 +10560,7 @@
       <c r="N548" s="6"/>
       <c r="O548" s="6"/>
     </row>
-    <row r="549" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="549" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D549" s="6"/>
       <c r="E549" s="6"/>
       <c r="F549" s="6"/>
@@ -10552,7 +10574,7 @@
       <c r="N549" s="6"/>
       <c r="O549" s="6"/>
     </row>
-    <row r="550" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="550" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D550" s="6"/>
       <c r="E550" s="6"/>
       <c r="F550" s="6"/>
@@ -10566,7 +10588,7 @@
       <c r="N550" s="6"/>
       <c r="O550" s="6"/>
     </row>
-    <row r="551" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="551" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D551" s="6"/>
       <c r="E551" s="6"/>
       <c r="F551" s="6"/>
@@ -10580,7 +10602,7 @@
       <c r="N551" s="6"/>
       <c r="O551" s="6"/>
     </row>
-    <row r="552" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="552" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D552" s="6"/>
       <c r="E552" s="6"/>
       <c r="F552" s="6"/>
@@ -10594,7 +10616,7 @@
       <c r="N552" s="6"/>
       <c r="O552" s="6"/>
     </row>
-    <row r="553" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="553" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D553" s="6"/>
       <c r="E553" s="6"/>
       <c r="F553" s="6"/>
@@ -10608,7 +10630,7 @@
       <c r="N553" s="6"/>
       <c r="O553" s="6"/>
     </row>
-    <row r="554" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="554" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D554" s="6"/>
       <c r="E554" s="6"/>
       <c r="F554" s="6"/>
@@ -10622,7 +10644,7 @@
       <c r="N554" s="6"/>
       <c r="O554" s="6"/>
     </row>
-    <row r="555" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="555" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D555" s="6"/>
       <c r="E555" s="6"/>
       <c r="F555" s="6"/>
@@ -10636,7 +10658,7 @@
       <c r="N555" s="6"/>
       <c r="O555" s="6"/>
     </row>
-    <row r="556" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="556" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D556" s="6"/>
       <c r="E556" s="6"/>
       <c r="F556" s="6"/>
@@ -10650,7 +10672,7 @@
       <c r="N556" s="6"/>
       <c r="O556" s="6"/>
     </row>
-    <row r="557" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="557" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D557" s="6"/>
       <c r="E557" s="6"/>
       <c r="F557" s="6"/>
@@ -10664,7 +10686,7 @@
       <c r="N557" s="6"/>
       <c r="O557" s="6"/>
     </row>
-    <row r="558" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="558" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D558" s="6"/>
       <c r="E558" s="6"/>
       <c r="F558" s="6"/>
@@ -10678,7 +10700,7 @@
       <c r="N558" s="6"/>
       <c r="O558" s="6"/>
     </row>
-    <row r="559" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="559" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D559" s="6"/>
       <c r="E559" s="6"/>
       <c r="F559" s="6"/>
@@ -10692,7 +10714,7 @@
       <c r="N559" s="6"/>
       <c r="O559" s="6"/>
     </row>
-    <row r="560" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="560" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D560" s="6"/>
       <c r="E560" s="6"/>
       <c r="F560" s="6"/>
@@ -10706,7 +10728,7 @@
       <c r="N560" s="6"/>
       <c r="O560" s="6"/>
     </row>
-    <row r="561" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="561" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D561" s="6"/>
       <c r="E561" s="6"/>
       <c r="F561" s="6"/>
@@ -10720,7 +10742,7 @@
       <c r="N561" s="6"/>
       <c r="O561" s="6"/>
     </row>
-    <row r="562" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="562" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D562" s="6"/>
       <c r="E562" s="6"/>
       <c r="F562" s="6"/>
@@ -10734,7 +10756,7 @@
       <c r="N562" s="6"/>
       <c r="O562" s="6"/>
     </row>
-    <row r="563" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="563" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D563" s="6"/>
       <c r="E563" s="6"/>
       <c r="F563" s="6"/>
@@ -10748,7 +10770,7 @@
       <c r="N563" s="6"/>
       <c r="O563" s="6"/>
     </row>
-    <row r="564" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="564" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D564" s="6"/>
       <c r="E564" s="6"/>
       <c r="F564" s="6"/>
@@ -10762,7 +10784,7 @@
       <c r="N564" s="6"/>
       <c r="O564" s="6"/>
     </row>
-    <row r="565" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="565" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D565" s="6"/>
       <c r="E565" s="6"/>
       <c r="F565" s="6"/>
@@ -10776,7 +10798,7 @@
       <c r="N565" s="6"/>
       <c r="O565" s="6"/>
     </row>
-    <row r="566" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="566" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D566" s="6"/>
       <c r="E566" s="6"/>
       <c r="F566" s="6"/>
@@ -10790,7 +10812,7 @@
       <c r="N566" s="6"/>
       <c r="O566" s="6"/>
     </row>
-    <row r="567" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="567" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D567" s="6"/>
       <c r="E567" s="6"/>
       <c r="F567" s="6"/>
@@ -10804,7 +10826,7 @@
       <c r="N567" s="6"/>
       <c r="O567" s="6"/>
     </row>
-    <row r="568" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="568" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D568" s="6"/>
       <c r="E568" s="6"/>
       <c r="F568" s="6"/>
@@ -10818,7 +10840,7 @@
       <c r="N568" s="6"/>
       <c r="O568" s="6"/>
     </row>
-    <row r="569" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="569" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D569" s="6"/>
       <c r="E569" s="6"/>
       <c r="F569" s="6"/>
@@ -10832,7 +10854,7 @@
       <c r="N569" s="6"/>
       <c r="O569" s="6"/>
     </row>
-    <row r="570" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="570" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D570" s="6"/>
       <c r="E570" s="6"/>
       <c r="F570" s="6"/>
@@ -10846,7 +10868,7 @@
       <c r="N570" s="6"/>
       <c r="O570" s="6"/>
     </row>
-    <row r="571" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="571" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D571" s="6"/>
       <c r="E571" s="6"/>
       <c r="F571" s="6"/>
@@ -10860,7 +10882,7 @@
       <c r="N571" s="6"/>
       <c r="O571" s="6"/>
     </row>
-    <row r="572" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="572" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D572" s="6"/>
       <c r="E572" s="6"/>
       <c r="F572" s="6"/>
@@ -10874,7 +10896,7 @@
       <c r="N572" s="6"/>
       <c r="O572" s="6"/>
     </row>
-    <row r="573" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="573" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D573" s="6"/>
       <c r="E573" s="6"/>
       <c r="F573" s="6"/>
@@ -10888,7 +10910,7 @@
       <c r="N573" s="6"/>
       <c r="O573" s="6"/>
     </row>
-    <row r="574" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="574" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D574" s="6"/>
       <c r="E574" s="6"/>
       <c r="F574" s="6"/>
@@ -10902,7 +10924,7 @@
       <c r="N574" s="6"/>
       <c r="O574" s="6"/>
     </row>
-    <row r="575" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="575" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D575" s="6"/>
       <c r="E575" s="6"/>
       <c r="F575" s="6"/>
@@ -10916,7 +10938,7 @@
       <c r="N575" s="6"/>
       <c r="O575" s="6"/>
     </row>
-    <row r="576" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="576" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D576" s="6"/>
       <c r="E576" s="6"/>
       <c r="F576" s="6"/>
@@ -10930,7 +10952,7 @@
       <c r="N576" s="6"/>
       <c r="O576" s="6"/>
     </row>
-    <row r="577" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="577" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D577" s="6"/>
       <c r="E577" s="6"/>
       <c r="F577" s="6"/>
@@ -10944,7 +10966,7 @@
       <c r="N577" s="6"/>
       <c r="O577" s="6"/>
     </row>
-    <row r="578" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="578" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D578" s="6"/>
       <c r="E578" s="6"/>
       <c r="F578" s="6"/>
@@ -10958,7 +10980,7 @@
       <c r="N578" s="6"/>
       <c r="O578" s="6"/>
     </row>
-    <row r="579" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="579" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D579" s="6"/>
       <c r="E579" s="6"/>
       <c r="F579" s="6"/>
@@ -10972,7 +10994,7 @@
       <c r="N579" s="6"/>
       <c r="O579" s="6"/>
     </row>
-    <row r="580" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="580" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D580" s="6"/>
       <c r="E580" s="6"/>
       <c r="F580" s="6"/>
@@ -10986,7 +11008,7 @@
       <c r="N580" s="6"/>
       <c r="O580" s="6"/>
     </row>
-    <row r="581" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="581" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D581" s="6"/>
       <c r="E581" s="6"/>
       <c r="F581" s="6"/>
@@ -11000,7 +11022,7 @@
       <c r="N581" s="6"/>
       <c r="O581" s="6"/>
     </row>
-    <row r="582" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="582" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D582" s="6"/>
       <c r="E582" s="6"/>
       <c r="F582" s="6"/>
@@ -11014,7 +11036,7 @@
       <c r="N582" s="6"/>
       <c r="O582" s="6"/>
     </row>
-    <row r="583" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="583" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D583" s="6"/>
       <c r="E583" s="6"/>
       <c r="F583" s="6"/>
@@ -11028,7 +11050,7 @@
       <c r="N583" s="6"/>
       <c r="O583" s="6"/>
     </row>
-    <row r="584" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="584" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D584" s="6"/>
       <c r="E584" s="6"/>
       <c r="F584" s="6"/>
@@ -11042,7 +11064,7 @@
       <c r="N584" s="6"/>
       <c r="O584" s="6"/>
     </row>
-    <row r="585" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="585" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D585" s="6"/>
       <c r="E585" s="6"/>
       <c r="F585" s="6"/>
@@ -11056,7 +11078,7 @@
       <c r="N585" s="6"/>
       <c r="O585" s="6"/>
     </row>
-    <row r="586" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="586" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D586" s="6"/>
       <c r="E586" s="6"/>
       <c r="F586" s="6"/>
@@ -11070,7 +11092,7 @@
       <c r="N586" s="6"/>
       <c r="O586" s="6"/>
     </row>
-    <row r="587" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="587" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D587" s="6"/>
       <c r="E587" s="6"/>
       <c r="F587" s="6"/>
@@ -11084,7 +11106,7 @@
       <c r="N587" s="6"/>
       <c r="O587" s="6"/>
     </row>
-    <row r="588" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="588" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D588" s="6"/>
       <c r="E588" s="6"/>
       <c r="F588" s="6"/>
@@ -11098,7 +11120,7 @@
       <c r="N588" s="6"/>
       <c r="O588" s="6"/>
     </row>
-    <row r="589" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="589" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D589" s="6"/>
       <c r="E589" s="6"/>
       <c r="F589" s="6"/>
@@ -11112,7 +11134,7 @@
       <c r="N589" s="6"/>
       <c r="O589" s="6"/>
     </row>
-    <row r="590" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="590" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D590" s="6"/>
       <c r="E590" s="6"/>
       <c r="F590" s="6"/>
@@ -11126,7 +11148,7 @@
       <c r="N590" s="6"/>
       <c r="O590" s="6"/>
     </row>
-    <row r="591" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="591" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D591" s="6"/>
       <c r="E591" s="6"/>
       <c r="F591" s="6"/>
@@ -11140,7 +11162,7 @@
       <c r="N591" s="6"/>
       <c r="O591" s="6"/>
     </row>
-    <row r="592" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="592" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D592" s="6"/>
       <c r="E592" s="6"/>
       <c r="F592" s="6"/>
@@ -11154,7 +11176,7 @@
       <c r="N592" s="6"/>
       <c r="O592" s="6"/>
     </row>
-    <row r="593" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="593" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D593" s="6"/>
       <c r="E593" s="6"/>
       <c r="F593" s="6"/>
@@ -11168,7 +11190,7 @@
       <c r="N593" s="6"/>
       <c r="O593" s="6"/>
     </row>
-    <row r="594" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="594" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D594" s="6"/>
       <c r="E594" s="6"/>
       <c r="F594" s="6"/>
@@ -11182,7 +11204,7 @@
       <c r="N594" s="6"/>
       <c r="O594" s="6"/>
     </row>
-    <row r="595" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="595" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D595" s="6"/>
       <c r="E595" s="6"/>
       <c r="F595" s="6"/>
@@ -11196,7 +11218,7 @@
       <c r="N595" s="6"/>
       <c r="O595" s="6"/>
     </row>
-    <row r="596" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="596" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D596" s="6"/>
       <c r="E596" s="6"/>
       <c r="F596" s="6"/>
@@ -11210,7 +11232,7 @@
       <c r="N596" s="6"/>
       <c r="O596" s="6"/>
     </row>
-    <row r="597" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="597" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D597" s="6"/>
       <c r="E597" s="6"/>
       <c r="F597" s="6"/>
@@ -11224,7 +11246,7 @@
       <c r="N597" s="6"/>
       <c r="O597" s="6"/>
     </row>
-    <row r="598" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="598" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D598" s="6"/>
       <c r="E598" s="6"/>
       <c r="F598" s="6"/>
@@ -11238,7 +11260,7 @@
       <c r="N598" s="6"/>
       <c r="O598" s="6"/>
     </row>
-    <row r="599" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="599" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D599" s="6"/>
       <c r="E599" s="6"/>
       <c r="F599" s="6"/>
@@ -11252,7 +11274,7 @@
       <c r="N599" s="6"/>
       <c r="O599" s="6"/>
     </row>
-    <row r="600" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="600" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D600" s="6"/>
       <c r="E600" s="6"/>
       <c r="F600" s="6"/>
@@ -11266,7 +11288,7 @@
       <c r="N600" s="6"/>
       <c r="O600" s="6"/>
     </row>
-    <row r="601" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="601" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D601" s="6"/>
       <c r="E601" s="6"/>
       <c r="F601" s="6"/>
@@ -11280,7 +11302,7 @@
       <c r="N601" s="6"/>
       <c r="O601" s="6"/>
     </row>
-    <row r="602" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="602" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D602" s="6"/>
       <c r="E602" s="6"/>
       <c r="F602" s="6"/>
@@ -11294,7 +11316,7 @@
       <c r="N602" s="6"/>
       <c r="O602" s="6"/>
     </row>
-    <row r="603" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="603" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D603" s="6"/>
       <c r="E603" s="6"/>
       <c r="F603" s="6"/>
@@ -11308,7 +11330,7 @@
       <c r="N603" s="6"/>
       <c r="O603" s="6"/>
     </row>
-    <row r="604" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="604" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D604" s="6"/>
       <c r="E604" s="6"/>
       <c r="F604" s="6"/>
@@ -11322,7 +11344,7 @@
       <c r="N604" s="6"/>
       <c r="O604" s="6"/>
     </row>
-    <row r="605" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="605" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D605" s="6"/>
       <c r="E605" s="6"/>
       <c r="F605" s="6"/>
@@ -11336,7 +11358,7 @@
       <c r="N605" s="6"/>
       <c r="O605" s="6"/>
     </row>
-    <row r="606" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="606" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D606" s="6"/>
       <c r="E606" s="6"/>
       <c r="F606" s="6"/>
@@ -11350,7 +11372,7 @@
       <c r="N606" s="6"/>
       <c r="O606" s="6"/>
     </row>
-    <row r="607" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="607" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D607" s="6"/>
       <c r="E607" s="6"/>
       <c r="F607" s="6"/>
@@ -11364,7 +11386,7 @@
       <c r="N607" s="6"/>
       <c r="O607" s="6"/>
     </row>
-    <row r="608" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="608" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D608" s="6"/>
       <c r="E608" s="6"/>
       <c r="F608" s="6"/>
@@ -11378,7 +11400,7 @@
       <c r="N608" s="6"/>
       <c r="O608" s="6"/>
     </row>
-    <row r="609" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="609" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D609" s="6"/>
       <c r="E609" s="6"/>
       <c r="F609" s="6"/>
@@ -11392,7 +11414,7 @@
       <c r="N609" s="6"/>
       <c r="O609" s="6"/>
     </row>
-    <row r="610" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="610" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D610" s="6"/>
       <c r="E610" s="6"/>
       <c r="F610" s="6"/>
@@ -11406,7 +11428,7 @@
       <c r="N610" s="6"/>
       <c r="O610" s="6"/>
     </row>
-    <row r="611" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="611" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D611" s="6"/>
       <c r="E611" s="6"/>
       <c r="F611" s="6"/>
@@ -11420,7 +11442,7 @@
       <c r="N611" s="6"/>
       <c r="O611" s="6"/>
     </row>
-    <row r="612" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="612" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D612" s="6"/>
       <c r="E612" s="6"/>
       <c r="F612" s="6"/>
@@ -11434,7 +11456,7 @@
       <c r="N612" s="6"/>
       <c r="O612" s="6"/>
     </row>
-    <row r="613" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="613" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D613" s="6"/>
       <c r="E613" s="6"/>
       <c r="F613" s="6"/>
@@ -11448,7 +11470,7 @@
       <c r="N613" s="6"/>
       <c r="O613" s="6"/>
     </row>
-    <row r="614" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="614" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D614" s="6"/>
       <c r="E614" s="6"/>
       <c r="F614" s="6"/>
@@ -11462,7 +11484,7 @@
       <c r="N614" s="6"/>
       <c r="O614" s="6"/>
     </row>
-    <row r="615" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="615" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D615" s="6"/>
       <c r="E615" s="6"/>
       <c r="F615" s="6"/>
@@ -11476,7 +11498,7 @@
       <c r="N615" s="6"/>
       <c r="O615" s="6"/>
     </row>
-    <row r="616" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="616" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D616" s="6"/>
       <c r="E616" s="6"/>
       <c r="F616" s="6"/>
@@ -11490,7 +11512,7 @@
       <c r="N616" s="6"/>
       <c r="O616" s="6"/>
     </row>
-    <row r="617" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="617" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D617" s="6"/>
       <c r="E617" s="6"/>
       <c r="F617" s="6"/>
@@ -11504,7 +11526,7 @@
       <c r="N617" s="6"/>
       <c r="O617" s="6"/>
     </row>
-    <row r="618" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="618" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D618" s="6"/>
       <c r="E618" s="6"/>
       <c r="F618" s="6"/>
@@ -11518,7 +11540,7 @@
       <c r="N618" s="6"/>
       <c r="O618" s="6"/>
     </row>
-    <row r="619" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="619" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D619" s="6"/>
       <c r="E619" s="6"/>
       <c r="F619" s="6"/>
@@ -11532,7 +11554,7 @@
       <c r="N619" s="6"/>
       <c r="O619" s="6"/>
     </row>
-    <row r="620" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="620" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D620" s="6"/>
       <c r="E620" s="6"/>
       <c r="F620" s="6"/>
@@ -11546,7 +11568,7 @@
       <c r="N620" s="6"/>
       <c r="O620" s="6"/>
     </row>
-    <row r="621" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="621" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D621" s="6"/>
       <c r="E621" s="6"/>
       <c r="F621" s="6"/>
@@ -11560,7 +11582,7 @@
       <c r="N621" s="6"/>
       <c r="O621" s="6"/>
     </row>
-    <row r="622" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="622" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D622" s="6"/>
       <c r="E622" s="6"/>
       <c r="F622" s="6"/>
@@ -11574,7 +11596,7 @@
       <c r="N622" s="6"/>
       <c r="O622" s="6"/>
     </row>
-    <row r="623" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="623" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D623" s="6"/>
       <c r="E623" s="6"/>
       <c r="F623" s="6"/>
@@ -11588,7 +11610,7 @@
       <c r="N623" s="6"/>
       <c r="O623" s="6"/>
     </row>
-    <row r="624" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="624" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D624" s="6"/>
       <c r="E624" s="6"/>
       <c r="F624" s="6"/>
@@ -11602,7 +11624,7 @@
       <c r="N624" s="6"/>
       <c r="O624" s="6"/>
     </row>
-    <row r="625" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="625" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D625" s="6"/>
       <c r="E625" s="6"/>
       <c r="F625" s="6"/>
@@ -11616,7 +11638,7 @@
       <c r="N625" s="6"/>
       <c r="O625" s="6"/>
     </row>
-    <row r="626" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="626" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D626" s="6"/>
       <c r="E626" s="6"/>
       <c r="F626" s="6"/>
@@ -11630,7 +11652,7 @@
       <c r="N626" s="6"/>
       <c r="O626" s="6"/>
     </row>
-    <row r="627" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="627" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D627" s="6"/>
       <c r="E627" s="6"/>
       <c r="F627" s="6"/>
@@ -11644,7 +11666,7 @@
       <c r="N627" s="6"/>
       <c r="O627" s="6"/>
     </row>
-    <row r="628" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="628" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D628" s="6"/>
       <c r="E628" s="6"/>
       <c r="F628" s="6"/>
@@ -11658,7 +11680,7 @@
       <c r="N628" s="6"/>
       <c r="O628" s="6"/>
     </row>
-    <row r="629" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="629" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D629" s="6"/>
       <c r="E629" s="6"/>
       <c r="F629" s="6"/>
@@ -11672,7 +11694,7 @@
       <c r="N629" s="6"/>
       <c r="O629" s="6"/>
     </row>
-    <row r="630" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="630" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D630" s="6"/>
       <c r="E630" s="6"/>
       <c r="F630" s="6"/>
@@ -11686,7 +11708,7 @@
       <c r="N630" s="6"/>
       <c r="O630" s="6"/>
     </row>
-    <row r="631" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="631" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D631" s="6"/>
       <c r="E631" s="6"/>
       <c r="F631" s="6"/>
@@ -11700,7 +11722,7 @@
       <c r="N631" s="6"/>
       <c r="O631" s="6"/>
     </row>
-    <row r="632" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="632" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D632" s="6"/>
       <c r="E632" s="6"/>
       <c r="F632" s="6"/>
@@ -11714,7 +11736,7 @@
       <c r="N632" s="6"/>
       <c r="O632" s="6"/>
     </row>
-    <row r="633" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="633" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D633" s="6"/>
       <c r="E633" s="6"/>
       <c r="F633" s="6"/>
@@ -11728,7 +11750,7 @@
       <c r="N633" s="6"/>
       <c r="O633" s="6"/>
     </row>
-    <row r="634" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="634" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D634" s="6"/>
       <c r="E634" s="6"/>
       <c r="F634" s="6"/>
@@ -11742,7 +11764,7 @@
       <c r="N634" s="6"/>
       <c r="O634" s="6"/>
     </row>
-    <row r="635" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="635" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D635" s="6"/>
       <c r="E635" s="6"/>
       <c r="F635" s="6"/>
@@ -11756,7 +11778,7 @@
       <c r="N635" s="6"/>
       <c r="O635" s="6"/>
     </row>
-    <row r="636" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="636" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D636" s="6"/>
       <c r="E636" s="6"/>
       <c r="F636" s="6"/>
@@ -11770,7 +11792,7 @@
       <c r="N636" s="6"/>
       <c r="O636" s="6"/>
     </row>
-    <row r="637" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="637" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D637" s="6"/>
       <c r="E637" s="6"/>
       <c r="F637" s="6"/>
@@ -11784,7 +11806,7 @@
       <c r="N637" s="6"/>
       <c r="O637" s="6"/>
     </row>
-    <row r="638" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="638" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D638" s="6"/>
       <c r="E638" s="6"/>
       <c r="F638" s="6"/>
@@ -11798,7 +11820,7 @@
       <c r="N638" s="6"/>
       <c r="O638" s="6"/>
     </row>
-    <row r="639" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="639" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D639" s="6"/>
       <c r="E639" s="6"/>
       <c r="F639" s="6"/>
@@ -11812,7 +11834,7 @@
       <c r="N639" s="6"/>
       <c r="O639" s="6"/>
     </row>
-    <row r="640" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="640" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D640" s="6"/>
       <c r="E640" s="6"/>
       <c r="F640" s="6"/>
@@ -11826,7 +11848,7 @@
       <c r="N640" s="6"/>
       <c r="O640" s="6"/>
     </row>
-    <row r="641" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="641" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D641" s="6"/>
       <c r="E641" s="6"/>
       <c r="F641" s="6"/>
@@ -11840,7 +11862,7 @@
       <c r="N641" s="6"/>
       <c r="O641" s="6"/>
     </row>
-    <row r="642" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="642" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D642" s="6"/>
       <c r="E642" s="6"/>
       <c r="F642" s="6"/>
@@ -11854,7 +11876,7 @@
       <c r="N642" s="6"/>
       <c r="O642" s="6"/>
     </row>
-    <row r="643" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="643" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D643" s="6"/>
       <c r="E643" s="6"/>
       <c r="F643" s="6"/>
@@ -11868,7 +11890,7 @@
       <c r="N643" s="6"/>
       <c r="O643" s="6"/>
     </row>
-    <row r="644" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="644" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D644" s="6"/>
       <c r="E644" s="6"/>
       <c r="F644" s="6"/>
@@ -11882,7 +11904,7 @@
       <c r="N644" s="6"/>
       <c r="O644" s="6"/>
     </row>
-    <row r="645" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="645" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D645" s="6"/>
       <c r="E645" s="6"/>
       <c r="F645" s="6"/>
@@ -11896,7 +11918,7 @@
       <c r="N645" s="6"/>
       <c r="O645" s="6"/>
     </row>
-    <row r="646" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="646" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D646" s="6"/>
       <c r="E646" s="6"/>
       <c r="F646" s="6"/>
@@ -11910,7 +11932,7 @@
       <c r="N646" s="6"/>
       <c r="O646" s="6"/>
     </row>
-    <row r="647" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="647" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D647" s="6"/>
       <c r="E647" s="6"/>
       <c r="F647" s="6"/>
@@ -11924,7 +11946,7 @@
       <c r="N647" s="6"/>
       <c r="O647" s="6"/>
     </row>
-    <row r="648" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="648" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D648" s="6"/>
       <c r="E648" s="6"/>
       <c r="F648" s="6"/>
@@ -11938,7 +11960,7 @@
       <c r="N648" s="6"/>
       <c r="O648" s="6"/>
     </row>
-    <row r="649" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="649" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D649" s="6"/>
       <c r="E649" s="6"/>
       <c r="F649" s="6"/>
@@ -11952,7 +11974,7 @@
       <c r="N649" s="6"/>
       <c r="O649" s="6"/>
     </row>
-    <row r="650" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="650" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D650" s="6"/>
       <c r="E650" s="6"/>
       <c r="F650" s="6"/>
@@ -11966,7 +11988,7 @@
       <c r="N650" s="6"/>
       <c r="O650" s="6"/>
     </row>
-    <row r="651" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="651" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D651" s="6"/>
       <c r="E651" s="6"/>
       <c r="F651" s="6"/>
@@ -11980,7 +12002,7 @@
       <c r="N651" s="6"/>
       <c r="O651" s="6"/>
     </row>
-    <row r="652" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="652" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D652" s="6"/>
       <c r="E652" s="6"/>
       <c r="F652" s="6"/>
@@ -11994,7 +12016,7 @@
       <c r="N652" s="6"/>
       <c r="O652" s="6"/>
     </row>
-    <row r="653" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="653" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D653" s="6"/>
       <c r="E653" s="6"/>
       <c r="F653" s="6"/>
@@ -12008,7 +12030,7 @@
       <c r="N653" s="6"/>
       <c r="O653" s="6"/>
     </row>
-    <row r="654" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="654" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D654" s="6"/>
       <c r="E654" s="6"/>
       <c r="F654" s="6"/>
@@ -12022,7 +12044,7 @@
       <c r="N654" s="6"/>
       <c r="O654" s="6"/>
     </row>
-    <row r="655" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="655" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D655" s="6"/>
       <c r="E655" s="6"/>
       <c r="F655" s="6"/>
@@ -12036,7 +12058,7 @@
       <c r="N655" s="6"/>
       <c r="O655" s="6"/>
     </row>
-    <row r="656" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="656" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D656" s="6"/>
       <c r="E656" s="6"/>
       <c r="F656" s="6"/>
@@ -12050,7 +12072,7 @@
       <c r="N656" s="6"/>
       <c r="O656" s="6"/>
     </row>
-    <row r="657" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="657" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D657" s="6"/>
       <c r="E657" s="6"/>
       <c r="F657" s="6"/>
@@ -12064,7 +12086,7 @@
       <c r="N657" s="6"/>
       <c r="O657" s="6"/>
     </row>
-    <row r="658" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="658" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D658" s="6"/>
       <c r="E658" s="6"/>
       <c r="F658" s="6"/>
@@ -12078,7 +12100,7 @@
       <c r="N658" s="6"/>
       <c r="O658" s="6"/>
     </row>
-    <row r="659" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="659" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D659" s="6"/>
       <c r="E659" s="6"/>
       <c r="F659" s="6"/>
@@ -12092,7 +12114,7 @@
       <c r="N659" s="6"/>
       <c r="O659" s="6"/>
     </row>
-    <row r="660" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="660" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D660" s="6"/>
       <c r="E660" s="6"/>
       <c r="F660" s="6"/>
@@ -12106,7 +12128,7 @@
       <c r="N660" s="6"/>
       <c r="O660" s="6"/>
     </row>
-    <row r="661" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="661" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D661" s="6"/>
       <c r="E661" s="6"/>
       <c r="F661" s="6"/>
@@ -12120,7 +12142,7 @@
       <c r="N661" s="6"/>
       <c r="O661" s="6"/>
     </row>
-    <row r="662" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="662" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D662" s="6"/>
       <c r="E662" s="6"/>
       <c r="F662" s="6"/>
@@ -12134,7 +12156,7 @@
       <c r="N662" s="6"/>
       <c r="O662" s="6"/>
     </row>
-    <row r="663" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="663" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D663" s="6"/>
       <c r="E663" s="6"/>
       <c r="F663" s="6"/>
@@ -12148,7 +12170,7 @@
       <c r="N663" s="6"/>
       <c r="O663" s="6"/>
     </row>
-    <row r="664" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="664" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D664" s="6"/>
       <c r="E664" s="6"/>
       <c r="F664" s="6"/>
@@ -12162,7 +12184,7 @@
       <c r="N664" s="6"/>
       <c r="O664" s="6"/>
     </row>
-    <row r="665" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="665" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D665" s="6"/>
       <c r="E665" s="6"/>
       <c r="F665" s="6"/>
@@ -12176,7 +12198,7 @@
       <c r="N665" s="6"/>
       <c r="O665" s="6"/>
     </row>
-    <row r="666" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="666" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D666" s="6"/>
       <c r="E666" s="6"/>
       <c r="F666" s="6"/>
@@ -12190,7 +12212,7 @@
       <c r="N666" s="6"/>
       <c r="O666" s="6"/>
     </row>
-    <row r="667" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="667" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D667" s="6"/>
       <c r="E667" s="6"/>
       <c r="F667" s="6"/>
@@ -12204,7 +12226,7 @@
       <c r="N667" s="6"/>
       <c r="O667" s="6"/>
     </row>
-    <row r="668" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="668" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D668" s="6"/>
       <c r="E668" s="6"/>
       <c r="F668" s="6"/>
@@ -12218,7 +12240,7 @@
       <c r="N668" s="6"/>
       <c r="O668" s="6"/>
     </row>
-    <row r="669" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="669" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D669" s="6"/>
       <c r="E669" s="6"/>
       <c r="F669" s="6"/>
@@ -12232,7 +12254,7 @@
       <c r="N669" s="6"/>
       <c r="O669" s="6"/>
     </row>
-    <row r="670" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="670" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D670" s="6"/>
       <c r="E670" s="6"/>
       <c r="F670" s="6"/>
@@ -12246,7 +12268,7 @@
       <c r="N670" s="6"/>
       <c r="O670" s="6"/>
     </row>
-    <row r="671" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="671" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D671" s="6"/>
       <c r="E671" s="6"/>
       <c r="F671" s="6"/>
@@ -12260,7 +12282,7 @@
       <c r="N671" s="6"/>
       <c r="O671" s="6"/>
     </row>
-    <row r="672" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="672" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D672" s="6"/>
       <c r="E672" s="6"/>
       <c r="F672" s="6"/>
@@ -12274,7 +12296,7 @@
       <c r="N672" s="6"/>
       <c r="O672" s="6"/>
     </row>
-    <row r="673" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="673" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D673" s="6"/>
       <c r="E673" s="6"/>
       <c r="F673" s="6"/>
@@ -12288,7 +12310,7 @@
       <c r="N673" s="6"/>
       <c r="O673" s="6"/>
     </row>
-    <row r="674" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="674" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D674" s="6"/>
       <c r="E674" s="6"/>
       <c r="F674" s="6"/>
@@ -12302,7 +12324,7 @@
       <c r="N674" s="6"/>
       <c r="O674" s="6"/>
     </row>
-    <row r="675" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="675" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D675" s="6"/>
       <c r="E675" s="6"/>
       <c r="F675" s="6"/>
@@ -12316,7 +12338,7 @@
       <c r="N675" s="6"/>
       <c r="O675" s="6"/>
     </row>
-    <row r="676" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="676" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D676" s="6"/>
       <c r="E676" s="6"/>
       <c r="F676" s="6"/>
@@ -12330,7 +12352,7 @@
       <c r="N676" s="6"/>
       <c r="O676" s="6"/>
     </row>
-    <row r="677" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="677" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D677" s="6"/>
       <c r="E677" s="6"/>
       <c r="F677" s="6"/>
@@ -12344,7 +12366,7 @@
       <c r="N677" s="6"/>
       <c r="O677" s="6"/>
     </row>
-    <row r="678" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="678" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D678" s="6"/>
       <c r="E678" s="6"/>
       <c r="F678" s="6"/>
@@ -12358,7 +12380,7 @@
       <c r="N678" s="6"/>
       <c r="O678" s="6"/>
     </row>
-    <row r="679" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="679" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D679" s="6"/>
       <c r="E679" s="6"/>
       <c r="F679" s="6"/>
@@ -12372,7 +12394,7 @@
       <c r="N679" s="6"/>
       <c r="O679" s="6"/>
     </row>
-    <row r="680" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="680" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D680" s="6"/>
       <c r="E680" s="6"/>
       <c r="F680" s="6"/>
@@ -12386,7 +12408,7 @@
       <c r="N680" s="6"/>
       <c r="O680" s="6"/>
     </row>
-    <row r="681" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="681" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D681" s="6"/>
       <c r="E681" s="6"/>
       <c r="F681" s="6"/>
@@ -12400,7 +12422,7 @@
       <c r="N681" s="6"/>
       <c r="O681" s="6"/>
     </row>
-    <row r="682" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="682" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D682" s="6"/>
       <c r="E682" s="6"/>
       <c r="F682" s="6"/>
@@ -12414,7 +12436,7 @@
       <c r="N682" s="6"/>
       <c r="O682" s="6"/>
     </row>
-    <row r="683" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="683" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D683" s="6"/>
       <c r="E683" s="6"/>
       <c r="F683" s="6"/>
@@ -12428,7 +12450,7 @@
       <c r="N683" s="6"/>
       <c r="O683" s="6"/>
     </row>
-    <row r="684" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="684" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D684" s="6"/>
       <c r="E684" s="6"/>
       <c r="F684" s="6"/>
@@ -12442,7 +12464,7 @@
       <c r="N684" s="6"/>
       <c r="O684" s="6"/>
     </row>
-    <row r="685" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="685" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D685" s="6"/>
       <c r="E685" s="6"/>
       <c r="F685" s="6"/>
@@ -12456,7 +12478,7 @@
       <c r="N685" s="6"/>
       <c r="O685" s="6"/>
     </row>
-    <row r="686" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="686" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D686" s="6"/>
       <c r="E686" s="6"/>
       <c r="F686" s="6"/>
@@ -12470,7 +12492,7 @@
       <c r="N686" s="6"/>
       <c r="O686" s="6"/>
     </row>
-    <row r="687" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="687" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D687" s="6"/>
       <c r="E687" s="6"/>
       <c r="F687" s="6"/>
@@ -12484,7 +12506,7 @@
       <c r="N687" s="6"/>
       <c r="O687" s="6"/>
     </row>
-    <row r="688" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="688" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D688" s="6"/>
       <c r="E688" s="6"/>
       <c r="F688" s="6"/>
@@ -12498,7 +12520,7 @@
       <c r="N688" s="6"/>
       <c r="O688" s="6"/>
     </row>
-    <row r="689" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="689" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D689" s="6"/>
       <c r="E689" s="6"/>
       <c r="F689" s="6"/>
@@ -12512,7 +12534,7 @@
       <c r="N689" s="6"/>
       <c r="O689" s="6"/>
     </row>
-    <row r="690" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="690" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D690" s="6"/>
       <c r="E690" s="6"/>
       <c r="F690" s="6"/>
@@ -12526,7 +12548,7 @@
       <c r="N690" s="6"/>
       <c r="O690" s="6"/>
     </row>
-    <row r="691" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="691" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D691" s="6"/>
       <c r="E691" s="6"/>
       <c r="F691" s="6"/>
@@ -12540,7 +12562,7 @@
       <c r="N691" s="6"/>
       <c r="O691" s="6"/>
     </row>
-    <row r="692" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="692" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D692" s="6"/>
       <c r="E692" s="6"/>
       <c r="F692" s="6"/>
@@ -12554,7 +12576,7 @@
       <c r="N692" s="6"/>
       <c r="O692" s="6"/>
     </row>
-    <row r="693" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="693" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D693" s="6"/>
       <c r="E693" s="6"/>
       <c r="F693" s="6"/>
@@ -12568,7 +12590,7 @@
       <c r="N693" s="6"/>
       <c r="O693" s="6"/>
     </row>
-    <row r="694" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="694" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D694" s="6"/>
       <c r="E694" s="6"/>
       <c r="F694" s="6"/>
@@ -12582,7 +12604,7 @@
       <c r="N694" s="6"/>
       <c r="O694" s="6"/>
     </row>
-    <row r="695" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="695" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D695" s="6"/>
       <c r="E695" s="6"/>
       <c r="F695" s="6"/>
@@ -12596,7 +12618,7 @@
       <c r="N695" s="6"/>
       <c r="O695" s="6"/>
     </row>
-    <row r="696" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="696" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D696" s="6"/>
       <c r="E696" s="6"/>
       <c r="F696" s="6"/>
@@ -12610,7 +12632,7 @@
       <c r="N696" s="6"/>
       <c r="O696" s="6"/>
     </row>
-    <row r="697" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="697" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D697" s="6"/>
       <c r="E697" s="6"/>
       <c r="F697" s="6"/>
@@ -12624,7 +12646,7 @@
       <c r="N697" s="6"/>
       <c r="O697" s="6"/>
     </row>
-    <row r="698" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="698" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D698" s="6"/>
       <c r="E698" s="6"/>
       <c r="F698" s="6"/>
@@ -12638,7 +12660,7 @@
       <c r="N698" s="6"/>
       <c r="O698" s="6"/>
     </row>
-    <row r="699" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="699" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D699" s="6"/>
       <c r="E699" s="6"/>
       <c r="F699" s="6"/>
@@ -12652,7 +12674,7 @@
       <c r="N699" s="6"/>
       <c r="O699" s="6"/>
     </row>
-    <row r="700" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="700" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D700" s="6"/>
       <c r="E700" s="6"/>
       <c r="F700" s="6"/>
@@ -12666,7 +12688,7 @@
       <c r="N700" s="6"/>
       <c r="O700" s="6"/>
     </row>
-    <row r="701" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="701" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D701" s="6"/>
       <c r="E701" s="6"/>
       <c r="F701" s="6"/>
@@ -12680,7 +12702,7 @@
       <c r="N701" s="6"/>
       <c r="O701" s="6"/>
     </row>
-    <row r="702" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="702" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D702" s="6"/>
       <c r="E702" s="6"/>
       <c r="F702" s="6"/>
@@ -12694,7 +12716,7 @@
       <c r="N702" s="6"/>
       <c r="O702" s="6"/>
     </row>
-    <row r="703" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="703" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D703" s="6"/>
       <c r="E703" s="6"/>
       <c r="F703" s="6"/>
@@ -12708,7 +12730,7 @@
       <c r="N703" s="6"/>
       <c r="O703" s="6"/>
     </row>
-    <row r="704" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="704" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D704" s="6"/>
       <c r="E704" s="6"/>
       <c r="F704" s="6"/>
@@ -12722,7 +12744,7 @@
       <c r="N704" s="6"/>
       <c r="O704" s="6"/>
     </row>
-    <row r="705" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="705" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D705" s="6"/>
       <c r="E705" s="6"/>
       <c r="F705" s="6"/>
@@ -12736,7 +12758,7 @@
       <c r="N705" s="6"/>
       <c r="O705" s="6"/>
     </row>
-    <row r="706" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="706" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D706" s="6"/>
       <c r="E706" s="6"/>
       <c r="F706" s="6"/>
@@ -12750,7 +12772,7 @@
       <c r="N706" s="6"/>
       <c r="O706" s="6"/>
     </row>
-    <row r="707" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="707" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D707" s="6"/>
       <c r="E707" s="6"/>
       <c r="F707" s="6"/>
@@ -12764,7 +12786,7 @@
       <c r="N707" s="6"/>
       <c r="O707" s="6"/>
     </row>
-    <row r="708" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="708" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D708" s="6"/>
       <c r="E708" s="6"/>
       <c r="F708" s="6"/>
@@ -12778,7 +12800,7 @@
       <c r="N708" s="6"/>
       <c r="O708" s="6"/>
     </row>
-    <row r="709" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="709" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D709" s="6"/>
       <c r="E709" s="6"/>
       <c r="F709" s="6"/>
@@ -12792,7 +12814,7 @@
       <c r="N709" s="6"/>
       <c r="O709" s="6"/>
     </row>
-    <row r="710" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="710" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D710" s="6"/>
       <c r="E710" s="6"/>
       <c r="F710" s="6"/>
@@ -12806,7 +12828,7 @@
       <c r="N710" s="6"/>
       <c r="O710" s="6"/>
     </row>
-    <row r="711" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="711" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D711" s="6"/>
       <c r="E711" s="6"/>
       <c r="F711" s="6"/>
@@ -12820,7 +12842,7 @@
       <c r="N711" s="6"/>
       <c r="O711" s="6"/>
     </row>
-    <row r="712" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="712" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D712" s="6"/>
       <c r="E712" s="6"/>
       <c r="F712" s="6"/>
@@ -12834,7 +12856,7 @@
       <c r="N712" s="6"/>
       <c r="O712" s="6"/>
     </row>
-    <row r="713" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="713" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D713" s="6"/>
       <c r="E713" s="6"/>
       <c r="F713" s="6"/>
@@ -12848,7 +12870,7 @@
       <c r="N713" s="6"/>
       <c r="O713" s="6"/>
     </row>
-    <row r="714" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="714" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D714" s="6"/>
       <c r="E714" s="6"/>
       <c r="F714" s="6"/>
@@ -12862,7 +12884,7 @@
       <c r="N714" s="6"/>
       <c r="O714" s="6"/>
     </row>
-    <row r="715" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="715" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D715" s="6"/>
       <c r="E715" s="6"/>
       <c r="F715" s="6"/>
@@ -12876,7 +12898,7 @@
       <c r="N715" s="6"/>
       <c r="O715" s="6"/>
     </row>
-    <row r="716" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="716" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D716" s="6"/>
       <c r="E716" s="6"/>
       <c r="F716" s="6"/>
@@ -12890,7 +12912,7 @@
       <c r="N716" s="6"/>
       <c r="O716" s="6"/>
     </row>
-    <row r="717" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="717" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D717" s="6"/>
       <c r="E717" s="6"/>
       <c r="F717" s="6"/>
@@ -12904,7 +12926,7 @@
       <c r="N717" s="6"/>
       <c r="O717" s="6"/>
     </row>
-    <row r="718" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="718" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D718" s="6"/>
       <c r="E718" s="6"/>
       <c r="F718" s="6"/>
@@ -12918,7 +12940,7 @@
       <c r="N718" s="6"/>
       <c r="O718" s="6"/>
     </row>
-    <row r="719" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="719" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D719" s="6"/>
       <c r="E719" s="6"/>
       <c r="F719" s="6"/>
@@ -12932,7 +12954,7 @@
       <c r="N719" s="6"/>
       <c r="O719" s="6"/>
     </row>
-    <row r="720" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="720" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D720" s="6"/>
       <c r="E720" s="6"/>
       <c r="F720" s="6"/>
@@ -12946,7 +12968,7 @@
       <c r="N720" s="6"/>
       <c r="O720" s="6"/>
     </row>
-    <row r="721" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="721" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D721" s="6"/>
       <c r="E721" s="6"/>
       <c r="F721" s="6"/>
@@ -12960,7 +12982,7 @@
       <c r="N721" s="6"/>
       <c r="O721" s="6"/>
     </row>
-    <row r="722" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="722" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D722" s="6"/>
       <c r="E722" s="6"/>
       <c r="F722" s="6"/>
@@ -12974,7 +12996,7 @@
       <c r="N722" s="6"/>
       <c r="O722" s="6"/>
     </row>
-    <row r="723" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="723" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D723" s="6"/>
       <c r="E723" s="6"/>
       <c r="F723" s="6"/>
@@ -12988,7 +13010,7 @@
       <c r="N723" s="6"/>
       <c r="O723" s="6"/>
     </row>
-    <row r="724" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="724" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D724" s="6"/>
       <c r="E724" s="6"/>
       <c r="F724" s="6"/>
@@ -13002,7 +13024,7 @@
       <c r="N724" s="6"/>
       <c r="O724" s="6"/>
     </row>
-    <row r="725" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="725" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D725" s="6"/>
       <c r="E725" s="6"/>
       <c r="F725" s="6"/>
@@ -13016,7 +13038,7 @@
       <c r="N725" s="6"/>
       <c r="O725" s="6"/>
     </row>
-    <row r="726" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="726" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D726" s="6"/>
       <c r="E726" s="6"/>
       <c r="F726" s="6"/>
@@ -13030,7 +13052,7 @@
       <c r="N726" s="6"/>
       <c r="O726" s="6"/>
     </row>
-    <row r="727" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="727" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D727" s="6"/>
       <c r="E727" s="6"/>
       <c r="F727" s="6"/>
@@ -13044,7 +13066,7 @@
       <c r="N727" s="6"/>
       <c r="O727" s="6"/>
     </row>
-    <row r="728" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="728" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D728" s="6"/>
       <c r="E728" s="6"/>
       <c r="F728" s="6"/>
@@ -13058,7 +13080,7 @@
       <c r="N728" s="6"/>
       <c r="O728" s="6"/>
     </row>
-    <row r="729" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="729" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D729" s="6"/>
       <c r="E729" s="6"/>
       <c r="F729" s="6"/>
@@ -13072,7 +13094,7 @@
       <c r="N729" s="6"/>
       <c r="O729" s="6"/>
     </row>
-    <row r="730" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="730" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D730" s="6"/>
       <c r="E730" s="6"/>
       <c r="F730" s="6"/>
@@ -13086,7 +13108,7 @@
       <c r="N730" s="6"/>
       <c r="O730" s="6"/>
     </row>
-    <row r="731" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="731" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D731" s="6"/>
       <c r="E731" s="6"/>
       <c r="F731" s="6"/>
@@ -13100,7 +13122,7 @@
       <c r="N731" s="6"/>
       <c r="O731" s="6"/>
     </row>
-    <row r="732" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="732" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D732" s="6"/>
       <c r="E732" s="6"/>
       <c r="F732" s="6"/>
@@ -13114,7 +13136,7 @@
       <c r="N732" s="6"/>
       <c r="O732" s="6"/>
     </row>
-    <row r="733" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="733" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D733" s="6"/>
       <c r="E733" s="6"/>
       <c r="F733" s="6"/>
@@ -13128,7 +13150,7 @@
       <c r="N733" s="6"/>
       <c r="O733" s="6"/>
     </row>
-    <row r="734" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="734" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D734" s="6"/>
       <c r="E734" s="6"/>
       <c r="F734" s="6"/>
@@ -13142,7 +13164,7 @@
       <c r="N734" s="6"/>
       <c r="O734" s="6"/>
     </row>
-    <row r="735" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="735" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D735" s="6"/>
       <c r="E735" s="6"/>
       <c r="F735" s="6"/>
@@ -13156,7 +13178,7 @@
       <c r="N735" s="6"/>
       <c r="O735" s="6"/>
     </row>
-    <row r="736" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="736" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D736" s="6"/>
       <c r="E736" s="6"/>
       <c r="F736" s="6"/>
@@ -13170,7 +13192,7 @@
       <c r="N736" s="6"/>
       <c r="O736" s="6"/>
     </row>
-    <row r="737" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="737" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D737" s="6"/>
       <c r="E737" s="6"/>
       <c r="F737" s="6"/>
@@ -13184,7 +13206,7 @@
       <c r="N737" s="6"/>
       <c r="O737" s="6"/>
     </row>
-    <row r="738" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="738" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D738" s="6"/>
       <c r="E738" s="6"/>
       <c r="F738" s="6"/>
@@ -13198,7 +13220,7 @@
       <c r="N738" s="6"/>
       <c r="O738" s="6"/>
     </row>
-    <row r="739" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="739" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D739" s="6"/>
       <c r="E739" s="6"/>
       <c r="F739" s="6"/>
@@ -13212,7 +13234,7 @@
       <c r="N739" s="6"/>
       <c r="O739" s="6"/>
     </row>
-    <row r="740" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="740" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D740" s="6"/>
       <c r="E740" s="6"/>
       <c r="F740" s="6"/>
@@ -13226,7 +13248,7 @@
       <c r="N740" s="6"/>
       <c r="O740" s="6"/>
     </row>
-    <row r="741" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="741" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D741" s="6"/>
       <c r="E741" s="6"/>
       <c r="F741" s="6"/>
@@ -13240,7 +13262,7 @@
       <c r="N741" s="6"/>
       <c r="O741" s="6"/>
     </row>
-    <row r="742" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="742" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D742" s="6"/>
       <c r="E742" s="6"/>
       <c r="F742" s="6"/>
@@ -13254,7 +13276,7 @@
       <c r="N742" s="6"/>
       <c r="O742" s="6"/>
     </row>
-    <row r="743" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="743" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D743" s="6"/>
       <c r="E743" s="6"/>
       <c r="F743" s="6"/>
@@ -13268,7 +13290,7 @@
       <c r="N743" s="6"/>
       <c r="O743" s="6"/>
     </row>
-    <row r="744" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="744" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D744" s="6"/>
       <c r="E744" s="6"/>
       <c r="F744" s="6"/>
@@ -13282,7 +13304,7 @@
       <c r="N744" s="6"/>
       <c r="O744" s="6"/>
     </row>
-    <row r="745" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="745" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D745" s="6"/>
       <c r="E745" s="6"/>
       <c r="F745" s="6"/>
@@ -13296,7 +13318,7 @@
       <c r="N745" s="6"/>
       <c r="O745" s="6"/>
     </row>
-    <row r="746" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="746" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D746" s="6"/>
       <c r="E746" s="6"/>
       <c r="F746" s="6"/>
@@ -13310,7 +13332,7 @@
       <c r="N746" s="6"/>
       <c r="O746" s="6"/>
     </row>
-    <row r="747" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="747" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D747" s="6"/>
       <c r="E747" s="6"/>
       <c r="F747" s="6"/>
@@ -13324,7 +13346,7 @@
       <c r="N747" s="6"/>
       <c r="O747" s="6"/>
     </row>
-    <row r="748" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="748" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D748" s="6"/>
       <c r="E748" s="6"/>
       <c r="F748" s="6"/>
@@ -13338,7 +13360,7 @@
       <c r="N748" s="6"/>
       <c r="O748" s="6"/>
     </row>
-    <row r="749" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="749" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D749" s="6"/>
       <c r="E749" s="6"/>
       <c r="F749" s="6"/>
@@ -13352,7 +13374,7 @@
       <c r="N749" s="6"/>
       <c r="O749" s="6"/>
     </row>
-    <row r="750" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="750" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D750" s="6"/>
       <c r="E750" s="6"/>
       <c r="F750" s="6"/>
@@ -13366,7 +13388,7 @@
       <c r="N750" s="6"/>
       <c r="O750" s="6"/>
     </row>
-    <row r="751" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="751" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D751" s="6"/>
       <c r="E751" s="6"/>
       <c r="F751" s="6"/>
@@ -13380,7 +13402,7 @@
       <c r="N751" s="6"/>
       <c r="O751" s="6"/>
     </row>
-    <row r="752" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="752" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D752" s="6"/>
       <c r="E752" s="6"/>
       <c r="F752" s="6"/>
@@ -13394,7 +13416,7 @@
       <c r="N752" s="6"/>
       <c r="O752" s="6"/>
     </row>
-    <row r="753" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="753" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D753" s="6"/>
       <c r="E753" s="6"/>
       <c r="F753" s="6"/>
@@ -13408,7 +13430,7 @@
       <c r="N753" s="6"/>
       <c r="O753" s="6"/>
     </row>
-    <row r="754" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="754" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D754" s="6"/>
       <c r="E754" s="6"/>
       <c r="F754" s="6"/>
@@ -13422,7 +13444,7 @@
       <c r="N754" s="6"/>
       <c r="O754" s="6"/>
     </row>
-    <row r="755" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="755" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D755" s="6"/>
       <c r="E755" s="6"/>
       <c r="F755" s="6"/>
@@ -13436,7 +13458,7 @@
       <c r="N755" s="6"/>
       <c r="O755" s="6"/>
     </row>
-    <row r="756" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="756" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D756" s="6"/>
       <c r="E756" s="6"/>
       <c r="F756" s="6"/>
@@ -13450,7 +13472,7 @@
       <c r="N756" s="6"/>
       <c r="O756" s="6"/>
     </row>
-    <row r="757" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="757" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D757" s="6"/>
       <c r="E757" s="6"/>
       <c r="F757" s="6"/>
@@ -13464,7 +13486,7 @@
       <c r="N757" s="6"/>
       <c r="O757" s="6"/>
     </row>
-    <row r="758" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="758" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D758" s="6"/>
       <c r="E758" s="6"/>
       <c r="F758" s="6"/>
@@ -13478,7 +13500,7 @@
       <c r="N758" s="6"/>
       <c r="O758" s="6"/>
     </row>
-    <row r="759" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="759" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D759" s="6"/>
       <c r="E759" s="6"/>
       <c r="F759" s="6"/>
@@ -13492,7 +13514,7 @@
       <c r="N759" s="6"/>
       <c r="O759" s="6"/>
     </row>
-    <row r="760" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="760" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D760" s="6"/>
       <c r="E760" s="6"/>
       <c r="F760" s="6"/>
@@ -13506,7 +13528,7 @@
       <c r="N760" s="6"/>
       <c r="O760" s="6"/>
     </row>
-    <row r="761" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="761" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D761" s="6"/>
       <c r="E761" s="6"/>
       <c r="F761" s="6"/>
@@ -13520,7 +13542,7 @@
       <c r="N761" s="6"/>
       <c r="O761" s="6"/>
     </row>
-    <row r="762" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="762" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D762" s="6"/>
       <c r="E762" s="6"/>
       <c r="F762" s="6"/>
@@ -13534,7 +13556,7 @@
       <c r="N762" s="6"/>
       <c r="O762" s="6"/>
     </row>
-    <row r="763" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="763" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D763" s="6"/>
       <c r="E763" s="6"/>
       <c r="F763" s="6"/>
@@ -13548,7 +13570,7 @@
       <c r="N763" s="6"/>
       <c r="O763" s="6"/>
     </row>
-    <row r="764" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="764" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D764" s="6"/>
       <c r="E764" s="6"/>
       <c r="F764" s="6"/>
@@ -13562,7 +13584,7 @@
       <c r="N764" s="6"/>
       <c r="O764" s="6"/>
     </row>
-    <row r="765" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="765" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D765" s="6"/>
       <c r="E765" s="6"/>
       <c r="F765" s="6"/>
@@ -13576,7 +13598,7 @@
       <c r="N765" s="6"/>
       <c r="O765" s="6"/>
     </row>
-    <row r="766" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="766" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D766" s="6"/>
       <c r="E766" s="6"/>
       <c r="F766" s="6"/>
@@ -13590,7 +13612,7 @@
       <c r="N766" s="6"/>
       <c r="O766" s="6"/>
     </row>
-    <row r="767" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="767" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D767" s="6"/>
       <c r="E767" s="6"/>
       <c r="F767" s="6"/>
@@ -13604,7 +13626,7 @@
       <c r="N767" s="6"/>
       <c r="O767" s="6"/>
     </row>
-    <row r="768" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="768" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D768" s="6"/>
       <c r="E768" s="6"/>
       <c r="F768" s="6"/>
@@ -13618,7 +13640,7 @@
       <c r="N768" s="6"/>
       <c r="O768" s="6"/>
     </row>
-    <row r="769" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="769" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D769" s="6"/>
       <c r="E769" s="6"/>
       <c r="F769" s="6"/>
@@ -13632,7 +13654,7 @@
       <c r="N769" s="6"/>
       <c r="O769" s="6"/>
     </row>
-    <row r="770" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="770" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D770" s="6"/>
       <c r="E770" s="6"/>
       <c r="F770" s="6"/>
@@ -13646,7 +13668,7 @@
       <c r="N770" s="6"/>
       <c r="O770" s="6"/>
     </row>
-    <row r="771" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="771" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D771" s="6"/>
       <c r="E771" s="6"/>
       <c r="F771" s="6"/>
@@ -13660,7 +13682,7 @@
       <c r="N771" s="6"/>
       <c r="O771" s="6"/>
     </row>
-    <row r="772" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="772" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D772" s="6"/>
       <c r="E772" s="6"/>
       <c r="F772" s="6"/>
@@ -13674,7 +13696,7 @@
       <c r="N772" s="6"/>
       <c r="O772" s="6"/>
     </row>
-    <row r="773" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="773" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D773" s="6"/>
       <c r="E773" s="6"/>
       <c r="F773" s="6"/>
@@ -13688,7 +13710,7 @@
       <c r="N773" s="6"/>
       <c r="O773" s="6"/>
     </row>
-    <row r="774" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="774" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D774" s="6"/>
       <c r="E774" s="6"/>
       <c r="F774" s="6"/>
@@ -13702,7 +13724,7 @@
       <c r="N774" s="6"/>
       <c r="O774" s="6"/>
     </row>
-    <row r="775" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="775" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D775" s="6"/>
       <c r="E775" s="6"/>
       <c r="F775" s="6"/>
@@ -13716,7 +13738,7 @@
       <c r="N775" s="6"/>
       <c r="O775" s="6"/>
     </row>
-    <row r="776" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="776" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D776" s="6"/>
       <c r="E776" s="6"/>
       <c r="F776" s="6"/>
@@ -13730,7 +13752,7 @@
       <c r="N776" s="6"/>
       <c r="O776" s="6"/>
     </row>
-    <row r="777" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="777" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D777" s="6"/>
       <c r="E777" s="6"/>
       <c r="F777" s="6"/>
@@ -13744,7 +13766,7 @@
       <c r="N777" s="6"/>
       <c r="O777" s="6"/>
     </row>
-    <row r="778" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="778" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D778" s="6"/>
       <c r="E778" s="6"/>
       <c r="F778" s="6"/>
@@ -13758,7 +13780,7 @@
       <c r="N778" s="6"/>
       <c r="O778" s="6"/>
     </row>
-    <row r="779" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="779" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D779" s="6"/>
       <c r="E779" s="6"/>
       <c r="F779" s="6"/>
@@ -13772,7 +13794,7 @@
       <c r="N779" s="6"/>
       <c r="O779" s="6"/>
     </row>
-    <row r="780" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="780" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D780" s="6"/>
       <c r="E780" s="6"/>
       <c r="F780" s="6"/>
@@ -13786,7 +13808,7 @@
       <c r="N780" s="6"/>
       <c r="O780" s="6"/>
     </row>
-    <row r="781" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="781" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D781" s="6"/>
       <c r="E781" s="6"/>
       <c r="F781" s="6"/>
@@ -13800,7 +13822,7 @@
       <c r="N781" s="6"/>
       <c r="O781" s="6"/>
     </row>
-    <row r="782" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="782" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D782" s="6"/>
       <c r="E782" s="6"/>
       <c r="F782" s="6"/>
@@ -13814,7 +13836,7 @@
       <c r="N782" s="6"/>
       <c r="O782" s="6"/>
     </row>
-    <row r="783" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="783" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D783" s="6"/>
       <c r="E783" s="6"/>
       <c r="F783" s="6"/>
@@ -13828,7 +13850,7 @@
       <c r="N783" s="6"/>
       <c r="O783" s="6"/>
     </row>
-    <row r="784" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="784" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D784" s="6"/>
       <c r="E784" s="6"/>
       <c r="F784" s="6"/>
@@ -13842,7 +13864,7 @@
       <c r="N784" s="6"/>
       <c r="O784" s="6"/>
     </row>
-    <row r="785" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="785" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D785" s="6"/>
       <c r="E785" s="6"/>
       <c r="F785" s="6"/>
@@ -13856,7 +13878,7 @@
       <c r="N785" s="6"/>
       <c r="O785" s="6"/>
     </row>
-    <row r="786" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="786" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D786" s="6"/>
       <c r="E786" s="6"/>
       <c r="F786" s="6"/>
@@ -13870,7 +13892,7 @@
       <c r="N786" s="6"/>
       <c r="O786" s="6"/>
     </row>
-    <row r="787" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="787" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D787" s="6"/>
       <c r="E787" s="6"/>
       <c r="F787" s="6"/>
@@ -13884,7 +13906,7 @@
       <c r="N787" s="6"/>
       <c r="O787" s="6"/>
     </row>
-    <row r="788" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="788" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D788" s="6"/>
       <c r="E788" s="6"/>
       <c r="F788" s="6"/>
@@ -13898,7 +13920,7 @@
       <c r="N788" s="6"/>
       <c r="O788" s="6"/>
     </row>
-    <row r="789" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="789" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D789" s="6"/>
       <c r="E789" s="6"/>
       <c r="F789" s="6"/>
@@ -13912,7 +13934,7 @@
       <c r="N789" s="6"/>
       <c r="O789" s="6"/>
     </row>
-    <row r="790" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="790" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D790" s="6"/>
       <c r="E790" s="6"/>
       <c r="F790" s="6"/>
@@ -13926,7 +13948,7 @@
       <c r="N790" s="6"/>
       <c r="O790" s="6"/>
     </row>
-    <row r="791" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="791" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D791" s="6"/>
       <c r="E791" s="6"/>
       <c r="F791" s="6"/>
@@ -13940,7 +13962,7 @@
       <c r="N791" s="6"/>
       <c r="O791" s="6"/>
     </row>
-    <row r="792" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="792" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D792" s="6"/>
       <c r="E792" s="6"/>
       <c r="F792" s="6"/>
@@ -13954,7 +13976,7 @@
       <c r="N792" s="6"/>
       <c r="O792" s="6"/>
     </row>
-    <row r="793" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="793" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D793" s="6"/>
       <c r="E793" s="6"/>
       <c r="F793" s="6"/>
@@ -13968,7 +13990,7 @@
       <c r="N793" s="6"/>
       <c r="O793" s="6"/>
     </row>
-    <row r="794" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="794" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D794" s="6"/>
       <c r="E794" s="6"/>
       <c r="F794" s="6"/>
@@ -13982,7 +14004,7 @@
       <c r="N794" s="6"/>
       <c r="O794" s="6"/>
     </row>
-    <row r="795" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="795" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D795" s="6"/>
       <c r="E795" s="6"/>
       <c r="F795" s="6"/>
@@ -13996,7 +14018,7 @@
       <c r="N795" s="6"/>
       <c r="O795" s="6"/>
     </row>
-    <row r="796" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="796" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D796" s="6"/>
       <c r="E796" s="6"/>
       <c r="F796" s="6"/>
@@ -14010,7 +14032,7 @@
       <c r="N796" s="6"/>
       <c r="O796" s="6"/>
     </row>
-    <row r="797" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="797" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D797" s="6"/>
       <c r="E797" s="6"/>
       <c r="F797" s="6"/>
@@ -14024,7 +14046,7 @@
       <c r="N797" s="6"/>
       <c r="O797" s="6"/>
     </row>
-    <row r="798" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="798" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D798" s="6"/>
       <c r="E798" s="6"/>
       <c r="F798" s="6"/>
@@ -14038,7 +14060,7 @@
       <c r="N798" s="6"/>
       <c r="O798" s="6"/>
     </row>
-    <row r="799" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="799" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D799" s="6"/>
       <c r="E799" s="6"/>
       <c r="F799" s="6"/>
@@ -14052,7 +14074,7 @@
       <c r="N799" s="6"/>
       <c r="O799" s="6"/>
     </row>
-    <row r="800" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="800" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D800" s="6"/>
       <c r="E800" s="6"/>
       <c r="F800" s="6"/>
@@ -14066,7 +14088,7 @@
       <c r="N800" s="6"/>
       <c r="O800" s="6"/>
     </row>
-    <row r="801" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="801" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D801" s="6"/>
       <c r="E801" s="6"/>
       <c r="F801" s="6"/>
@@ -14080,7 +14102,7 @@
       <c r="N801" s="6"/>
       <c r="O801" s="6"/>
     </row>
-    <row r="802" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="802" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D802" s="6"/>
       <c r="E802" s="6"/>
       <c r="F802" s="6"/>
@@ -14094,7 +14116,7 @@
       <c r="N802" s="6"/>
       <c r="O802" s="6"/>
     </row>
-    <row r="803" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="803" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D803" s="6"/>
       <c r="E803" s="6"/>
       <c r="F803" s="6"/>
@@ -14108,7 +14130,7 @@
       <c r="N803" s="6"/>
       <c r="O803" s="6"/>
     </row>
-    <row r="804" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="804" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D804" s="6"/>
       <c r="E804" s="6"/>
       <c r="F804" s="6"/>
@@ -14122,7 +14144,7 @@
       <c r="N804" s="6"/>
       <c r="O804" s="6"/>
     </row>
-    <row r="805" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="805" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D805" s="6"/>
       <c r="E805" s="6"/>
       <c r="F805" s="6"/>
@@ -14136,7 +14158,7 @@
       <c r="N805" s="6"/>
       <c r="O805" s="6"/>
     </row>
-    <row r="806" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="806" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D806" s="6"/>
       <c r="E806" s="6"/>
       <c r="F806" s="6"/>
@@ -14150,7 +14172,7 @@
       <c r="N806" s="6"/>
       <c r="O806" s="6"/>
     </row>
-    <row r="807" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="807" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D807" s="6"/>
       <c r="E807" s="6"/>
       <c r="F807" s="6"/>
@@ -14164,7 +14186,7 @@
       <c r="N807" s="6"/>
       <c r="O807" s="6"/>
     </row>
-    <row r="808" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="808" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D808" s="6"/>
       <c r="E808" s="6"/>
       <c r="F808" s="6"/>
@@ -14178,7 +14200,7 @@
       <c r="N808" s="6"/>
       <c r="O808" s="6"/>
     </row>
-    <row r="809" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="809" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D809" s="6"/>
       <c r="E809" s="6"/>
       <c r="F809" s="6"/>
@@ -14192,7 +14214,7 @@
       <c r="N809" s="6"/>
       <c r="O809" s="6"/>
     </row>
-    <row r="810" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="810" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D810" s="6"/>
       <c r="E810" s="6"/>
       <c r="F810" s="6"/>
@@ -14206,7 +14228,7 @@
       <c r="N810" s="6"/>
       <c r="O810" s="6"/>
     </row>
-    <row r="811" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="811" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D811" s="6"/>
       <c r="E811" s="6"/>
       <c r="F811" s="6"/>
@@ -14220,7 +14242,7 @@
       <c r="N811" s="6"/>
       <c r="O811" s="6"/>
     </row>
-    <row r="812" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="812" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D812" s="6"/>
       <c r="E812" s="6"/>
       <c r="F812" s="6"/>
@@ -14234,7 +14256,7 @@
       <c r="N812" s="6"/>
       <c r="O812" s="6"/>
     </row>
-    <row r="813" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="813" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D813" s="6"/>
       <c r="E813" s="6"/>
       <c r="F813" s="6"/>
@@ -14248,7 +14270,7 @@
       <c r="N813" s="6"/>
       <c r="O813" s="6"/>
     </row>
-    <row r="814" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="814" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D814" s="6"/>
       <c r="E814" s="6"/>
       <c r="F814" s="6"/>
@@ -14262,7 +14284,7 @@
       <c r="N814" s="6"/>
       <c r="O814" s="6"/>
     </row>
-    <row r="815" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="815" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D815" s="6"/>
       <c r="E815" s="6"/>
       <c r="F815" s="6"/>
@@ -14276,7 +14298,7 @@
       <c r="N815" s="6"/>
       <c r="O815" s="6"/>
     </row>
-    <row r="816" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="816" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D816" s="6"/>
       <c r="E816" s="6"/>
       <c r="F816" s="6"/>
@@ -14290,7 +14312,7 @@
       <c r="N816" s="6"/>
       <c r="O816" s="6"/>
     </row>
-    <row r="817" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="817" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D817" s="6"/>
       <c r="E817" s="6"/>
       <c r="F817" s="6"/>
@@ -14304,7 +14326,7 @@
       <c r="N817" s="6"/>
       <c r="O817" s="6"/>
     </row>
-    <row r="818" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="818" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D818" s="6"/>
       <c r="E818" s="6"/>
       <c r="F818" s="6"/>
@@ -14318,7 +14340,7 @@
       <c r="N818" s="6"/>
       <c r="O818" s="6"/>
     </row>
-    <row r="819" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="819" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D819" s="6"/>
       <c r="E819" s="6"/>
       <c r="F819" s="6"/>
@@ -14332,7 +14354,7 @@
       <c r="N819" s="6"/>
       <c r="O819" s="6"/>
     </row>
-    <row r="820" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="820" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D820" s="6"/>
       <c r="E820" s="6"/>
       <c r="F820" s="6"/>
@@ -14346,7 +14368,7 @@
       <c r="N820" s="6"/>
       <c r="O820" s="6"/>
     </row>
-    <row r="821" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="821" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D821" s="6"/>
       <c r="E821" s="6"/>
       <c r="F821" s="6"/>
@@ -14360,7 +14382,7 @@
       <c r="N821" s="6"/>
       <c r="O821" s="6"/>
     </row>
-    <row r="822" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="822" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D822" s="6"/>
       <c r="E822" s="6"/>
       <c r="F822" s="6"/>
@@ -14374,7 +14396,7 @@
       <c r="N822" s="6"/>
       <c r="O822" s="6"/>
     </row>
-    <row r="823" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="823" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D823" s="6"/>
       <c r="E823" s="6"/>
       <c r="F823" s="6"/>
@@ -14388,7 +14410,7 @@
       <c r="N823" s="6"/>
       <c r="O823" s="6"/>
     </row>
-    <row r="824" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="824" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D824" s="6"/>
       <c r="E824" s="6"/>
       <c r="F824" s="6"/>
@@ -14402,7 +14424,7 @@
       <c r="N824" s="6"/>
       <c r="O824" s="6"/>
     </row>
-    <row r="825" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="825" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D825" s="6"/>
       <c r="E825" s="6"/>
       <c r="F825" s="6"/>
@@ -14416,7 +14438,7 @@
       <c r="N825" s="6"/>
       <c r="O825" s="6"/>
     </row>
-    <row r="826" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="826" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D826" s="6"/>
       <c r="E826" s="6"/>
       <c r="F826" s="6"/>
@@ -14430,7 +14452,7 @@
       <c r="N826" s="6"/>
       <c r="O826" s="6"/>
     </row>
-    <row r="827" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="827" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D827" s="6"/>
       <c r="E827" s="6"/>
       <c r="F827" s="6"/>
@@ -14444,7 +14466,7 @@
       <c r="N827" s="6"/>
       <c r="O827" s="6"/>
     </row>
-    <row r="828" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="828" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D828" s="6"/>
       <c r="E828" s="6"/>
       <c r="F828" s="6"/>
@@ -14458,7 +14480,7 @@
       <c r="N828" s="6"/>
       <c r="O828" s="6"/>
     </row>
-    <row r="829" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="829" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D829" s="6"/>
       <c r="E829" s="6"/>
       <c r="F829" s="6"/>
@@ -14472,7 +14494,7 @@
       <c r="N829" s="6"/>
       <c r="O829" s="6"/>
     </row>
-    <row r="830" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="830" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D830" s="6"/>
       <c r="E830" s="6"/>
       <c r="F830" s="6"/>
@@ -14486,7 +14508,7 @@
       <c r="N830" s="6"/>
       <c r="O830" s="6"/>
     </row>
-    <row r="831" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="831" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D831" s="6"/>
       <c r="E831" s="6"/>
       <c r="F831" s="6"/>
@@ -14500,7 +14522,7 @@
       <c r="N831" s="6"/>
       <c r="O831" s="6"/>
     </row>
-    <row r="832" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="832" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D832" s="6"/>
       <c r="E832" s="6"/>
       <c r="F832" s="6"/>
@@ -14514,7 +14536,7 @@
       <c r="N832" s="6"/>
       <c r="O832" s="6"/>
     </row>
-    <row r="833" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="833" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D833" s="6"/>
       <c r="E833" s="6"/>
       <c r="F833" s="6"/>
@@ -14528,7 +14550,7 @@
       <c r="N833" s="6"/>
       <c r="O833" s="6"/>
     </row>
-    <row r="834" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="834" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D834" s="6"/>
       <c r="E834" s="6"/>
       <c r="F834" s="6"/>
@@ -14542,7 +14564,7 @@
       <c r="N834" s="6"/>
       <c r="O834" s="6"/>
     </row>
-    <row r="835" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="835" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D835" s="6"/>
       <c r="E835" s="6"/>
       <c r="F835" s="6"/>
@@ -14556,7 +14578,7 @@
       <c r="N835" s="6"/>
       <c r="O835" s="6"/>
     </row>
-    <row r="836" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="836" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D836" s="6"/>
       <c r="E836" s="6"/>
       <c r="F836" s="6"/>
@@ -14570,7 +14592,7 @@
       <c r="N836" s="6"/>
       <c r="O836" s="6"/>
     </row>
-    <row r="837" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="837" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D837" s="6"/>
       <c r="E837" s="6"/>
       <c r="F837" s="6"/>
@@ -14584,7 +14606,7 @@
       <c r="N837" s="6"/>
       <c r="O837" s="6"/>
     </row>
-    <row r="838" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="838" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D838" s="6"/>
       <c r="E838" s="6"/>
       <c r="F838" s="6"/>
@@ -14598,7 +14620,7 @@
       <c r="N838" s="6"/>
       <c r="O838" s="6"/>
     </row>
-    <row r="839" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="839" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D839" s="6"/>
       <c r="E839" s="6"/>
       <c r="F839" s="6"/>
@@ -14612,7 +14634,7 @@
       <c r="N839" s="6"/>
       <c r="O839" s="6"/>
     </row>
-    <row r="840" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="840" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D840" s="6"/>
       <c r="E840" s="6"/>
       <c r="F840" s="6"/>
@@ -14626,7 +14648,7 @@
       <c r="N840" s="6"/>
       <c r="O840" s="6"/>
     </row>
-    <row r="841" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="841" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D841" s="6"/>
       <c r="E841" s="6"/>
       <c r="F841" s="6"/>
@@ -14640,7 +14662,7 @@
       <c r="N841" s="6"/>
       <c r="O841" s="6"/>
     </row>
-    <row r="842" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="842" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D842" s="6"/>
       <c r="E842" s="6"/>
       <c r="F842" s="6"/>
@@ -14654,7 +14676,7 @@
       <c r="N842" s="6"/>
       <c r="O842" s="6"/>
     </row>
-    <row r="843" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="843" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D843" s="6"/>
       <c r="E843" s="6"/>
       <c r="F843" s="6"/>
@@ -14668,7 +14690,7 @@
       <c r="N843" s="6"/>
       <c r="O843" s="6"/>
     </row>
-    <row r="844" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="844" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D844" s="6"/>
       <c r="E844" s="6"/>
       <c r="F844" s="6"/>
@@ -14682,7 +14704,7 @@
       <c r="N844" s="6"/>
       <c r="O844" s="6"/>
     </row>
-    <row r="845" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="845" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D845" s="6"/>
       <c r="E845" s="6"/>
       <c r="F845" s="6"/>
@@ -14696,7 +14718,7 @@
       <c r="N845" s="6"/>
       <c r="O845" s="6"/>
     </row>
-    <row r="846" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="846" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D846" s="6"/>
       <c r="E846" s="6"/>
       <c r="F846" s="6"/>
@@ -14710,7 +14732,7 @@
       <c r="N846" s="6"/>
       <c r="O846" s="6"/>
     </row>
-    <row r="847" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="847" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D847" s="6"/>
       <c r="E847" s="6"/>
       <c r="F847" s="6"/>
@@ -14724,7 +14746,7 @@
       <c r="N847" s="6"/>
       <c r="O847" s="6"/>
     </row>
-    <row r="848" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="848" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D848" s="6"/>
       <c r="E848" s="6"/>
       <c r="F848" s="6"/>
@@ -14738,7 +14760,7 @@
       <c r="N848" s="6"/>
       <c r="O848" s="6"/>
     </row>
-    <row r="849" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="849" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D849" s="6"/>
       <c r="E849" s="6"/>
       <c r="F849" s="6"/>
@@ -14752,7 +14774,7 @@
       <c r="N849" s="6"/>
       <c r="O849" s="6"/>
     </row>
-    <row r="850" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="850" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D850" s="6"/>
       <c r="E850" s="6"/>
       <c r="F850" s="6"/>
@@ -14766,7 +14788,7 @@
       <c r="N850" s="6"/>
       <c r="O850" s="6"/>
     </row>
-    <row r="851" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="851" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D851" s="6"/>
       <c r="E851" s="6"/>
       <c r="F851" s="6"/>
@@ -14780,7 +14802,7 @@
       <c r="N851" s="6"/>
       <c r="O851" s="6"/>
     </row>
-    <row r="852" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="852" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D852" s="6"/>
       <c r="E852" s="6"/>
       <c r="F852" s="6"/>
@@ -14794,7 +14816,7 @@
       <c r="N852" s="6"/>
       <c r="O852" s="6"/>
     </row>
-    <row r="853" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="853" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D853" s="6"/>
       <c r="E853" s="6"/>
       <c r="F853" s="6"/>
@@ -14808,7 +14830,7 @@
       <c r="N853" s="6"/>
       <c r="O853" s="6"/>
     </row>
-    <row r="854" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="854" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D854" s="6"/>
       <c r="E854" s="6"/>
       <c r="F854" s="6"/>
@@ -14822,7 +14844,7 @@
       <c r="N854" s="6"/>
       <c r="O854" s="6"/>
     </row>
-    <row r="855" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="855" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D855" s="6"/>
       <c r="E855" s="6"/>
       <c r="F855" s="6"/>
@@ -14836,7 +14858,7 @@
       <c r="N855" s="6"/>
       <c r="O855" s="6"/>
     </row>
-    <row r="856" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="856" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D856" s="6"/>
       <c r="E856" s="6"/>
       <c r="F856" s="6"/>
@@ -14850,7 +14872,7 @@
       <c r="N856" s="6"/>
       <c r="O856" s="6"/>
     </row>
-    <row r="857" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="857" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D857" s="6"/>
       <c r="E857" s="6"/>
       <c r="F857" s="6"/>
@@ -14864,7 +14886,7 @@
       <c r="N857" s="6"/>
       <c r="O857" s="6"/>
     </row>
-    <row r="858" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="858" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D858" s="6"/>
       <c r="E858" s="6"/>
       <c r="F858" s="6"/>
@@ -14878,7 +14900,7 @@
       <c r="N858" s="6"/>
       <c r="O858" s="6"/>
     </row>
-    <row r="859" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="859" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D859" s="6"/>
       <c r="E859" s="6"/>
       <c r="F859" s="6"/>
@@ -14892,7 +14914,7 @@
       <c r="N859" s="6"/>
       <c r="O859" s="6"/>
     </row>
-    <row r="860" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="860" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D860" s="6"/>
       <c r="E860" s="6"/>
       <c r="F860" s="6"/>
@@ -14906,7 +14928,7 @@
       <c r="N860" s="6"/>
       <c r="O860" s="6"/>
     </row>
-    <row r="861" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="861" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D861" s="6"/>
       <c r="E861" s="6"/>
       <c r="F861" s="6"/>
@@ -14920,7 +14942,7 @@
       <c r="N861" s="6"/>
       <c r="O861" s="6"/>
     </row>
-    <row r="862" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="862" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D862" s="6"/>
       <c r="E862" s="6"/>
       <c r="F862" s="6"/>
@@ -14934,7 +14956,7 @@
       <c r="N862" s="6"/>
       <c r="O862" s="6"/>
     </row>
-    <row r="863" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="863" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D863" s="6"/>
       <c r="E863" s="6"/>
       <c r="F863" s="6"/>
@@ -14948,7 +14970,7 @@
       <c r="N863" s="6"/>
       <c r="O863" s="6"/>
     </row>
-    <row r="864" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="864" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D864" s="6"/>
       <c r="E864" s="6"/>
       <c r="F864" s="6"/>
@@ -14962,7 +14984,7 @@
       <c r="N864" s="6"/>
       <c r="O864" s="6"/>
     </row>
-    <row r="865" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="865" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D865" s="6"/>
       <c r="E865" s="6"/>
       <c r="F865" s="6"/>
@@ -14976,7 +14998,7 @@
       <c r="N865" s="6"/>
       <c r="O865" s="6"/>
     </row>
-    <row r="866" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="866" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D866" s="6"/>
       <c r="E866" s="6"/>
       <c r="F866" s="6"/>
@@ -14990,7 +15012,7 @@
       <c r="N866" s="6"/>
       <c r="O866" s="6"/>
     </row>
-    <row r="867" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="867" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D867" s="6"/>
       <c r="E867" s="6"/>
       <c r="F867" s="6"/>
@@ -15004,7 +15026,7 @@
       <c r="N867" s="6"/>
       <c r="O867" s="6"/>
     </row>
-    <row r="868" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="868" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D868" s="6"/>
       <c r="E868" s="6"/>
       <c r="F868" s="6"/>
@@ -15018,7 +15040,7 @@
       <c r="N868" s="6"/>
       <c r="O868" s="6"/>
     </row>
-    <row r="869" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="869" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D869" s="6"/>
       <c r="E869" s="6"/>
       <c r="F869" s="6"/>
@@ -15032,7 +15054,7 @@
       <c r="N869" s="6"/>
       <c r="O869" s="6"/>
     </row>
-    <row r="870" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="870" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D870" s="6"/>
       <c r="E870" s="6"/>
       <c r="F870" s="6"/>
@@ -15046,7 +15068,7 @@
       <c r="N870" s="6"/>
       <c r="O870" s="6"/>
     </row>
-    <row r="871" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="871" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D871" s="6"/>
       <c r="E871" s="6"/>
       <c r="F871" s="6"/>
@@ -15060,7 +15082,7 @@
       <c r="N871" s="6"/>
       <c r="O871" s="6"/>
     </row>
-    <row r="872" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="872" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D872" s="6"/>
       <c r="E872" s="6"/>
       <c r="F872" s="6"/>
@@ -15074,7 +15096,7 @@
       <c r="N872" s="6"/>
       <c r="O872" s="6"/>
     </row>
-    <row r="873" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="873" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D873" s="6"/>
       <c r="E873" s="6"/>
       <c r="F873" s="6"/>
@@ -15088,7 +15110,7 @@
       <c r="N873" s="6"/>
       <c r="O873" s="6"/>
     </row>
-    <row r="874" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="874" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D874" s="6"/>
       <c r="E874" s="6"/>
       <c r="F874" s="6"/>
@@ -15102,7 +15124,7 @@
       <c r="N874" s="6"/>
       <c r="O874" s="6"/>
     </row>
-    <row r="875" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="875" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D875" s="6"/>
       <c r="E875" s="6"/>
       <c r="F875" s="6"/>
@@ -15116,7 +15138,7 @@
       <c r="N875" s="6"/>
       <c r="O875" s="6"/>
     </row>
-    <row r="876" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="876" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D876" s="6"/>
       <c r="E876" s="6"/>
       <c r="F876" s="6"/>
@@ -15130,7 +15152,7 @@
       <c r="N876" s="6"/>
       <c r="O876" s="6"/>
     </row>
-    <row r="877" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="877" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D877" s="6"/>
       <c r="E877" s="6"/>
       <c r="F877" s="6"/>
@@ -15144,7 +15166,7 @@
       <c r="N877" s="6"/>
       <c r="O877" s="6"/>
     </row>
-    <row r="878" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="878" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D878" s="6"/>
       <c r="E878" s="6"/>
       <c r="F878" s="6"/>
@@ -15158,7 +15180,7 @@
       <c r="N878" s="6"/>
       <c r="O878" s="6"/>
     </row>
-    <row r="879" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="879" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D879" s="6"/>
       <c r="E879" s="6"/>
       <c r="F879" s="6"/>
@@ -15172,7 +15194,7 @@
       <c r="N879" s="6"/>
       <c r="O879" s="6"/>
     </row>
-    <row r="880" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="880" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D880" s="6"/>
       <c r="E880" s="6"/>
       <c r="F880" s="6"/>
@@ -15186,7 +15208,7 @@
       <c r="N880" s="6"/>
       <c r="O880" s="6"/>
     </row>
-    <row r="881" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="881" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D881" s="6"/>
       <c r="E881" s="6"/>
       <c r="F881" s="6"/>
@@ -15200,7 +15222,7 @@
       <c r="N881" s="6"/>
       <c r="O881" s="6"/>
     </row>
-    <row r="882" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="882" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D882" s="6"/>
       <c r="E882" s="6"/>
       <c r="F882" s="6"/>
@@ -15214,7 +15236,7 @@
       <c r="N882" s="6"/>
       <c r="O882" s="6"/>
     </row>
-    <row r="883" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="883" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D883" s="6"/>
       <c r="E883" s="6"/>
       <c r="F883" s="6"/>
@@ -15228,7 +15250,7 @@
       <c r="N883" s="6"/>
       <c r="O883" s="6"/>
     </row>
-    <row r="884" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="884" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D884" s="6"/>
       <c r="E884" s="6"/>
       <c r="F884" s="6"/>
@@ -15242,7 +15264,7 @@
       <c r="N884" s="6"/>
       <c r="O884" s="6"/>
     </row>
-    <row r="885" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="885" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D885" s="6"/>
       <c r="E885" s="6"/>
       <c r="F885" s="6"/>
@@ -15256,7 +15278,7 @@
       <c r="N885" s="6"/>
       <c r="O885" s="6"/>
     </row>
-    <row r="886" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="886" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D886" s="6"/>
       <c r="E886" s="6"/>
       <c r="F886" s="6"/>
@@ -15270,7 +15292,7 @@
       <c r="N886" s="6"/>
       <c r="O886" s="6"/>
     </row>
-    <row r="887" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="887" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D887" s="6"/>
       <c r="E887" s="6"/>
       <c r="F887" s="6"/>
@@ -15284,7 +15306,7 @@
       <c r="N887" s="6"/>
       <c r="O887" s="6"/>
     </row>
-    <row r="888" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="888" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D888" s="6"/>
       <c r="E888" s="6"/>
       <c r="F888" s="6"/>
@@ -15298,7 +15320,7 @@
       <c r="N888" s="6"/>
       <c r="O888" s="6"/>
     </row>
-    <row r="889" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="889" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D889" s="6"/>
       <c r="E889" s="6"/>
       <c r="F889" s="6"/>
@@ -15312,7 +15334,7 @@
       <c r="N889" s="6"/>
       <c r="O889" s="6"/>
     </row>
-    <row r="890" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="890" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D890" s="6"/>
       <c r="E890" s="6"/>
       <c r="F890" s="6"/>
@@ -15326,7 +15348,7 @@
       <c r="N890" s="6"/>
       <c r="O890" s="6"/>
     </row>
-    <row r="891" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="891" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D891" s="6"/>
       <c r="E891" s="6"/>
       <c r="F891" s="6"/>
@@ -15340,7 +15362,7 @@
       <c r="N891" s="6"/>
       <c r="O891" s="6"/>
     </row>
-    <row r="892" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="892" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D892" s="6"/>
       <c r="E892" s="6"/>
       <c r="F892" s="6"/>
@@ -15354,7 +15376,7 @@
       <c r="N892" s="6"/>
       <c r="O892" s="6"/>
     </row>
-    <row r="893" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="893" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D893" s="6"/>
       <c r="E893" s="6"/>
       <c r="F893" s="6"/>
@@ -15368,7 +15390,7 @@
       <c r="N893" s="6"/>
       <c r="O893" s="6"/>
     </row>
-    <row r="894" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="894" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D894" s="6"/>
       <c r="E894" s="6"/>
       <c r="F894" s="6"/>
@@ -15382,7 +15404,7 @@
       <c r="N894" s="6"/>
       <c r="O894" s="6"/>
     </row>
-    <row r="895" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="895" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D895" s="6"/>
       <c r="E895" s="6"/>
       <c r="F895" s="6"/>
@@ -15396,7 +15418,7 @@
       <c r="N895" s="6"/>
       <c r="O895" s="6"/>
     </row>
-    <row r="896" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="896" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D896" s="6"/>
       <c r="E896" s="6"/>
       <c r="F896" s="6"/>
@@ -15410,7 +15432,7 @@
       <c r="N896" s="6"/>
       <c r="O896" s="6"/>
     </row>
-    <row r="897" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="897" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D897" s="6"/>
       <c r="E897" s="6"/>
       <c r="F897" s="6"/>
@@ -15424,7 +15446,7 @@
       <c r="N897" s="6"/>
       <c r="O897" s="6"/>
     </row>
-    <row r="898" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="898" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D898" s="6"/>
       <c r="E898" s="6"/>
       <c r="F898" s="6"/>
@@ -15438,7 +15460,7 @@
       <c r="N898" s="6"/>
       <c r="O898" s="6"/>
     </row>
-    <row r="899" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="899" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D899" s="6"/>
       <c r="E899" s="6"/>
       <c r="F899" s="6"/>
@@ -15452,7 +15474,7 @@
       <c r="N899" s="6"/>
       <c r="O899" s="6"/>
     </row>
-    <row r="900" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="900" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D900" s="6"/>
       <c r="E900" s="6"/>
       <c r="F900" s="6"/>
@@ -15466,7 +15488,7 @@
       <c r="N900" s="6"/>
       <c r="O900" s="6"/>
     </row>
-    <row r="901" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="901" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D901" s="6"/>
       <c r="E901" s="6"/>
       <c r="F901" s="6"/>
@@ -15480,7 +15502,7 @@
       <c r="N901" s="6"/>
       <c r="O901" s="6"/>
     </row>
-    <row r="902" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="902" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D902" s="6"/>
       <c r="E902" s="6"/>
       <c r="F902" s="6"/>
@@ -15494,7 +15516,7 @@
       <c r="N902" s="6"/>
       <c r="O902" s="6"/>
     </row>
-    <row r="903" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="903" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D903" s="6"/>
       <c r="E903" s="6"/>
       <c r="F903" s="6"/>
@@ -15508,7 +15530,7 @@
       <c r="N903" s="6"/>
       <c r="O903" s="6"/>
     </row>
-    <row r="904" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="904" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D904" s="6"/>
       <c r="E904" s="6"/>
       <c r="F904" s="6"/>
@@ -15522,7 +15544,7 @@
       <c r="N904" s="6"/>
       <c r="O904" s="6"/>
     </row>
-    <row r="905" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="905" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D905" s="6"/>
       <c r="E905" s="6"/>
       <c r="F905" s="6"/>
@@ -15536,7 +15558,7 @@
       <c r="N905" s="6"/>
       <c r="O905" s="6"/>
     </row>
-    <row r="906" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="906" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D906" s="6"/>
       <c r="E906" s="6"/>
       <c r="F906" s="6"/>
@@ -15550,7 +15572,7 @@
       <c r="N906" s="6"/>
       <c r="O906" s="6"/>
     </row>
-    <row r="907" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="907" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D907" s="6"/>
       <c r="E907" s="6"/>
       <c r="F907" s="6"/>
@@ -15564,7 +15586,7 @@
       <c r="N907" s="6"/>
       <c r="O907" s="6"/>
     </row>
-    <row r="908" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="908" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D908" s="6"/>
       <c r="E908" s="6"/>
       <c r="F908" s="6"/>
@@ -15578,7 +15600,7 @@
       <c r="N908" s="6"/>
       <c r="O908" s="6"/>
     </row>
-    <row r="909" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="909" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D909" s="6"/>
       <c r="E909" s="6"/>
       <c r="F909" s="6"/>
@@ -15592,7 +15614,7 @@
       <c r="N909" s="6"/>
       <c r="O909" s="6"/>
     </row>
-    <row r="910" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="910" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D910" s="6"/>
       <c r="E910" s="6"/>
       <c r="F910" s="6"/>
@@ -15606,7 +15628,7 @@
       <c r="N910" s="6"/>
       <c r="O910" s="6"/>
     </row>
-    <row r="911" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="911" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D911" s="6"/>
       <c r="E911" s="6"/>
       <c r="F911" s="6"/>
@@ -15620,7 +15642,7 @@
       <c r="N911" s="6"/>
       <c r="O911" s="6"/>
     </row>
-    <row r="912" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="912" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D912" s="6"/>
       <c r="E912" s="6"/>
       <c r="F912" s="6"/>
@@ -15634,7 +15656,7 @@
       <c r="N912" s="6"/>
       <c r="O912" s="6"/>
     </row>
-    <row r="913" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="913" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D913" s="6"/>
       <c r="E913" s="6"/>
       <c r="F913" s="6"/>
@@ -15648,7 +15670,7 @@
       <c r="N913" s="6"/>
       <c r="O913" s="6"/>
     </row>
-    <row r="914" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="914" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D914" s="6"/>
       <c r="E914" s="6"/>
       <c r="F914" s="6"/>
@@ -15662,7 +15684,7 @@
       <c r="N914" s="6"/>
       <c r="O914" s="6"/>
     </row>
-    <row r="915" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="915" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D915" s="6"/>
       <c r="E915" s="6"/>
       <c r="F915" s="6"/>
@@ -15676,7 +15698,7 @@
       <c r="N915" s="6"/>
       <c r="O915" s="6"/>
     </row>
-    <row r="916" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="916" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D916" s="6"/>
       <c r="E916" s="6"/>
       <c r="F916" s="6"/>
@@ -15690,7 +15712,7 @@
       <c r="N916" s="6"/>
       <c r="O916" s="6"/>
     </row>
-    <row r="917" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="917" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D917" s="6"/>
       <c r="E917" s="6"/>
       <c r="F917" s="6"/>
@@ -15704,7 +15726,7 @@
       <c r="N917" s="6"/>
       <c r="O917" s="6"/>
     </row>
-    <row r="918" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="918" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D918" s="6"/>
       <c r="E918" s="6"/>
       <c r="F918" s="6"/>
@@ -15718,7 +15740,7 @@
       <c r="N918" s="6"/>
       <c r="O918" s="6"/>
     </row>
-    <row r="919" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="919" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D919" s="6"/>
       <c r="E919" s="6"/>
       <c r="F919" s="6"/>
@@ -15732,7 +15754,7 @@
       <c r="N919" s="6"/>
       <c r="O919" s="6"/>
     </row>
-    <row r="920" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="920" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D920" s="6"/>
       <c r="E920" s="6"/>
       <c r="F920" s="6"/>
@@ -15746,7 +15768,7 @@
       <c r="N920" s="6"/>
       <c r="O920" s="6"/>
     </row>
-    <row r="921" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="921" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D921" s="6"/>
       <c r="E921" s="6"/>
       <c r="F921" s="6"/>
@@ -15760,7 +15782,7 @@
       <c r="N921" s="6"/>
       <c r="O921" s="6"/>
     </row>
-    <row r="922" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="922" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D922" s="6"/>
       <c r="E922" s="6"/>
       <c r="F922" s="6"/>
@@ -15774,7 +15796,7 @@
       <c r="N922" s="6"/>
       <c r="O922" s="6"/>
     </row>
-    <row r="923" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="923" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D923" s="6"/>
       <c r="E923" s="6"/>
       <c r="F923" s="6"/>
@@ -15788,7 +15810,7 @@
       <c r="N923" s="6"/>
       <c r="O923" s="6"/>
     </row>
-    <row r="924" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="924" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D924" s="6"/>
       <c r="E924" s="6"/>
       <c r="F924" s="6"/>
@@ -15802,7 +15824,7 @@
       <c r="N924" s="6"/>
       <c r="O924" s="6"/>
     </row>
-    <row r="925" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="925" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D925" s="6"/>
       <c r="E925" s="6"/>
       <c r="F925" s="6"/>
@@ -15816,7 +15838,7 @@
       <c r="N925" s="6"/>
       <c r="O925" s="6"/>
     </row>
-    <row r="926" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="926" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D926" s="6"/>
       <c r="E926" s="6"/>
       <c r="F926" s="6"/>
@@ -15830,7 +15852,7 @@
       <c r="N926" s="6"/>
       <c r="O926" s="6"/>
     </row>
-    <row r="927" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="927" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D927" s="6"/>
       <c r="E927" s="6"/>
       <c r="F927" s="6"/>
@@ -15844,7 +15866,7 @@
       <c r="N927" s="6"/>
       <c r="O927" s="6"/>
     </row>
-    <row r="928" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="928" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D928" s="6"/>
       <c r="E928" s="6"/>
       <c r="F928" s="6"/>
@@ -15858,7 +15880,7 @@
       <c r="N928" s="6"/>
       <c r="O928" s="6"/>
     </row>
-    <row r="929" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="929" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D929" s="6"/>
       <c r="E929" s="6"/>
       <c r="F929" s="6"/>
@@ -15872,7 +15894,7 @@
       <c r="N929" s="6"/>
       <c r="O929" s="6"/>
     </row>
-    <row r="930" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="930" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D930" s="6"/>
       <c r="E930" s="6"/>
       <c r="F930" s="6"/>
@@ -15886,7 +15908,7 @@
       <c r="N930" s="6"/>
       <c r="O930" s="6"/>
     </row>
-    <row r="931" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="931" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D931" s="6"/>
       <c r="E931" s="6"/>
       <c r="F931" s="6"/>
@@ -15900,7 +15922,7 @@
       <c r="N931" s="6"/>
       <c r="O931" s="6"/>
     </row>
-    <row r="932" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="932" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D932" s="6"/>
       <c r="E932" s="6"/>
       <c r="F932" s="6"/>
@@ -15914,7 +15936,7 @@
       <c r="N932" s="6"/>
       <c r="O932" s="6"/>
     </row>
-    <row r="933" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="933" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D933" s="6"/>
       <c r="E933" s="6"/>
       <c r="F933" s="6"/>
@@ -15928,7 +15950,7 @@
       <c r="N933" s="6"/>
       <c r="O933" s="6"/>
     </row>
-    <row r="934" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="934" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D934" s="6"/>
       <c r="E934" s="6"/>
       <c r="F934" s="6"/>
@@ -15942,7 +15964,7 @@
       <c r="N934" s="6"/>
       <c r="O934" s="6"/>
     </row>
-    <row r="935" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="935" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D935" s="6"/>
       <c r="E935" s="6"/>
       <c r="F935" s="6"/>
@@ -15956,7 +15978,7 @@
       <c r="N935" s="6"/>
       <c r="O935" s="6"/>
     </row>
-    <row r="936" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="936" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D936" s="6"/>
       <c r="E936" s="6"/>
       <c r="F936" s="6"/>
@@ -15970,7 +15992,7 @@
       <c r="N936" s="6"/>
       <c r="O936" s="6"/>
     </row>
-    <row r="937" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="937" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D937" s="6"/>
       <c r="E937" s="6"/>
       <c r="F937" s="6"/>
@@ -15984,7 +16006,7 @@
       <c r="N937" s="6"/>
       <c r="O937" s="6"/>
     </row>
-    <row r="938" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="938" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D938" s="6"/>
       <c r="E938" s="6"/>
       <c r="F938" s="6"/>
@@ -15998,7 +16020,7 @@
       <c r="N938" s="6"/>
       <c r="O938" s="6"/>
     </row>
-    <row r="939" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="939" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D939" s="6"/>
       <c r="E939" s="6"/>
       <c r="F939" s="6"/>
@@ -16012,7 +16034,7 @@
       <c r="N939" s="6"/>
       <c r="O939" s="6"/>
     </row>
-    <row r="940" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="940" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D940" s="6"/>
       <c r="E940" s="6"/>
       <c r="F940" s="6"/>
@@ -16026,7 +16048,7 @@
       <c r="N940" s="6"/>
       <c r="O940" s="6"/>
     </row>
-    <row r="941" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="941" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D941" s="6"/>
       <c r="E941" s="6"/>
       <c r="F941" s="6"/>
@@ -16040,7 +16062,7 @@
       <c r="N941" s="6"/>
       <c r="O941" s="6"/>
     </row>
-    <row r="942" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="942" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D942" s="6"/>
       <c r="E942" s="6"/>
       <c r="F942" s="6"/>
@@ -16054,7 +16076,7 @@
       <c r="N942" s="6"/>
       <c r="O942" s="6"/>
     </row>
-    <row r="943" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="943" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D943" s="6"/>
       <c r="E943" s="6"/>
       <c r="F943" s="6"/>
@@ -16068,7 +16090,7 @@
       <c r="N943" s="6"/>
       <c r="O943" s="6"/>
     </row>
-    <row r="944" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="944" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D944" s="6"/>
       <c r="E944" s="6"/>
       <c r="F944" s="6"/>
@@ -16082,7 +16104,7 @@
       <c r="N944" s="6"/>
       <c r="O944" s="6"/>
     </row>
-    <row r="945" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="945" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D945" s="6"/>
       <c r="E945" s="6"/>
       <c r="F945" s="6"/>
@@ -16096,7 +16118,7 @@
       <c r="N945" s="6"/>
       <c r="O945" s="6"/>
     </row>
-    <row r="946" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="946" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D946" s="6"/>
       <c r="E946" s="6"/>
       <c r="F946" s="6"/>
@@ -16110,7 +16132,7 @@
       <c r="N946" s="6"/>
       <c r="O946" s="6"/>
     </row>
-    <row r="947" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="947" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D947" s="6"/>
       <c r="E947" s="6"/>
       <c r="F947" s="6"/>
@@ -16124,7 +16146,7 @@
       <c r="N947" s="6"/>
       <c r="O947" s="6"/>
     </row>
-    <row r="948" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="948" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D948" s="6"/>
       <c r="E948" s="6"/>
       <c r="F948" s="6"/>
@@ -16138,7 +16160,7 @@
       <c r="N948" s="6"/>
       <c r="O948" s="6"/>
     </row>
-    <row r="949" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="949" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D949" s="6"/>
       <c r="E949" s="6"/>
       <c r="F949" s="6"/>
@@ -16152,7 +16174,7 @@
       <c r="N949" s="6"/>
       <c r="O949" s="6"/>
     </row>
-    <row r="950" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="950" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D950" s="6"/>
       <c r="E950" s="6"/>
       <c r="F950" s="6"/>
@@ -16166,7 +16188,7 @@
       <c r="N950" s="6"/>
       <c r="O950" s="6"/>
     </row>
-    <row r="951" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="951" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D951" s="6"/>
       <c r="E951" s="6"/>
       <c r="F951" s="6"/>
@@ -16180,7 +16202,7 @@
       <c r="N951" s="6"/>
       <c r="O951" s="6"/>
     </row>
-    <row r="952" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="952" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D952" s="6"/>
       <c r="E952" s="6"/>
       <c r="F952" s="6"/>
@@ -16194,7 +16216,7 @@
       <c r="N952" s="6"/>
       <c r="O952" s="6"/>
     </row>
-    <row r="953" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="953" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D953" s="6"/>
       <c r="E953" s="6"/>
       <c r="F953" s="6"/>
@@ -16208,7 +16230,7 @@
       <c r="N953" s="6"/>
       <c r="O953" s="6"/>
     </row>
-    <row r="954" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="954" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D954" s="6"/>
       <c r="E954" s="6"/>
       <c r="F954" s="6"/>
@@ -16222,7 +16244,7 @@
       <c r="N954" s="6"/>
       <c r="O954" s="6"/>
     </row>
-    <row r="955" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="955" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D955" s="6"/>
       <c r="E955" s="6"/>
       <c r="F955" s="6"/>
@@ -16236,7 +16258,7 @@
       <c r="N955" s="6"/>
       <c r="O955" s="6"/>
     </row>
-    <row r="956" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="956" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D956" s="6"/>
       <c r="E956" s="6"/>
       <c r="F956" s="6"/>
@@ -16250,7 +16272,7 @@
       <c r="N956" s="6"/>
       <c r="O956" s="6"/>
     </row>
-    <row r="957" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="957" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D957" s="6"/>
       <c r="E957" s="6"/>
       <c r="F957" s="6"/>
@@ -16264,7 +16286,7 @@
       <c r="N957" s="6"/>
       <c r="O957" s="6"/>
     </row>
-    <row r="958" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="958" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D958" s="6"/>
       <c r="E958" s="6"/>
       <c r="F958" s="6"/>
@@ -16278,7 +16300,7 @@
       <c r="N958" s="6"/>
       <c r="O958" s="6"/>
     </row>
-    <row r="959" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="959" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D959" s="6"/>
       <c r="E959" s="6"/>
       <c r="F959" s="6"/>
@@ -16292,7 +16314,7 @@
       <c r="N959" s="6"/>
       <c r="O959" s="6"/>
     </row>
-    <row r="960" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="960" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D960" s="6"/>
       <c r="E960" s="6"/>
       <c r="F960" s="6"/>
@@ -16306,7 +16328,7 @@
       <c r="N960" s="6"/>
       <c r="O960" s="6"/>
     </row>
-    <row r="961" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="961" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D961" s="6"/>
       <c r="E961" s="6"/>
       <c r="F961" s="6"/>
@@ -16320,7 +16342,7 @@
       <c r="N961" s="6"/>
       <c r="O961" s="6"/>
     </row>
-    <row r="962" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="962" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D962" s="6"/>
       <c r="E962" s="6"/>
       <c r="F962" s="6"/>
@@ -16334,7 +16356,7 @@
       <c r="N962" s="6"/>
       <c r="O962" s="6"/>
     </row>
-    <row r="963" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="963" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D963" s="6"/>
       <c r="E963" s="6"/>
       <c r="F963" s="6"/>
@@ -16348,7 +16370,7 @@
       <c r="N963" s="6"/>
       <c r="O963" s="6"/>
     </row>
-    <row r="964" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="964" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D964" s="6"/>
       <c r="E964" s="6"/>
       <c r="F964" s="6"/>
@@ -16362,7 +16384,7 @@
       <c r="N964" s="6"/>
       <c r="O964" s="6"/>
     </row>
-    <row r="965" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="965" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D965" s="6"/>
       <c r="E965" s="6"/>
       <c r="F965" s="6"/>
@@ -16376,7 +16398,7 @@
       <c r="N965" s="6"/>
       <c r="O965" s="6"/>
     </row>
-    <row r="966" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="966" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D966" s="6"/>
       <c r="E966" s="6"/>
       <c r="F966" s="6"/>
@@ -16390,7 +16412,7 @@
       <c r="N966" s="6"/>
       <c r="O966" s="6"/>
     </row>
-    <row r="967" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="967" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D967" s="6"/>
       <c r="E967" s="6"/>
       <c r="F967" s="6"/>
@@ -16404,7 +16426,7 @@
       <c r="N967" s="6"/>
       <c r="O967" s="6"/>
     </row>
-    <row r="968" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="968" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D968" s="6"/>
       <c r="E968" s="6"/>
       <c r="F968" s="6"/>
@@ -16418,7 +16440,7 @@
       <c r="N968" s="6"/>
       <c r="O968" s="6"/>
     </row>
-    <row r="969" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="969" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D969" s="6"/>
       <c r="E969" s="6"/>
       <c r="F969" s="6"/>
@@ -16432,7 +16454,7 @@
       <c r="N969" s="6"/>
       <c r="O969" s="6"/>
     </row>
-    <row r="970" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="970" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D970" s="6"/>
       <c r="E970" s="6"/>
       <c r="F970" s="6"/>
@@ -16446,7 +16468,7 @@
       <c r="N970" s="6"/>
       <c r="O970" s="6"/>
     </row>
-    <row r="971" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="971" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D971" s="6"/>
       <c r="E971" s="6"/>
       <c r="F971" s="6"/>
@@ -16460,7 +16482,7 @@
       <c r="N971" s="6"/>
       <c r="O971" s="6"/>
     </row>
-    <row r="972" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="972" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D972" s="6"/>
       <c r="E972" s="6"/>
       <c r="F972" s="6"/>
@@ -16474,7 +16496,7 @@
       <c r="N972" s="6"/>
       <c r="O972" s="6"/>
     </row>
-    <row r="973" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="973" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D973" s="6"/>
       <c r="E973" s="6"/>
       <c r="F973" s="6"/>
@@ -16488,7 +16510,7 @@
       <c r="N973" s="6"/>
       <c r="O973" s="6"/>
     </row>
-    <row r="974" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="974" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D974" s="6"/>
       <c r="E974" s="6"/>
       <c r="F974" s="6"/>
@@ -16502,7 +16524,7 @@
       <c r="N974" s="6"/>
       <c r="O974" s="6"/>
     </row>
-    <row r="975" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="975" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D975" s="6"/>
       <c r="E975" s="6"/>
       <c r="F975" s="6"/>
@@ -16516,7 +16538,7 @@
       <c r="N975" s="6"/>
       <c r="O975" s="6"/>
     </row>
-    <row r="976" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="976" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D976" s="6"/>
       <c r="E976" s="6"/>
       <c r="F976" s="6"/>
@@ -16530,7 +16552,7 @@
       <c r="N976" s="6"/>
       <c r="O976" s="6"/>
     </row>
-    <row r="977" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="977" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D977" s="6"/>
       <c r="E977" s="6"/>
       <c r="F977" s="6"/>
@@ -16544,7 +16566,7 @@
       <c r="N977" s="6"/>
       <c r="O977" s="6"/>
     </row>
-    <row r="978" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="978" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D978" s="6"/>
       <c r="E978" s="6"/>
       <c r="F978" s="6"/>
@@ -16558,7 +16580,7 @@
       <c r="N978" s="6"/>
       <c r="O978" s="6"/>
     </row>
-    <row r="979" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="979" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D979" s="6"/>
       <c r="E979" s="6"/>
       <c r="F979" s="6"/>
@@ -16572,7 +16594,7 @@
       <c r="N979" s="6"/>
       <c r="O979" s="6"/>
     </row>
-    <row r="980" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="980" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D980" s="6"/>
       <c r="E980" s="6"/>
       <c r="F980" s="6"/>
@@ -16586,7 +16608,7 @@
       <c r="N980" s="6"/>
       <c r="O980" s="6"/>
     </row>
-    <row r="981" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="981" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D981" s="6"/>
       <c r="E981" s="6"/>
       <c r="F981" s="6"/>
@@ -16600,7 +16622,7 @@
       <c r="N981" s="6"/>
       <c r="O981" s="6"/>
     </row>
-    <row r="982" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="982" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D982" s="6"/>
       <c r="E982" s="6"/>
       <c r="F982" s="6"/>
@@ -16614,7 +16636,7 @@
       <c r="N982" s="6"/>
       <c r="O982" s="6"/>
     </row>
-    <row r="983" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="983" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D983" s="6"/>
       <c r="E983" s="6"/>
       <c r="F983" s="6"/>
@@ -16628,7 +16650,7 @@
       <c r="N983" s="6"/>
       <c r="O983" s="6"/>
     </row>
-    <row r="984" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="984" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D984" s="6"/>
       <c r="E984" s="6"/>
       <c r="F984" s="6"/>
@@ -16642,7 +16664,7 @@
       <c r="N984" s="6"/>
       <c r="O984" s="6"/>
     </row>
-    <row r="985" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="985" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D985" s="6"/>
       <c r="E985" s="6"/>
       <c r="F985" s="6"/>
@@ -16656,7 +16678,7 @@
       <c r="N985" s="6"/>
       <c r="O985" s="6"/>
     </row>
-    <row r="986" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="986" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D986" s="6"/>
       <c r="E986" s="6"/>
       <c r="F986" s="6"/>
@@ -16670,7 +16692,7 @@
       <c r="N986" s="6"/>
       <c r="O986" s="6"/>
     </row>
-    <row r="987" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="987" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D987" s="6"/>
       <c r="E987" s="6"/>
       <c r="F987" s="6"/>
@@ -16684,7 +16706,7 @@
       <c r="N987" s="6"/>
       <c r="O987" s="6"/>
     </row>
-    <row r="988" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="988" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D988" s="6"/>
       <c r="E988" s="6"/>
       <c r="F988" s="6"/>
@@ -16698,7 +16720,7 @@
       <c r="N988" s="6"/>
       <c r="O988" s="6"/>
     </row>
-    <row r="989" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="989" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D989" s="6"/>
       <c r="E989" s="6"/>
       <c r="F989" s="6"/>
@@ -16712,7 +16734,7 @@
       <c r="N989" s="6"/>
       <c r="O989" s="6"/>
     </row>
-    <row r="990" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="990" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D990" s="6"/>
       <c r="E990" s="6"/>
       <c r="F990" s="6"/>
@@ -16726,7 +16748,7 @@
       <c r="N990" s="6"/>
       <c r="O990" s="6"/>
     </row>
-    <row r="991" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="991" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D991" s="6"/>
       <c r="E991" s="6"/>
       <c r="F991" s="6"/>
@@ -16740,7 +16762,7 @@
       <c r="N991" s="6"/>
       <c r="O991" s="6"/>
     </row>
-    <row r="992" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="992" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D992" s="6"/>
       <c r="E992" s="6"/>
       <c r="F992" s="6"/>
@@ -16754,7 +16776,7 @@
       <c r="N992" s="6"/>
       <c r="O992" s="6"/>
     </row>
-    <row r="993" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="993" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D993" s="6"/>
       <c r="E993" s="6"/>
       <c r="F993" s="6"/>
@@ -16768,7 +16790,7 @@
       <c r="N993" s="6"/>
       <c r="O993" s="6"/>
     </row>
-    <row r="994" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="994" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D994" s="6"/>
       <c r="E994" s="6"/>
       <c r="F994" s="6"/>
@@ -16782,7 +16804,7 @@
       <c r="N994" s="6"/>
       <c r="O994" s="6"/>
     </row>
-    <row r="995" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="995" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D995" s="6"/>
       <c r="E995" s="6"/>
       <c r="F995" s="6"/>
@@ -16796,7 +16818,7 @@
       <c r="N995" s="6"/>
       <c r="O995" s="6"/>
     </row>
-    <row r="996" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="996" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D996" s="6"/>
       <c r="E996" s="6"/>
       <c r="F996" s="6"/>
@@ -16810,7 +16832,7 @@
       <c r="N996" s="6"/>
       <c r="O996" s="6"/>
     </row>
-    <row r="997" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="997" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D997" s="6"/>
       <c r="E997" s="6"/>
       <c r="F997" s="6"/>
@@ -16824,7 +16846,7 @@
       <c r="N997" s="6"/>
       <c r="O997" s="6"/>
     </row>
-    <row r="998" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="998" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D998" s="6"/>
       <c r="E998" s="6"/>
       <c r="F998" s="6"/>
@@ -16838,7 +16860,7 @@
       <c r="N998" s="6"/>
       <c r="O998" s="6"/>
     </row>
-    <row r="999" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="999" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D999" s="6"/>
       <c r="E999" s="6"/>
       <c r="F999" s="6"/>
@@ -16852,7 +16874,7 @@
       <c r="N999" s="6"/>
       <c r="O999" s="6"/>
     </row>
-    <row r="1000" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="1000" spans="4:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D1000" s="6"/>
       <c r="E1000" s="6"/>
       <c r="F1000" s="6"/>
@@ -16867,7 +16889,6 @@
       <c r="O1000" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O67"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>